--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,6 +22,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>duchao</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="AH1" authorId="0" shapeId="0">
@@ -50,12 +51,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>左开右闭</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="323">
   <si>
     <t>line|行号</t>
   </si>
@@ -581,10 +597,6 @@
   </si>
   <si>
     <t>电磁蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海鲸</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1860,6 +1872,69 @@
     <t>3dby_imgf_sdy</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>深海巨鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>js3_td|3级结算数值跳动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-180</t>
+  </si>
+  <si>
+    <t>30,-64</t>
+  </si>
+  <si>
+    <t>100,-100</t>
+  </si>
+  <si>
+    <t>0,-54</t>
+  </si>
+  <si>
+    <t>fish3dnode/fish3d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300,400,500,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,300,400,500,600,700</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,500,600,800,900,1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,400,500,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,500,600,700</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300,400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,300,400,500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-100</t>
+  </si>
 </sst>
 </file>
 
@@ -1868,7 +1943,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1928,6 +2003,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1985,7 +2068,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2033,6 +2116,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2311,11 +2424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G29" sqref="G29:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI41" sqref="AI41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2343,9 +2456,10 @@
     <col min="32" max="32" width="16.625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="41.75" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2365,10 +2479,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2431,25 +2545,28 @@
         <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="AF1" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2457,22 +2574,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" s="5">
         <v>0.64</v>
@@ -2531,13 +2648,13 @@
         <v>1.2</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2545,22 +2662,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="5">
         <v>0.94</v>
@@ -2619,10 +2736,10 @@
         <v>1.2</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2630,22 +2747,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I4" s="5">
         <v>0.78</v>
@@ -2704,13 +2821,13 @@
         <v>1.2</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2718,22 +2835,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="5">
         <v>1.08</v>
@@ -2792,10 +2909,10 @@
         <v>1.2</v>
       </c>
       <c r="AG5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2803,22 +2920,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="5">
         <v>1.56</v>
@@ -2877,10 +2994,10 @@
         <v>1.2</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2888,22 +3005,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7" s="5">
         <v>1.76</v>
@@ -2965,10 +3082,10 @@
         <v>2</v>
       </c>
       <c r="AG7" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2976,22 +3093,22 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="5">
         <v>0.78</v>
@@ -3051,10 +3168,10 @@
         <v>1.2</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3062,22 +3179,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I9" s="5">
         <v>1.76</v>
@@ -3140,10 +3257,10 @@
         <v>2</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3151,22 +3268,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="5">
         <v>1.64</v>
@@ -3232,10 +3349,10 @@
         <v>2</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3243,22 +3360,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -3321,10 +3438,10 @@
         <v>2</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3332,22 +3449,22 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="5">
         <v>2.36</v>
@@ -3410,10 +3527,10 @@
         <v>2</v>
       </c>
       <c r="AG12" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3421,22 +3538,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="5">
         <v>0.96</v>
@@ -3499,10 +3616,10 @@
         <v>2</v>
       </c>
       <c r="AG13" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3510,22 +3627,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14" s="5">
         <v>0.96</v>
@@ -3588,13 +3705,13 @@
         <v>2</v>
       </c>
       <c r="AF14" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG14" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3602,22 +3719,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" s="5">
         <v>0.74</v>
@@ -3679,13 +3796,13 @@
         <v>2</v>
       </c>
       <c r="AF15" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG15" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3693,22 +3810,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H16" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I16" s="5">
         <v>1.53</v>
@@ -3770,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3781,22 +3898,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17" s="5">
         <v>0.8</v>
@@ -3858,7 +3975,7 @@
         <v>2</v>
       </c>
       <c r="AG17" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3869,22 +3986,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I18" s="5">
         <v>1.53</v>
@@ -3946,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="AG18" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3957,22 +4074,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I19" s="5">
         <v>0.66</v>
@@ -4034,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AG19" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4045,22 +4162,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20" s="5">
         <v>2.2799999999999998</v>
@@ -4130,22 +4247,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21" s="5">
         <v>2.72</v>
@@ -4206,10 +4323,10 @@
         <v>1</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG21" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4220,22 +4337,22 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I22" s="5">
         <v>1.29</v>
@@ -4305,22 +4422,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I23" s="5">
         <v>1.29</v>
@@ -4382,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4393,22 +4510,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" s="5">
         <v>0.94</v>
@@ -4467,10 +4584,10 @@
         <v>1.2</v>
       </c>
       <c r="AF24" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG24" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4481,22 +4598,22 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -4555,7 +4672,7 @@
         <v>1.2</v>
       </c>
       <c r="AG25" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4569,19 +4686,19 @@
         <v>54</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I26" s="5">
         <v>1.44</v>
@@ -4651,22 +4768,22 @@
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I27" s="5">
         <v>3.77</v>
@@ -4728,10 +4845,10 @@
         <v>1</v>
       </c>
       <c r="AF27" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG27" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="AG27" s="8" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4742,22 +4859,22 @@
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I28" s="5">
         <v>2.64</v>
@@ -4791,7 +4908,7 @@
         <v>0.74</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U28" s="7">
         <v>1</v>
@@ -4804,10 +4921,10 @@
       </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z28" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="Z28" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
@@ -4821,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4832,22 +4949,22 @@
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="4">
         <v>2.1</v>
@@ -4910,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="AG29" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4924,19 +5041,19 @@
         <v>55</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="5">
         <v>1.68</v>
@@ -4997,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="AH30" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5008,22 +5125,22 @@
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="4">
         <v>1.48</v>
@@ -5085,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="AH31" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5096,22 +5213,22 @@
         <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="F32" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I32" s="4">
         <v>1.48</v>
@@ -5177,10 +5294,10 @@
         <v>1</v>
       </c>
       <c r="AH32" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5188,22 +5305,22 @@
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I33" s="5">
         <v>1.56</v>
@@ -5265,8 +5382,9 @@
       <c r="AE33" s="9">
         <v>1</v>
       </c>
+      <c r="AI33" s="21"/>
     </row>
-    <row r="34" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5274,22 +5392,22 @@
         <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I34" s="5">
         <v>4.9000000000000004</v>
@@ -5351,8 +5469,10 @@
       <c r="AE34" s="9">
         <v>1</v>
       </c>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="22"/>
     </row>
-    <row r="35" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5360,22 +5480,22 @@
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I35" s="5">
         <v>1.1299999999999999</v>
@@ -5434,10 +5554,12 @@
         <v>1.2</v>
       </c>
       <c r="AG35" s="8" t="s">
-        <v>120</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="22"/>
     </row>
-    <row r="36" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5445,22 +5567,22 @@
         <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I36" s="5">
         <v>0.78</v>
@@ -5522,10 +5644,12 @@
         <v>1.2</v>
       </c>
       <c r="AG36" s="8" t="s">
-        <v>119</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
     </row>
-    <row r="37" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5533,22 +5657,22 @@
         <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="5">
         <v>1.76</v>
@@ -5610,13 +5734,15 @@
         <v>2</v>
       </c>
       <c r="AF37" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG37" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AG37" s="8" t="s">
-        <v>204</v>
-      </c>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22"/>
     </row>
-    <row r="38" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5624,22 +5750,22 @@
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I38" s="5">
         <v>2.64</v>
@@ -5673,7 +5799,7 @@
         <v>0.74</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U38" s="7">
         <v>1</v>
@@ -5686,10 +5812,10 @@
       </c>
       <c r="X38" s="3"/>
       <c r="Y38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z38" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="Z38" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="AA38" s="8">
         <v>1</v>
@@ -5705,359 +5831,375 @@
         <v>1</v>
       </c>
       <c r="AG38" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="22"/>
     </row>
-    <row r="39" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+    <row r="39" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="16">
         <v>38</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I39" s="4">
+      <c r="C39" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="17">
         <v>10</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="16">
         <v>10</v>
       </c>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3">
+      <c r="K39" s="16">
+        <v>1</v>
+      </c>
+      <c r="L39" s="16">
         <v>30</v>
       </c>
-      <c r="M39" s="6">
-        <v>1</v>
-      </c>
-      <c r="N39" s="3">
+      <c r="M39" s="17">
+        <v>1</v>
+      </c>
+      <c r="N39" s="16">
         <v>500</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="16">
         <v>4</v>
       </c>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="5">
+      <c r="P39" s="16"/>
+      <c r="Q39" s="17">
         <v>1.2</v>
       </c>
-      <c r="R39" s="7">
-        <v>1</v>
-      </c>
-      <c r="S39" s="7">
+      <c r="R39" s="18">
+        <v>1</v>
+      </c>
+      <c r="S39" s="18">
         <v>0.74</v>
       </c>
-      <c r="T39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U39" s="7">
-        <v>1</v>
-      </c>
-      <c r="V39" s="7">
-        <v>1</v>
-      </c>
-      <c r="W39" s="7">
+      <c r="T39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" s="18">
+        <v>1</v>
+      </c>
+      <c r="V39" s="18">
+        <v>1</v>
+      </c>
+      <c r="W39" s="18">
         <v>0.35</v>
       </c>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="8" t="s">
+      <c r="X39" s="16"/>
+      <c r="Y39" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z39" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC39" s="19">
+        <v>3500</v>
+      </c>
+      <c r="AD39" s="19">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="AJ39" s="23"/>
+    </row>
+    <row r="40" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16">
+        <v>39</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1.68</v>
+      </c>
+      <c r="J40" s="17">
+        <v>2.84</v>
+      </c>
+      <c r="K40" s="16">
+        <v>1</v>
+      </c>
+      <c r="L40" s="16">
+        <v>30</v>
+      </c>
+      <c r="M40" s="17">
+        <v>1</v>
+      </c>
+      <c r="N40" s="16">
         <v>40</v>
       </c>
-      <c r="Z39" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="9">
-        <v>3500</v>
-      </c>
-      <c r="AD39" s="9">
+      <c r="O40" s="16">
+        <v>3</v>
+      </c>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="R40" s="18">
+        <v>1</v>
+      </c>
+      <c r="S40" s="18">
+        <v>0.74</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U40" s="18">
+        <v>1</v>
+      </c>
+      <c r="V40" s="18">
+        <v>1</v>
+      </c>
+      <c r="W40" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="Y40" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z40" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC40" s="19">
+        <v>9100</v>
+      </c>
+      <c r="AD40" s="19">
         <v>2</v>
       </c>
-      <c r="AE39" s="9">
-        <v>1</v>
-      </c>
+      <c r="AE40" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG40" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI40" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ40" s="23"/>
     </row>
-    <row r="40" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3">
-        <v>39</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I40" s="5">
-        <v>1.68</v>
-      </c>
-      <c r="J40" s="5">
-        <v>2.84</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1</v>
-      </c>
-      <c r="L40" s="3">
+    <row r="41" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16">
+        <v>40</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" s="17">
+        <v>7.28</v>
+      </c>
+      <c r="J41" s="17">
+        <v>7.53</v>
+      </c>
+      <c r="K41" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="L41" s="16">
         <v>30</v>
       </c>
-      <c r="M40" s="6">
-        <v>1</v>
-      </c>
-      <c r="N40" s="3">
-        <v>40</v>
-      </c>
-      <c r="O40" s="3">
-        <v>3</v>
-      </c>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="R40" s="7">
-        <v>1</v>
-      </c>
-      <c r="S40" s="7">
+      <c r="M41" s="17">
+        <v>1</v>
+      </c>
+      <c r="N41" s="16">
+        <v>400</v>
+      </c>
+      <c r="O41" s="16">
+        <v>1</v>
+      </c>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="R41" s="18">
+        <v>1</v>
+      </c>
+      <c r="S41" s="18">
         <v>0.74</v>
       </c>
-      <c r="T40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U40" s="7">
-        <v>1</v>
-      </c>
-      <c r="V40" s="7">
-        <v>1</v>
-      </c>
-      <c r="W40" s="7">
+      <c r="T41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U41" s="18">
+        <v>1</v>
+      </c>
+      <c r="V41" s="18">
+        <v>1</v>
+      </c>
+      <c r="W41" s="18">
         <v>0.35</v>
       </c>
-      <c r="Y40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z40" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC40" s="9">
+      <c r="Y41" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z41" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC41" s="19">
         <v>9100</v>
       </c>
-      <c r="AD40" s="9">
+      <c r="AD41" s="19">
         <v>2</v>
       </c>
-      <c r="AE40" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG40" s="8" t="s">
-        <v>186</v>
-      </c>
+      <c r="AE41" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ41" s="23"/>
     </row>
-    <row r="41" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3">
-        <v>40</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I41" s="5">
-        <v>7.28</v>
-      </c>
-      <c r="J41" s="5">
-        <v>7.53</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="L41" s="3">
+    <row r="42" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16">
+        <v>41</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="17">
+        <v>1</v>
+      </c>
+      <c r="J42" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="K42" s="16">
+        <v>1</v>
+      </c>
+      <c r="L42" s="16">
         <v>30</v>
       </c>
-      <c r="M41" s="6">
-        <v>1</v>
-      </c>
-      <c r="N41" s="3">
-        <v>400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1</v>
-      </c>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="R41" s="7">
-        <v>1</v>
-      </c>
-      <c r="S41" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U41" s="7">
-        <v>1</v>
-      </c>
-      <c r="V41" s="7">
-        <v>1</v>
-      </c>
-      <c r="W41" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="Y41" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z41" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="9">
-        <v>9100</v>
-      </c>
-      <c r="AD41" s="9">
+      <c r="M42" s="17">
+        <v>1</v>
+      </c>
+      <c r="N42" s="16">
+        <v>10</v>
+      </c>
+      <c r="O42" s="16">
         <v>2</v>
       </c>
-      <c r="AE41" s="9">
-        <v>1</v>
-      </c>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R42" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="S42" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U42" s="18">
+        <v>1</v>
+      </c>
+      <c r="V42" s="18">
+        <v>1</v>
+      </c>
+      <c r="W42" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z42" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC42" s="19">
+        <v>3200</v>
+      </c>
+      <c r="AD42" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AE42" s="19">
+        <v>2</v>
+      </c>
+      <c r="AG42" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI42" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ42" s="23"/>
     </row>
-    <row r="42" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3">
-        <v>41</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I42" s="5">
-        <v>1</v>
-      </c>
-      <c r="J42" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3">
-        <v>30</v>
-      </c>
-      <c r="M42" s="6">
-        <v>1</v>
-      </c>
-      <c r="N42" s="3">
-        <v>10</v>
-      </c>
-      <c r="O42" s="3">
-        <v>2</v>
-      </c>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R42" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="S42" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U42" s="7">
-        <v>1</v>
-      </c>
-      <c r="V42" s="7">
-        <v>1</v>
-      </c>
-      <c r="W42" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z42" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC42" s="9">
-        <v>3200</v>
-      </c>
-      <c r="AD42" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AE42" s="9">
-        <v>2</v>
-      </c>
-      <c r="AG42" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -6065,22 +6207,22 @@
         <v>42</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I43" s="5">
         <v>1</v>
@@ -6145,98 +6287,104 @@
         <v>2</v>
       </c>
       <c r="AG43" s="8" t="s">
-        <v>189</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="AI43" s="22"/>
+      <c r="AJ43" s="22"/>
     </row>
-    <row r="44" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+    <row r="44" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="16">
         <v>43</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="5" t="s">
+      <c r="C44" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I44" s="5">
+      <c r="F44" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="17">
         <v>0.96</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="17">
         <v>0.83</v>
       </c>
-      <c r="K44" s="3">
-        <v>1</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="K44" s="16">
+        <v>1</v>
+      </c>
+      <c r="L44" s="16">
         <v>30</v>
       </c>
-      <c r="M44" s="6">
-        <v>1</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="M44" s="17">
+        <v>1</v>
+      </c>
+      <c r="N44" s="16">
         <v>35</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="16">
         <v>3</v>
       </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="5">
+      <c r="P44" s="16"/>
+      <c r="Q44" s="17">
         <v>0.7</v>
       </c>
-      <c r="R44" s="7">
-        <v>1</v>
-      </c>
-      <c r="S44" s="7">
+      <c r="R44" s="18">
+        <v>1</v>
+      </c>
+      <c r="S44" s="18">
         <v>0.74</v>
       </c>
-      <c r="T44" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U44" s="7">
-        <v>1</v>
-      </c>
-      <c r="V44" s="7">
+      <c r="T44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U44" s="18">
+        <v>1</v>
+      </c>
+      <c r="V44" s="18">
         <v>0.7</v>
       </c>
-      <c r="W44" s="7">
+      <c r="W44" s="18">
         <v>0.35</v>
       </c>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z44" s="8" t="s">
+      <c r="X44" s="16"/>
+      <c r="Y44" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z44" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AC44" s="9">
+      <c r="AC44" s="19">
         <v>9100</v>
       </c>
-      <c r="AD44" s="9">
+      <c r="AD44" s="19">
         <v>1.5</v>
       </c>
-      <c r="AE44" s="9">
+      <c r="AE44" s="19">
         <v>2</v>
       </c>
-      <c r="AG44" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="AG44" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI44" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ44" s="23"/>
     </row>
-    <row r="45" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -6244,22 +6392,22 @@
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
@@ -6324,10 +6472,12 @@
         <v>2</v>
       </c>
       <c r="AG45" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AI45" s="22"/>
+      <c r="AJ45" s="22"/>
     </row>
-    <row r="46" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -6335,22 +6485,22 @@
         <v>45</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I46" s="5">
         <v>0.96</v>
@@ -6412,371 +6562,389 @@
         <v>2</v>
       </c>
       <c r="AG46" s="8" t="s">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="22"/>
     </row>
-    <row r="47" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+    <row r="47" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="16">
         <v>46</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="C47" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="J47" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="K47" s="16">
+        <v>1</v>
+      </c>
+      <c r="L47" s="16">
+        <v>30</v>
+      </c>
+      <c r="M47" s="17">
+        <v>1</v>
+      </c>
+      <c r="N47" s="16">
+        <v>15</v>
+      </c>
+      <c r="O47" s="16">
+        <v>2</v>
+      </c>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="R47" s="18">
+        <v>1</v>
+      </c>
+      <c r="S47" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U47" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="V47" s="18">
+        <v>1</v>
+      </c>
+      <c r="W47" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z47" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC47" s="19">
+        <v>9100</v>
+      </c>
+      <c r="AD47" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AE47" s="19">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG47" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH47" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI47" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ47" s="23"/>
+    </row>
+    <row r="48" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16">
+        <v>47</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="17">
+        <v>1</v>
+      </c>
+      <c r="J48" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="K48" s="16">
+        <v>1</v>
+      </c>
+      <c r="L48" s="16">
+        <v>30</v>
+      </c>
+      <c r="M48" s="17">
+        <v>1</v>
+      </c>
+      <c r="N48" s="16">
+        <v>10</v>
+      </c>
+      <c r="O48" s="16">
+        <v>2</v>
+      </c>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R48" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="S48" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="T48" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U48" s="18">
+        <v>1</v>
+      </c>
+      <c r="V48" s="18">
+        <v>1</v>
+      </c>
+      <c r="W48" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z48" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC48" s="19">
+        <v>3300</v>
+      </c>
+      <c r="AD48" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AE48" s="19">
+        <v>2</v>
+      </c>
+      <c r="AG48" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI48" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="AJ48" s="23"/>
+    </row>
+    <row r="49" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16">
+        <v>48</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I47" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="J47" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="G49" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="17">
+        <v>2</v>
+      </c>
+      <c r="J49" s="17">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K49" s="16">
+        <v>1</v>
+      </c>
+      <c r="L49" s="16">
         <v>30</v>
       </c>
-      <c r="M47" s="6">
-        <v>1</v>
-      </c>
-      <c r="N47" s="3">
-        <v>15</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="M49" s="17">
+        <v>1</v>
+      </c>
+      <c r="N49" s="16">
+        <v>40</v>
+      </c>
+      <c r="O49" s="16">
+        <v>3</v>
+      </c>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="R49" s="18">
+        <v>1</v>
+      </c>
+      <c r="S49" s="18">
+        <v>0.22</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U49" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="V49" s="18">
+        <v>1</v>
+      </c>
+      <c r="W49" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC49" s="19">
+        <v>9100</v>
+      </c>
+      <c r="AD49" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AE49" s="19">
         <v>2</v>
       </c>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="5">
+      <c r="AG49" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI49" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="AJ49" s="23"/>
+    </row>
+    <row r="50" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16">
+        <v>49</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="17">
+        <v>2</v>
+      </c>
+      <c r="J50" s="17">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K50" s="16">
+        <v>1</v>
+      </c>
+      <c r="L50" s="16">
+        <v>30</v>
+      </c>
+      <c r="M50" s="17">
+        <v>1</v>
+      </c>
+      <c r="N50" s="16">
+        <v>40</v>
+      </c>
+      <c r="O50" s="16">
+        <v>3</v>
+      </c>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="R50" s="18">
+        <v>1</v>
+      </c>
+      <c r="S50" s="18">
+        <v>0.22</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U50" s="18">
         <v>0.8</v>
       </c>
-      <c r="R47" s="7">
-        <v>1</v>
-      </c>
-      <c r="S47" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="T47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U47" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="V47" s="7">
-        <v>1</v>
-      </c>
-      <c r="W47" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z47" s="8" t="s">
+      <c r="V50" s="18">
+        <v>1</v>
+      </c>
+      <c r="W50" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z50" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC47" s="9">
-        <v>9100</v>
-      </c>
-      <c r="AD47" s="9">
+      <c r="AA50" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="19">
+        <v>2400</v>
+      </c>
+      <c r="AD50" s="19">
         <v>1.5</v>
       </c>
-      <c r="AE47" s="9">
+      <c r="AE50" s="19">
         <v>2</v>
       </c>
-      <c r="AF47" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG47" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH47" s="8" t="s">
-        <v>197</v>
-      </c>
+      <c r="AG50" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI50" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="AJ50" s="23"/>
     </row>
-    <row r="48" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3">
-        <v>47</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I48" s="5">
-        <v>1</v>
-      </c>
-      <c r="J48" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
-      <c r="L48" s="3">
-        <v>30</v>
-      </c>
-      <c r="M48" s="6">
-        <v>1</v>
-      </c>
-      <c r="N48" s="3">
-        <v>10</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2</v>
-      </c>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R48" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="S48" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="T48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U48" s="7">
-        <v>1</v>
-      </c>
-      <c r="V48" s="7">
-        <v>1</v>
-      </c>
-      <c r="W48" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z48" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC48" s="9">
-        <v>3300</v>
-      </c>
-      <c r="AD48" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AE48" s="9">
-        <v>2</v>
-      </c>
-      <c r="AG48" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3">
-        <v>48</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I49" s="5">
-        <v>2</v>
-      </c>
-      <c r="J49" s="5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1</v>
-      </c>
-      <c r="L49" s="3">
-        <v>30</v>
-      </c>
-      <c r="M49" s="6">
-        <v>1</v>
-      </c>
-      <c r="N49" s="3">
-        <v>40</v>
-      </c>
-      <c r="O49" s="3">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="R49" s="7">
-        <v>1</v>
-      </c>
-      <c r="S49" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="T49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U49" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="V49" s="7">
-        <v>1</v>
-      </c>
-      <c r="W49" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z49" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC49" s="9">
-        <v>9100</v>
-      </c>
-      <c r="AD49" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AE49" s="9">
-        <v>2</v>
-      </c>
-      <c r="AG49" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3">
-        <v>49</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I50" s="5">
-        <v>2</v>
-      </c>
-      <c r="J50" s="5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K50" s="3">
-        <v>1</v>
-      </c>
-      <c r="L50" s="3">
-        <v>30</v>
-      </c>
-      <c r="M50" s="6">
-        <v>1</v>
-      </c>
-      <c r="N50" s="3">
-        <v>40</v>
-      </c>
-      <c r="O50" s="3">
-        <v>3</v>
-      </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="R50" s="7">
-        <v>1</v>
-      </c>
-      <c r="S50" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="T50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U50" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="V50" s="7">
-        <v>1</v>
-      </c>
-      <c r="W50" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z50" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA50" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="9">
-        <v>2400</v>
-      </c>
-      <c r="AD50" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AE50" s="9">
-        <v>2</v>
-      </c>
-      <c r="AG50" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -6784,22 +6952,22 @@
         <v>50</v>
       </c>
       <c r="C51" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" s="15" t="s">
+      <c r="F51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="I51" s="5">
         <v>2</v>
@@ -6864,11 +7032,15 @@
       <c r="AE51" s="9"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="8"/>
+      <c r="AI51" s="24"/>
+      <c r="AJ51" s="24"/>
     </row>
-    <row r="52" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI55" s="8"/>
+    </row>
+    <row r="56" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -1897,10 +1897,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>100,200,300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>100,200,300,400,500,600</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1909,14 +1905,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>300,400,500,600,700,800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,500,600,800,900,1000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>200,400,500,600</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1934,6 +1922,18 @@
   </si>
   <si>
     <t>0,-100</t>
+  </si>
+  <si>
+    <t>100,200,300,400,500,650</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,100,200,300,400,500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,100,200,300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2426,9 +2426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="5" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI41" sqref="AI41"/>
+      <selection pane="topRight" activeCell="AI43" sqref="AI43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="X39" s="16"/>
       <c r="Y39" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Z39" s="19" t="s">
         <v>50</v>
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="AI39" s="23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AJ39" s="23"/>
     </row>
@@ -6015,7 +6015,7 @@
         <v>185</v>
       </c>
       <c r="AI40" s="23" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AJ40" s="23"/>
     </row>
@@ -6103,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="AI41" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AJ41" s="23"/>
     </row>
@@ -6195,7 +6195,7 @@
         <v>210</v>
       </c>
       <c r="AI42" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AJ42" s="23"/>
     </row>
@@ -6380,7 +6380,7 @@
         <v>117</v>
       </c>
       <c r="AI44" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AJ44" s="23"/>
     </row>
@@ -6661,7 +6661,7 @@
         <v>196</v>
       </c>
       <c r="AI47" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AJ47" s="23"/>
     </row>
@@ -6753,7 +6753,7 @@
         <v>190</v>
       </c>
       <c r="AI48" s="23" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AJ48" s="23"/>
     </row>
@@ -6845,7 +6845,7 @@
         <v>115</v>
       </c>
       <c r="AI49" s="23" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AJ49" s="23"/>
     </row>
@@ -6940,7 +6940,7 @@
         <v>227</v>
       </c>
       <c r="AI50" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AJ50" s="23"/>
     </row>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2426,9 +2426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI43" sqref="AI43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2607,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2" s="3">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O4" s="3">
         <v>1</v>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O5" s="3">
         <v>1</v>
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O6" s="3">
         <v>1</v>
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="3">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="O7" s="3">
         <v>1</v>
@@ -3126,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="O9" s="3">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O11" s="3">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="3">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="O12" s="3">
         <v>2</v>
@@ -3571,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="3">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="O13" s="3">
         <v>3</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O14" s="3">
         <v>3</v>
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O15" s="3">
         <v>2</v>
@@ -3843,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="3">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="O16" s="3">
         <v>4</v>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="3">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="O17" s="3">
         <v>3</v>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="3">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="O18" s="3">
         <v>4</v>
@@ -4107,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="O19" s="3">
         <v>4</v>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="3">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="O23" s="3">
         <v>3</v>
@@ -4543,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="3">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="O24" s="3">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="3">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="O25" s="3">
         <v>1</v>
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="O27" s="3">
         <v>4</v>
@@ -4892,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O28" s="3">
         <v>4</v>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3">
         <v>4</v>
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="3">
         <v>3</v>
@@ -5158,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
         <v>4</v>
@@ -5246,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>4</v>
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>4</v>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="3">
         <v>1</v>
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O36" s="3">
         <v>1</v>
@@ -5690,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O37" s="3">
         <v>1</v>
@@ -5783,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O38" s="3">
         <v>4</v>
@@ -5877,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="16">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O39" s="16">
         <v>4</v>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="16">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="O40" s="16">
         <v>3</v>
@@ -6060,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="16">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="O41" s="16">
         <v>1</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="16">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="O42" s="16">
         <v>2</v>
@@ -6240,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="3">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="O43" s="3">
         <v>2</v>
@@ -6333,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="N44" s="16">
-        <v>35</v>
+        <v>600</v>
       </c>
       <c r="O44" s="16">
         <v>3</v>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="N45" s="3">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="O45" s="3">
         <v>2</v>
@@ -6518,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="3">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="O46" s="3">
         <v>3</v>
@@ -6608,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="16">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="O47" s="16">
         <v>2</v>
@@ -6706,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="16">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="O48" s="16">
         <v>2</v>
@@ -6798,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="N49" s="16">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="O49" s="16">
         <v>3</v>
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="N50" s="16">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="O50" s="16">
         <v>3</v>
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O51" s="3">
         <v>3</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -1797,10 +1797,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_yu42</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu12</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1933,6 +1929,10 @@
   </si>
   <si>
     <t>50,100,200,300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2428,7 +2428,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N51" sqref="N51"/>
+      <selection pane="topRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2563,7 +2563,7 @@
         <v>195</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4165,13 +4165,13 @@
         <v>143</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>63</v>
@@ -4346,7 +4346,7 @@
         <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>63</v>
@@ -4686,7 +4686,7 @@
         <v>54</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>146</v>
@@ -4871,7 +4871,7 @@
         <v>80</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>104</v>
@@ -4958,10 +4958,10 @@
         <v>247</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>90</v>
@@ -5041,7 +5041,7 @@
         <v>55</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>56</v>
@@ -5128,7 +5128,7 @@
         <v>230</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>57</v>
@@ -5216,16 +5216,16 @@
         <v>231</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="F32" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>90</v>
@@ -5308,7 +5308,7 @@
         <v>237</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>235</v>
@@ -5395,7 +5395,7 @@
         <v>236</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>215</v>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="X39" s="16"/>
       <c r="Y39" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z39" s="19" t="s">
         <v>50</v>
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="AI39" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AJ39" s="23"/>
     </row>
@@ -5994,7 +5994,7 @@
         <v>0.35</v>
       </c>
       <c r="Y40" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z40" s="19" t="s">
         <v>43</v>
@@ -6015,7 +6015,7 @@
         <v>185</v>
       </c>
       <c r="AI40" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AJ40" s="23"/>
     </row>
@@ -6030,10 +6030,10 @@
         <v>240</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>74</v>
@@ -6103,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="AI41" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AJ41" s="23"/>
     </row>
@@ -6118,7 +6118,7 @@
         <v>238</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>212</v>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="X42" s="16"/>
       <c r="Y42" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z42" s="19" t="s">
         <v>36</v>
@@ -6195,7 +6195,7 @@
         <v>210</v>
       </c>
       <c r="AI42" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AJ42" s="23"/>
     </row>
@@ -6210,7 +6210,7 @@
         <v>176</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>150</v>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="X44" s="16"/>
       <c r="Y44" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Z44" s="19" t="s">
         <v>39</v>
@@ -6380,7 +6380,7 @@
         <v>117</v>
       </c>
       <c r="AI44" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AJ44" s="23"/>
     </row>
@@ -6488,7 +6488,7 @@
         <v>108</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>111</v>
@@ -6578,7 +6578,7 @@
         <v>228</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>213</v>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="X47" s="16"/>
       <c r="Y47" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z47" s="19" t="s">
         <v>30</v>
@@ -6652,7 +6652,7 @@
         <v>2</v>
       </c>
       <c r="AF47" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG47" s="19" t="s">
         <v>186</v>
@@ -6661,7 +6661,7 @@
         <v>196</v>
       </c>
       <c r="AI47" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AJ47" s="23"/>
     </row>
@@ -6676,7 +6676,7 @@
         <v>232</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>209</v>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="X48" s="16"/>
       <c r="Y48" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z48" s="19" t="s">
         <v>36</v>
@@ -6753,7 +6753,7 @@
         <v>190</v>
       </c>
       <c r="AI48" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AJ48" s="23"/>
     </row>
@@ -6845,7 +6845,7 @@
         <v>115</v>
       </c>
       <c r="AI49" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AJ49" s="23"/>
     </row>
@@ -6860,7 +6860,7 @@
         <v>234</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>244</v>
@@ -6940,7 +6940,7 @@
         <v>227</v>
       </c>
       <c r="AI50" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AJ50" s="23"/>
     </row>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="324">
   <si>
     <t>line|行号</t>
   </si>
@@ -1933,6 +1933,10 @@
   </si>
   <si>
     <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_tbl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2426,9 +2430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4434,7 +4438,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>104</v>
@@ -4522,7 +4526,7 @@
         <v>65</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>64</v>
+        <v>323</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>104</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="333">
   <si>
     <t>line|行号</t>
   </si>
@@ -729,10 +729,6 @@
   </si>
   <si>
     <t>8dby_imgf_fdcl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_fdcl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1546,10 +1542,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_imgf_fdcl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>远古龙龟</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1861,10 +1853,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_imgf_fdcl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_imgf_sdy</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1937,6 +1925,54 @@
   </si>
   <si>
     <t>3dby_imgf_tbl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yle_imgf_bwx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yle_imgf_hjjl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yle_imgf_shjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yle_imgf_syjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yle_imgf_yglg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_mgy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hkzdy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hjcts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_djs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_jc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_tsz</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1947,7 +1983,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2015,8 +2051,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2027,6 +2070,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2072,7 +2121,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2107,49 +2156,91 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2430,12 +2521,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G23" sqref="G23"/>
+      <selection pane="topRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -2463,7 +2554,7 @@
     <col min="35" max="35" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="60.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2486,7 +2577,7 @@
         <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2549,28 +2640,28 @@
         <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="AF1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="9" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2578,22 +2669,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" s="5">
         <v>0.64</v>
@@ -2652,13 +2743,13 @@
         <v>1.2</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="9" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2666,13 +2757,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>65</v>
@@ -2681,7 +2772,7 @@
         <v>64</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" s="5">
         <v>0.94</v>
@@ -2740,10 +2831,10 @@
         <v>1.2</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="9" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2751,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>82</v>
@@ -2766,7 +2857,7 @@
         <v>64</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4" s="5">
         <v>0.78</v>
@@ -2825,13 +2916,13 @@
         <v>1.2</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="9" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2839,13 +2930,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>66</v>
@@ -2854,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" s="5">
         <v>1.08</v>
@@ -2913,10 +3004,10 @@
         <v>1.2</v>
       </c>
       <c r="AG5" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="9" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2924,13 +3015,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>67</v>
@@ -2939,7 +3030,7 @@
         <v>64</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" s="5">
         <v>1.56</v>
@@ -2998,10 +3089,10 @@
         <v>1.2</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="9" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3009,10 +3100,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>31</v>
@@ -3024,7 +3115,7 @@
         <v>79</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="5">
         <v>1.76</v>
@@ -3086,10 +3177,10 @@
         <v>2</v>
       </c>
       <c r="AG7" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="9" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3097,22 +3188,22 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" s="5">
         <v>0.78</v>
@@ -3172,10 +3263,10 @@
         <v>1.2</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="9" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3183,13 +3274,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>76</v>
@@ -3198,7 +3289,7 @@
         <v>79</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="5">
         <v>1.76</v>
@@ -3261,10 +3352,10 @@
         <v>2</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="9" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3272,13 +3363,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>70</v>
@@ -3287,7 +3378,7 @@
         <v>79</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="5">
         <v>1.64</v>
@@ -3353,10 +3444,10 @@
         <v>2</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" s="9" customFormat="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3364,13 +3455,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>71</v>
@@ -3379,7 +3470,7 @@
         <v>79</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -3442,10 +3533,10 @@
         <v>2</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" s="9" customFormat="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3453,13 +3544,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>72</v>
@@ -3468,7 +3559,7 @@
         <v>79</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="5">
         <v>2.36</v>
@@ -3531,10 +3622,10 @@
         <v>2</v>
       </c>
       <c r="AG12" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" s="9" customFormat="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3542,13 +3633,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>73</v>
@@ -3557,7 +3648,7 @@
         <v>79</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="5">
         <v>0.96</v>
@@ -3620,10 +3711,10 @@
         <v>2</v>
       </c>
       <c r="AG13" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="9" customFormat="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3631,13 +3722,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>85</v>
@@ -3646,7 +3737,7 @@
         <v>79</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="5">
         <v>0.96</v>
@@ -3709,13 +3800,13 @@
         <v>2</v>
       </c>
       <c r="AF14" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG14" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" s="9" customFormat="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3723,13 +3814,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>75</v>
@@ -3738,7 +3829,7 @@
         <v>79</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I15" s="5">
         <v>0.74</v>
@@ -3800,13 +3891,13 @@
         <v>2</v>
       </c>
       <c r="AF15" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG15" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" s="9" customFormat="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3814,13 +3905,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>78</v>
@@ -3829,7 +3920,7 @@
         <v>79</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I16" s="5">
         <v>1.53</v>
@@ -3891,10 +3982,10 @@
         <v>2</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" s="9" customFormat="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3902,13 +3993,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>77</v>
@@ -3917,7 +4008,7 @@
         <v>79</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I17" s="5">
         <v>0.8</v>
@@ -3979,271 +4070,271 @@
         <v>2</v>
       </c>
       <c r="AG17" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" spans="1:34" s="28" customFormat="1">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="22">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1.53</v>
+      </c>
+      <c r="J18" s="23">
+        <v>1.48</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="L18" s="22">
+        <v>30</v>
+      </c>
+      <c r="M18" s="25">
+        <v>1</v>
+      </c>
+      <c r="N18" s="22">
+        <v>40</v>
+      </c>
+      <c r="O18" s="22">
+        <v>4</v>
+      </c>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R18" s="26">
+        <v>1</v>
+      </c>
+      <c r="S18" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="T18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="V18" s="26">
+        <v>1</v>
+      </c>
+      <c r="W18" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC18" s="28">
+        <v>7200</v>
+      </c>
+      <c r="AD18" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="AE18" s="28">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" s="28" customFormat="1">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22">
+        <v>18</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="E19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="H19" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="5">
-        <v>1.53</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1.48</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="I19" s="23">
+        <v>0.66</v>
+      </c>
+      <c r="J19" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="K19" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="L19" s="22">
+        <v>30</v>
+      </c>
+      <c r="M19" s="25">
+        <v>1</v>
+      </c>
+      <c r="N19" s="22">
+        <v>60</v>
+      </c>
+      <c r="O19" s="22">
+        <v>4</v>
+      </c>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="23">
         <v>0.8</v>
       </c>
-      <c r="L18" s="3">
+      <c r="R19" s="26">
+        <v>1</v>
+      </c>
+      <c r="S19" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T19" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" s="26">
+        <v>1</v>
+      </c>
+      <c r="V19" s="26">
+        <v>1</v>
+      </c>
+      <c r="W19" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC19" s="28">
+        <v>7100</v>
+      </c>
+      <c r="AD19" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="AE19" s="28">
+        <v>2</v>
+      </c>
+      <c r="AG19" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" s="28" customFormat="1">
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22">
+        <v>19</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J20" s="23">
+        <v>3.46</v>
+      </c>
+      <c r="K20" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="L20" s="22">
         <v>30</v>
       </c>
-      <c r="M18" s="6">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="M20" s="25">
+        <v>1</v>
+      </c>
+      <c r="N20" s="22">
+        <v>60</v>
+      </c>
+      <c r="O20" s="22">
+        <v>4</v>
+      </c>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R20" s="26">
+        <v>1</v>
+      </c>
+      <c r="S20" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" s="26">
+        <v>1</v>
+      </c>
+      <c r="V20" s="26">
+        <v>1</v>
+      </c>
+      <c r="W20" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="O18" s="3">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="R18" s="7">
-        <v>1</v>
-      </c>
-      <c r="S18" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="V18" s="7">
-        <v>1</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>7200</v>
-      </c>
-      <c r="AD18" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AE18" s="9">
+      <c r="Z20" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC20" s="28">
+        <v>7000</v>
+      </c>
+      <c r="AD20" s="28">
         <v>2</v>
       </c>
-      <c r="AG18" s="8" t="s">
-        <v>189</v>
+      <c r="AE20" s="28">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L19" s="3">
-        <v>30</v>
-      </c>
-      <c r="M19" s="6">
-        <v>1</v>
-      </c>
-      <c r="N19" s="3">
-        <v>60</v>
-      </c>
-      <c r="O19" s="3">
-        <v>4</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="R19" s="7">
-        <v>1</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U19" s="7">
-        <v>1</v>
-      </c>
-      <c r="V19" s="7">
-        <v>1</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC19" s="9">
-        <v>7100</v>
-      </c>
-      <c r="AD19" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AE19" s="9">
-        <v>2</v>
-      </c>
-      <c r="AG19" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="5">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="J20" s="5">
-        <v>3.46</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L20" s="3">
-        <v>30</v>
-      </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3">
-        <v>60</v>
-      </c>
-      <c r="O20" s="3">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="R20" s="7">
-        <v>1</v>
-      </c>
-      <c r="S20" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U20" s="7">
-        <v>1</v>
-      </c>
-      <c r="V20" s="7">
-        <v>1</v>
-      </c>
-      <c r="W20" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC20" s="9">
-        <v>7000</v>
-      </c>
-      <c r="AD20" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" s="9" customFormat="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4251,13 +4342,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>68</v>
@@ -4266,7 +4357,7 @@
         <v>64</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I21" s="5">
         <v>2.72</v>
@@ -4327,98 +4418,98 @@
         <v>1</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG21" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:34" s="28" customFormat="1">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="22">
         <v>21</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="F22" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="23">
         <v>1.29</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="23">
         <v>1.8</v>
       </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="K22" s="22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="22">
         <v>30</v>
       </c>
-      <c r="M22" s="6">
-        <v>1</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="M22" s="25">
+        <v>1</v>
+      </c>
+      <c r="N22" s="22">
         <v>55</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="22">
         <v>3</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="5">
+      <c r="P22" s="22"/>
+      <c r="Q22" s="23">
         <v>0.8</v>
       </c>
-      <c r="R22" s="7">
-        <v>1</v>
-      </c>
-      <c r="S22" s="7">
+      <c r="R22" s="26">
+        <v>1</v>
+      </c>
+      <c r="S22" s="26">
         <v>0.8</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="26">
         <v>1.5</v>
       </c>
-      <c r="V22" s="7">
-        <v>1</v>
-      </c>
-      <c r="W22" s="7">
+      <c r="V22" s="26">
+        <v>1</v>
+      </c>
+      <c r="W22" s="26">
         <v>0.35</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="8" t="s">
+      <c r="X22" s="22"/>
+      <c r="Y22" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="Z22" s="8" t="s">
+      <c r="Z22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AC22" s="9">
+      <c r="AC22" s="28">
         <v>6400</v>
       </c>
-      <c r="AD22" s="9">
+      <c r="AD22" s="28">
         <v>2</v>
       </c>
-      <c r="AE22" s="9">
+      <c r="AE22" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" s="9" customFormat="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4426,22 +4517,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>104</v>
+        <v>320</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="I23" s="5">
         <v>1.29</v>
@@ -4503,10 +4594,10 @@
         <v>1</v>
       </c>
       <c r="AG23" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" s="9" customFormat="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4514,22 +4605,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>65</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>104</v>
+        <v>320</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="I24" s="5">
         <v>0.94</v>
@@ -4588,13 +4679,13 @@
         <v>1.2</v>
       </c>
       <c r="AF24" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG24" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" s="9" customFormat="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4602,22 +4693,22 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>104</v>
+      <c r="H25" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -4676,2375 +4767,2375 @@
         <v>1.2</v>
       </c>
       <c r="AG25" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:34" s="28" customFormat="1">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="22">
         <v>25</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="23">
+        <v>1.44</v>
+      </c>
+      <c r="J26" s="23">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K26" s="22">
+        <v>1</v>
+      </c>
+      <c r="L26" s="22">
+        <v>30</v>
+      </c>
+      <c r="M26" s="25">
+        <v>1</v>
+      </c>
+      <c r="N26" s="22">
+        <v>200</v>
+      </c>
+      <c r="O26" s="22">
+        <v>2</v>
+      </c>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R26" s="26">
+        <v>1</v>
+      </c>
+      <c r="S26" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T26" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26" s="26">
+        <v>1</v>
+      </c>
+      <c r="V26" s="26">
+        <v>1</v>
+      </c>
+      <c r="W26" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="Y26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z26" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="28">
+        <v>6000</v>
+      </c>
+      <c r="AD26" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" s="28" customFormat="1">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22">
+        <v>26</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="23">
+        <v>3.77</v>
+      </c>
+      <c r="J27" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="K27" s="22">
+        <v>1</v>
+      </c>
+      <c r="L27" s="22">
+        <v>30</v>
+      </c>
+      <c r="M27" s="25">
+        <v>1</v>
+      </c>
+      <c r="N27" s="22">
+        <v>180</v>
+      </c>
+      <c r="O27" s="22">
+        <v>4</v>
+      </c>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R27" s="26">
+        <v>1</v>
+      </c>
+      <c r="S27" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U27" s="26">
+        <v>1</v>
+      </c>
+      <c r="V27" s="26">
+        <v>1</v>
+      </c>
+      <c r="W27" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="Y27" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z27" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="28">
+        <v>5900</v>
+      </c>
+      <c r="AD27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG27" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" s="28" customFormat="1">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22">
+        <v>27</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="23">
+        <v>2.64</v>
+      </c>
+      <c r="J28" s="23">
+        <v>2.38</v>
+      </c>
+      <c r="K28" s="22">
+        <v>1</v>
+      </c>
+      <c r="L28" s="22">
+        <v>30</v>
+      </c>
+      <c r="M28" s="30">
+        <v>1</v>
+      </c>
+      <c r="N28" s="22">
+        <v>200</v>
+      </c>
+      <c r="O28" s="22">
+        <v>4</v>
+      </c>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="R28" s="26">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="S28" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T28" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="U28" s="26">
+        <v>1</v>
+      </c>
+      <c r="V28" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="W28" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z28" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="28">
+        <v>5800</v>
+      </c>
+      <c r="AD28" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" s="28" customFormat="1">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22">
+        <v>28</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="J29" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="L29" s="22">
+        <v>30</v>
+      </c>
+      <c r="M29" s="25">
+        <v>1</v>
+      </c>
+      <c r="N29" s="22">
+        <v>0</v>
+      </c>
+      <c r="O29" s="22">
+        <v>4</v>
+      </c>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R29" s="26">
+        <v>1</v>
+      </c>
+      <c r="S29" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T29" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U29" s="26">
+        <v>1</v>
+      </c>
+      <c r="V29" s="26">
+        <v>1</v>
+      </c>
+      <c r="W29" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="28">
+        <v>5000</v>
+      </c>
+      <c r="AD29" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" s="28" customFormat="1">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22">
+        <v>29</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="23">
+        <v>1.68</v>
+      </c>
+      <c r="J30" s="23">
+        <v>2.84</v>
+      </c>
+      <c r="K30" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="L30" s="22">
+        <v>30</v>
+      </c>
+      <c r="M30" s="25">
+        <v>1</v>
+      </c>
+      <c r="N30" s="22">
+        <v>0</v>
+      </c>
+      <c r="O30" s="22">
+        <v>3</v>
+      </c>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R30" s="26">
+        <v>1</v>
+      </c>
+      <c r="S30" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T30" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U30" s="26">
+        <v>1</v>
+      </c>
+      <c r="V30" s="26">
+        <v>1</v>
+      </c>
+      <c r="W30" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="Y30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z30" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA30" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="28">
+        <v>9200</v>
+      </c>
+      <c r="AD30" s="28">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" s="28" customFormat="1">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22">
+        <v>30</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E31" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="24">
+        <v>1.48</v>
+      </c>
+      <c r="J31" s="22">
+        <v>2.77</v>
+      </c>
+      <c r="K31" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="L31" s="22">
+        <v>30</v>
+      </c>
+      <c r="M31" s="25">
+        <v>1</v>
+      </c>
+      <c r="N31" s="22">
+        <v>0</v>
+      </c>
+      <c r="O31" s="22">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R31" s="26">
+        <v>1</v>
+      </c>
+      <c r="S31" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T31" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U31" s="26">
+        <v>1</v>
+      </c>
+      <c r="V31" s="26">
+        <v>1</v>
+      </c>
+      <c r="W31" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z31" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA31" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="28">
+        <v>9200</v>
+      </c>
+      <c r="AD31" s="28">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" s="28" customFormat="1">
+      <c r="A32" s="22">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22">
+        <v>31</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="24">
+        <v>1.48</v>
+      </c>
+      <c r="J32" s="22">
+        <v>1.96</v>
+      </c>
+      <c r="K32" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="L32" s="22">
+        <v>30</v>
+      </c>
+      <c r="M32" s="25">
+        <v>1</v>
+      </c>
+      <c r="N32" s="22">
+        <v>0</v>
+      </c>
+      <c r="O32" s="22">
+        <v>4</v>
+      </c>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R32" s="26">
+        <v>1</v>
+      </c>
+      <c r="S32" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T32" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U32" s="26">
+        <v>1</v>
+      </c>
+      <c r="V32" s="26">
+        <v>1</v>
+      </c>
+      <c r="W32" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z32" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA32" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="28">
+        <v>9200</v>
+      </c>
+      <c r="AD32" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE32" s="28">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" s="28" customFormat="1">
+      <c r="A33" s="22">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22">
+        <v>32</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="23">
+        <v>1.56</v>
+      </c>
+      <c r="J33" s="23">
+        <v>2.27</v>
+      </c>
+      <c r="K33" s="22">
+        <v>1</v>
+      </c>
+      <c r="L33" s="22">
+        <v>30</v>
+      </c>
+      <c r="M33" s="25">
+        <v>1</v>
+      </c>
+      <c r="N33" s="22">
+        <v>0</v>
+      </c>
+      <c r="O33" s="22">
+        <v>4</v>
+      </c>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="23">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="R33" s="26">
+        <v>1</v>
+      </c>
+      <c r="S33" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T33" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U33" s="26">
+        <v>1</v>
+      </c>
+      <c r="V33" s="26">
+        <v>1</v>
+      </c>
+      <c r="W33" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z33" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="28">
+        <v>4600</v>
+      </c>
+      <c r="AD33" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE33" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="32"/>
+    </row>
+    <row r="34" spans="1:36" s="28" customFormat="1">
+      <c r="A34" s="22">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22">
+        <v>33</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="23">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J34" s="23">
+        <v>3</v>
+      </c>
+      <c r="K34" s="22">
+        <v>1</v>
+      </c>
+      <c r="L34" s="22">
+        <v>30</v>
+      </c>
+      <c r="M34" s="25">
+        <v>1</v>
+      </c>
+      <c r="N34" s="22">
+        <v>0</v>
+      </c>
+      <c r="O34" s="22">
+        <v>1</v>
+      </c>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R34" s="26">
+        <v>1</v>
+      </c>
+      <c r="S34" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U34" s="26">
+        <v>1</v>
+      </c>
+      <c r="V34" s="26">
+        <v>1</v>
+      </c>
+      <c r="W34" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z34" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="28">
+        <v>4500</v>
+      </c>
+      <c r="AD34" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE34" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="33"/>
+    </row>
+    <row r="35" spans="1:36" s="28" customFormat="1">
+      <c r="A35" s="22">
+        <v>34</v>
+      </c>
+      <c r="B35" s="22">
+        <v>34</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="23">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J35" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="K35" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="L35" s="22">
+        <v>30</v>
+      </c>
+      <c r="M35" s="25">
+        <v>1</v>
+      </c>
+      <c r="N35" s="22">
+        <v>0</v>
+      </c>
+      <c r="O35" s="22">
+        <v>1</v>
+      </c>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="23">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="R35" s="26">
+        <v>1</v>
+      </c>
+      <c r="S35" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="T35" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="V35" s="26">
+        <v>1</v>
+      </c>
+      <c r="W35" s="26">
+        <v>0.45</v>
+      </c>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z35" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC35" s="28">
+        <v>4400</v>
+      </c>
+      <c r="AD35" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="AG35" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+    </row>
+    <row r="36" spans="1:36" s="28" customFormat="1">
+      <c r="A36" s="22">
+        <v>35</v>
+      </c>
+      <c r="B36" s="22">
+        <v>35</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="J36" s="23">
+        <v>0.72</v>
+      </c>
+      <c r="K36" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="L36" s="22">
+        <v>30</v>
+      </c>
+      <c r="M36" s="25">
+        <v>1</v>
+      </c>
+      <c r="N36" s="22">
+        <v>0</v>
+      </c>
+      <c r="O36" s="22">
+        <v>1</v>
+      </c>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R36" s="26">
+        <v>1</v>
+      </c>
+      <c r="S36" s="26">
+        <v>0.32</v>
+      </c>
+      <c r="T36" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U36" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="V36" s="26">
+        <v>1</v>
+      </c>
+      <c r="W36" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z36" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA36" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="28">
+        <v>4300</v>
+      </c>
+      <c r="AD36" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="AG36" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+    </row>
+    <row r="37" spans="1:36" s="28" customFormat="1">
+      <c r="A37" s="22">
+        <v>36</v>
+      </c>
+      <c r="B37" s="22">
+        <v>36</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" s="23">
+        <v>1.76</v>
+      </c>
+      <c r="J37" s="23">
+        <v>2.74</v>
+      </c>
+      <c r="K37" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="L37" s="22">
+        <v>30</v>
+      </c>
+      <c r="M37" s="25">
+        <v>1</v>
+      </c>
+      <c r="N37" s="22">
+        <v>0</v>
+      </c>
+      <c r="O37" s="22">
+        <v>1</v>
+      </c>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="23">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="R37" s="26">
+        <v>1</v>
+      </c>
+      <c r="S37" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="T37" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="U37" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="V37" s="26">
+        <v>1</v>
+      </c>
+      <c r="W37" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z37" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC37" s="28">
+        <v>4200</v>
+      </c>
+      <c r="AD37" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="AE37" s="28">
+        <v>2</v>
+      </c>
+      <c r="AF37" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG37" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
+    </row>
+    <row r="38" spans="1:36" s="28" customFormat="1">
+      <c r="A38" s="22">
+        <v>37</v>
+      </c>
+      <c r="B38" s="22">
+        <v>37</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="23">
+        <v>2.64</v>
+      </c>
+      <c r="J38" s="23">
+        <v>2.38</v>
+      </c>
+      <c r="K38" s="22">
+        <v>1</v>
+      </c>
+      <c r="L38" s="22">
+        <v>30</v>
+      </c>
+      <c r="M38" s="30">
+        <v>1</v>
+      </c>
+      <c r="N38" s="22">
+        <v>0</v>
+      </c>
+      <c r="O38" s="22">
+        <v>4</v>
+      </c>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="R38" s="26">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="S38" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T38" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="U38" s="26">
+        <v>1</v>
+      </c>
+      <c r="V38" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="W38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z38" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA38" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="28">
+        <v>4100</v>
+      </c>
+      <c r="AD38" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="33"/>
+    </row>
+    <row r="39" spans="1:36" s="38" customFormat="1">
+      <c r="A39" s="34">
+        <v>38</v>
+      </c>
+      <c r="B39" s="34">
+        <v>38</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="35">
+        <v>10</v>
+      </c>
+      <c r="J39" s="34">
+        <v>10</v>
+      </c>
+      <c r="K39" s="34">
+        <v>1</v>
+      </c>
+      <c r="L39" s="34">
+        <v>30</v>
+      </c>
+      <c r="M39" s="35">
+        <v>1</v>
+      </c>
+      <c r="N39" s="34">
+        <v>400</v>
+      </c>
+      <c r="O39" s="34">
+        <v>4</v>
+      </c>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="R39" s="37">
+        <v>1</v>
+      </c>
+      <c r="S39" s="37">
+        <v>0.74</v>
+      </c>
+      <c r="T39" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" s="37">
+        <v>1</v>
+      </c>
+      <c r="V39" s="37">
+        <v>1</v>
+      </c>
+      <c r="W39" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z39" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC39" s="38">
+        <v>3500</v>
+      </c>
+      <c r="AD39" s="38">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ39" s="39"/>
+    </row>
+    <row r="40" spans="1:36" s="38" customFormat="1">
+      <c r="A40" s="34">
+        <v>39</v>
+      </c>
+      <c r="B40" s="34">
+        <v>39</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="35">
+        <v>1.68</v>
+      </c>
+      <c r="J40" s="35">
+        <v>2.84</v>
+      </c>
+      <c r="K40" s="34">
+        <v>1</v>
+      </c>
+      <c r="L40" s="34">
+        <v>30</v>
+      </c>
+      <c r="M40" s="35">
+        <v>1</v>
+      </c>
+      <c r="N40" s="34">
+        <v>300</v>
+      </c>
+      <c r="O40" s="34">
+        <v>3</v>
+      </c>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="35">
+        <v>0.7</v>
+      </c>
+      <c r="R40" s="37">
+        <v>1</v>
+      </c>
+      <c r="S40" s="37">
+        <v>0.74</v>
+      </c>
+      <c r="T40" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="U40" s="37">
+        <v>1</v>
+      </c>
+      <c r="V40" s="37">
+        <v>1</v>
+      </c>
+      <c r="W40" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="Y40" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z40" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC40" s="38">
+        <v>9100</v>
+      </c>
+      <c r="AD40" s="38">
+        <v>2</v>
+      </c>
+      <c r="AE40" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG40" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI40" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ40" s="39"/>
+    </row>
+    <row r="41" spans="1:36" s="38" customFormat="1">
+      <c r="A41" s="34">
+        <v>40</v>
+      </c>
+      <c r="B41" s="34">
+        <v>40</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="35">
+        <v>7.28</v>
+      </c>
+      <c r="J41" s="35">
+        <v>7.53</v>
+      </c>
+      <c r="K41" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="L41" s="34">
+        <v>30</v>
+      </c>
+      <c r="M41" s="35">
+        <v>1</v>
+      </c>
+      <c r="N41" s="34">
+        <v>700</v>
+      </c>
+      <c r="O41" s="34">
+        <v>1</v>
+      </c>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="35">
+        <v>1.4</v>
+      </c>
+      <c r="R41" s="37">
+        <v>1</v>
+      </c>
+      <c r="S41" s="37">
+        <v>0.74</v>
+      </c>
+      <c r="T41" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="U41" s="37">
+        <v>1</v>
+      </c>
+      <c r="V41" s="37">
+        <v>1</v>
+      </c>
+      <c r="W41" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="Y41" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z41" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC41" s="38">
+        <v>9100</v>
+      </c>
+      <c r="AD41" s="38">
+        <v>2</v>
+      </c>
+      <c r="AE41" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ41" s="39"/>
+    </row>
+    <row r="42" spans="1:36" s="38" customFormat="1">
+      <c r="A42" s="34">
+        <v>41</v>
+      </c>
+      <c r="B42" s="34">
+        <v>41</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="35">
+        <v>1</v>
+      </c>
+      <c r="J42" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="K42" s="34">
+        <v>1</v>
+      </c>
+      <c r="L42" s="34">
+        <v>30</v>
+      </c>
+      <c r="M42" s="35">
+        <v>1</v>
+      </c>
+      <c r="N42" s="34">
+        <v>500</v>
+      </c>
+      <c r="O42" s="34">
+        <v>2</v>
+      </c>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="35">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R42" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="S42" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="T42" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="U42" s="37">
+        <v>1</v>
+      </c>
+      <c r="V42" s="37">
+        <v>1</v>
+      </c>
+      <c r="W42" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z42" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC42" s="38">
+        <v>3200</v>
+      </c>
+      <c r="AD42" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="AE42" s="38">
+        <v>2</v>
+      </c>
+      <c r="AG42" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI42" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ42" s="39"/>
+    </row>
+    <row r="43" spans="1:36" s="15" customFormat="1">
+      <c r="A43" s="12">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12">
+        <v>42</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="13">
+        <v>1</v>
+      </c>
+      <c r="J43" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K43" s="12">
+        <v>1</v>
+      </c>
+      <c r="L43" s="12">
+        <v>30</v>
+      </c>
+      <c r="M43" s="13">
+        <v>1</v>
+      </c>
+      <c r="N43" s="12">
+        <v>1000</v>
+      </c>
+      <c r="O43" s="12">
+        <v>2</v>
+      </c>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R43" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="S43" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U43" s="14">
+        <v>1</v>
+      </c>
+      <c r="V43" s="14">
+        <v>1</v>
+      </c>
+      <c r="W43" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z43" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA43" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="15">
+        <v>3100</v>
+      </c>
+      <c r="AD43" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="AE43" s="15">
+        <v>2</v>
+      </c>
+      <c r="AG43" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI43" s="16"/>
+      <c r="AJ43" s="16"/>
+    </row>
+    <row r="44" spans="1:36" s="38" customFormat="1">
+      <c r="A44" s="34">
+        <v>43</v>
+      </c>
+      <c r="B44" s="34">
+        <v>43</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1.44</v>
-      </c>
-      <c r="J26" s="5">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="G44" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="J44" s="35">
+        <v>0.83</v>
+      </c>
+      <c r="K44" s="34">
+        <v>1</v>
+      </c>
+      <c r="L44" s="34">
         <v>30</v>
       </c>
-      <c r="M26" s="6">
-        <v>1</v>
-      </c>
-      <c r="N26" s="3">
-        <v>200</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="M44" s="35">
+        <v>1</v>
+      </c>
+      <c r="N44" s="34">
+        <v>600</v>
+      </c>
+      <c r="O44" s="34">
+        <v>3</v>
+      </c>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="35">
+        <v>0.7</v>
+      </c>
+      <c r="R44" s="37">
+        <v>1</v>
+      </c>
+      <c r="S44" s="37">
+        <v>0.74</v>
+      </c>
+      <c r="T44" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="U44" s="37">
+        <v>1</v>
+      </c>
+      <c r="V44" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="W44" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z44" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC44" s="38">
+        <v>9100</v>
+      </c>
+      <c r="AD44" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="AE44" s="38">
         <v>2</v>
       </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R26" s="7">
-        <v>1</v>
-      </c>
-      <c r="S26" s="7">
+      <c r="AG44" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI44" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="AJ44" s="39"/>
+    </row>
+    <row r="45" spans="1:36" s="15" customFormat="1">
+      <c r="A45" s="12">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12">
+        <v>44</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="13">
+        <v>1</v>
+      </c>
+      <c r="J45" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K45" s="12">
+        <v>1</v>
+      </c>
+      <c r="L45" s="12">
+        <v>30</v>
+      </c>
+      <c r="M45" s="13">
+        <v>1</v>
+      </c>
+      <c r="N45" s="12">
+        <v>1000</v>
+      </c>
+      <c r="O45" s="12">
+        <v>2</v>
+      </c>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R45" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="S45" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U45" s="14">
+        <v>1</v>
+      </c>
+      <c r="V45" s="14">
+        <v>1</v>
+      </c>
+      <c r="W45" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z45" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA45" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="15">
+        <v>2900</v>
+      </c>
+      <c r="AD45" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="AE45" s="15">
+        <v>2</v>
+      </c>
+      <c r="AG45" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="16"/>
+    </row>
+    <row r="46" spans="1:36" s="15" customFormat="1">
+      <c r="A46" s="12">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12">
+        <v>45</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="K46" s="12">
+        <v>1</v>
+      </c>
+      <c r="L46" s="12">
+        <v>30</v>
+      </c>
+      <c r="M46" s="13">
+        <v>1</v>
+      </c>
+      <c r="N46" s="12">
+        <v>1000</v>
+      </c>
+      <c r="O46" s="12">
+        <v>3</v>
+      </c>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="R46" s="14">
+        <v>1</v>
+      </c>
+      <c r="S46" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U46" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="V46" s="14">
+        <v>1</v>
+      </c>
+      <c r="W46" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z46" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC46" s="15">
+        <v>2800</v>
+      </c>
+      <c r="AD46" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="AE46" s="15">
+        <v>2</v>
+      </c>
+      <c r="AG46" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI46" s="16"/>
+      <c r="AJ46" s="16"/>
+    </row>
+    <row r="47" spans="1:36" s="15" customFormat="1">
+      <c r="A47" s="12">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12">
+        <v>46</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="13">
         <v>0.74</v>
       </c>
-      <c r="T26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U26" s="7">
-        <v>1</v>
-      </c>
-      <c r="V26" s="7">
-        <v>1</v>
-      </c>
-      <c r="W26" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="Y26" s="8" t="s">
+      <c r="J47" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="K47" s="12">
+        <v>1</v>
+      </c>
+      <c r="L47" s="12">
+        <v>30</v>
+      </c>
+      <c r="M47" s="13">
+        <v>1</v>
+      </c>
+      <c r="N47" s="12">
+        <v>600</v>
+      </c>
+      <c r="O47" s="12">
+        <v>2</v>
+      </c>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="R47" s="14">
+        <v>1</v>
+      </c>
+      <c r="S47" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="T47" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U47" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="V47" s="14">
+        <v>1</v>
+      </c>
+      <c r="W47" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z47" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC47" s="15">
+        <v>9100</v>
+      </c>
+      <c r="AD47" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="AE47" s="15">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG47" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH47" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI47" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ47" s="16"/>
+    </row>
+    <row r="48" spans="1:36" s="15" customFormat="1">
+      <c r="A48" s="12">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12">
+        <v>47</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="13">
+        <v>1</v>
+      </c>
+      <c r="J48" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K48" s="12">
+        <v>1</v>
+      </c>
+      <c r="L48" s="12">
+        <v>30</v>
+      </c>
+      <c r="M48" s="13">
+        <v>1</v>
+      </c>
+      <c r="N48" s="12">
+        <v>700</v>
+      </c>
+      <c r="O48" s="12">
+        <v>2</v>
+      </c>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R48" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="S48" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="T48" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U48" s="14">
+        <v>1</v>
+      </c>
+      <c r="V48" s="14">
+        <v>1</v>
+      </c>
+      <c r="W48" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z48" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC48" s="15">
+        <v>3300</v>
+      </c>
+      <c r="AD48" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="AE48" s="15">
+        <v>2</v>
+      </c>
+      <c r="AG48" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI48" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AJ48" s="16"/>
+    </row>
+    <row r="49" spans="1:36" s="15" customFormat="1">
+      <c r="A49" s="12">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12">
+        <v>48</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" s="13">
+        <v>2</v>
+      </c>
+      <c r="J49" s="13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K49" s="12">
+        <v>1</v>
+      </c>
+      <c r="L49" s="12">
+        <v>30</v>
+      </c>
+      <c r="M49" s="13">
+        <v>1</v>
+      </c>
+      <c r="N49" s="12">
+        <v>800</v>
+      </c>
+      <c r="O49" s="12">
+        <v>3</v>
+      </c>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="R49" s="14">
+        <v>1</v>
+      </c>
+      <c r="S49" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="T49" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U49" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="V49" s="14">
+        <v>1</v>
+      </c>
+      <c r="W49" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z49" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC49" s="15">
+        <v>9100</v>
+      </c>
+      <c r="AD49" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="AE49" s="15">
+        <v>2</v>
+      </c>
+      <c r="AG49" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI49" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="AJ49" s="16"/>
+    </row>
+    <row r="50" spans="1:36" s="15" customFormat="1">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="Z26" s="8" t="s">
+      <c r="B50" s="12">
+        <v>49</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="13">
+        <v>2</v>
+      </c>
+      <c r="J50" s="13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K50" s="12">
+        <v>1</v>
+      </c>
+      <c r="L50" s="12">
+        <v>30</v>
+      </c>
+      <c r="M50" s="13">
+        <v>1</v>
+      </c>
+      <c r="N50" s="12">
+        <v>1000</v>
+      </c>
+      <c r="O50" s="12">
+        <v>3</v>
+      </c>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="R50" s="14">
+        <v>1</v>
+      </c>
+      <c r="S50" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="T50" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U50" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="V50" s="14">
+        <v>1</v>
+      </c>
+      <c r="W50" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z50" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA50" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="15">
+        <v>2400</v>
+      </c>
+      <c r="AD50" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="AE50" s="15">
+        <v>2</v>
+      </c>
+      <c r="AG50" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI50" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="AJ50" s="16"/>
+    </row>
+    <row r="51" spans="1:36" s="20" customFormat="1">
+      <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="9">
-        <v>6000</v>
-      </c>
-      <c r="AD26" s="9">
+      <c r="B51" s="18">
+        <v>50</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I51" s="13">
         <v>2</v>
       </c>
-      <c r="AE26" s="9">
-        <v>1</v>
-      </c>
+      <c r="J51" s="13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K51" s="12">
+        <v>1</v>
+      </c>
+      <c r="L51" s="12">
+        <v>30</v>
+      </c>
+      <c r="M51" s="13">
+        <v>1</v>
+      </c>
+      <c r="N51" s="12">
+        <v>50</v>
+      </c>
+      <c r="O51" s="12">
+        <v>3</v>
+      </c>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="R51" s="14">
+        <v>1</v>
+      </c>
+      <c r="S51" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="T51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U51" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="V51" s="14">
+        <v>1</v>
+      </c>
+      <c r="W51" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z51" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA51" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15">
+        <v>1000</v>
+      </c>
+      <c r="AD51" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="15"/>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="21"/>
     </row>
-    <row r="27" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="5">
-        <v>3.77</v>
-      </c>
-      <c r="J27" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>30</v>
-      </c>
-      <c r="M27" s="6">
-        <v>1</v>
-      </c>
-      <c r="N27" s="3">
-        <v>180</v>
-      </c>
-      <c r="O27" s="3">
-        <v>4</v>
-      </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="R27" s="7">
-        <v>1</v>
-      </c>
-      <c r="S27" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U27" s="7">
-        <v>1</v>
-      </c>
-      <c r="V27" s="7">
-        <v>1</v>
-      </c>
-      <c r="W27" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="Y27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="9">
-        <v>5900</v>
-      </c>
-      <c r="AD27" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE27" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG27" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <v>27</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="5">
-        <v>2.64</v>
-      </c>
-      <c r="J28" s="5">
-        <v>2.38</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
-        <v>30</v>
-      </c>
-      <c r="M28" s="13">
-        <v>1</v>
-      </c>
-      <c r="N28" s="3">
-        <v>200</v>
-      </c>
-      <c r="O28" s="3">
-        <v>4</v>
-      </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="R28" s="7">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="S28" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="U28" s="7">
-        <v>1</v>
-      </c>
-      <c r="V28" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="W28" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="9">
-        <v>5800</v>
-      </c>
-      <c r="AD28" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE28" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L29" s="3">
-        <v>30</v>
-      </c>
-      <c r="M29" s="6">
-        <v>1</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="R29" s="7">
-        <v>1</v>
-      </c>
-      <c r="S29" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U29" s="7">
-        <v>1</v>
-      </c>
-      <c r="V29" s="7">
-        <v>1</v>
-      </c>
-      <c r="W29" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="9">
-        <v>5000</v>
-      </c>
-      <c r="AD29" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE29" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3">
-        <v>29</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1.68</v>
-      </c>
-      <c r="J30" s="5">
-        <v>2.84</v>
-      </c>
-      <c r="K30" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L30" s="3">
-        <v>30</v>
-      </c>
-      <c r="M30" s="6">
-        <v>1</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>3</v>
-      </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="R30" s="7">
-        <v>1</v>
-      </c>
-      <c r="S30" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U30" s="7">
-        <v>1</v>
-      </c>
-      <c r="V30" s="7">
-        <v>1</v>
-      </c>
-      <c r="W30" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="Y30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA30" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="9">
-        <v>9200</v>
-      </c>
-      <c r="AD30" s="9">
-        <v>2</v>
-      </c>
-      <c r="AH30" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="J31" s="3">
-        <v>2.77</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L31" s="3">
-        <v>30</v>
-      </c>
-      <c r="M31" s="6">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="R31" s="7">
-        <v>1</v>
-      </c>
-      <c r="S31" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U31" s="7">
-        <v>1</v>
-      </c>
-      <c r="V31" s="7">
-        <v>1</v>
-      </c>
-      <c r="W31" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z31" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA31" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="9">
-        <v>9200</v>
-      </c>
-      <c r="AD31" s="9">
-        <v>2</v>
-      </c>
-      <c r="AH31" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3">
-        <v>31</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1.96</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L32" s="3">
-        <v>30</v>
-      </c>
-      <c r="M32" s="6">
-        <v>1</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="R32" s="7">
-        <v>1</v>
-      </c>
-      <c r="S32" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U32" s="7">
-        <v>1</v>
-      </c>
-      <c r="V32" s="7">
-        <v>1</v>
-      </c>
-      <c r="W32" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z32" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA32" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="9">
-        <v>9200</v>
-      </c>
-      <c r="AD32" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE32" s="9">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3">
-        <v>32</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1.56</v>
-      </c>
-      <c r="J33" s="5">
-        <v>2.27</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L33" s="3">
-        <v>30</v>
-      </c>
-      <c r="M33" s="6">
-        <v>1</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>4</v>
-      </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="5">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="R33" s="7">
-        <v>1</v>
-      </c>
-      <c r="S33" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U33" s="7">
-        <v>1</v>
-      </c>
-      <c r="V33" s="7">
-        <v>1</v>
-      </c>
-      <c r="W33" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="9">
-        <v>4600</v>
-      </c>
-      <c r="AD33" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE33" s="9">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="21"/>
-    </row>
-    <row r="34" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" s="5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J34" s="5">
-        <v>3</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L34" s="3">
-        <v>30</v>
-      </c>
-      <c r="M34" s="6">
-        <v>1</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <v>1</v>
-      </c>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="R34" s="7">
-        <v>1</v>
-      </c>
-      <c r="S34" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U34" s="7">
-        <v>1</v>
-      </c>
-      <c r="V34" s="7">
-        <v>1</v>
-      </c>
-      <c r="W34" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z34" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="9">
-        <v>4500</v>
-      </c>
-      <c r="AD34" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE34" s="9">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
-    </row>
-    <row r="35" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3">
-        <v>34</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="5">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="J35" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L35" s="3">
-        <v>30</v>
-      </c>
-      <c r="M35" s="6">
-        <v>1</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1</v>
-      </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="5">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="R35" s="7">
-        <v>1</v>
-      </c>
-      <c r="S35" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U35" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="V35" s="7">
-        <v>1</v>
-      </c>
-      <c r="W35" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC35" s="9">
-        <v>4400</v>
-      </c>
-      <c r="AD35" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="AG35" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
-    </row>
-    <row r="36" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>35</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="J36" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L36" s="3">
-        <v>30</v>
-      </c>
-      <c r="M36" s="6">
-        <v>1</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>1</v>
-      </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="R36" s="7">
-        <v>1</v>
-      </c>
-      <c r="S36" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U36" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="V36" s="7">
-        <v>1</v>
-      </c>
-      <c r="W36" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z36" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA36" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="9">
-        <v>4300</v>
-      </c>
-      <c r="AD36" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="AG36" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-    </row>
-    <row r="37" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3">
-        <v>36</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1.76</v>
-      </c>
-      <c r="J37" s="5">
-        <v>2.74</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L37" s="3">
-        <v>30</v>
-      </c>
-      <c r="M37" s="6">
-        <v>1</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
-        <v>1</v>
-      </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="5">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="R37" s="7">
-        <v>1</v>
-      </c>
-      <c r="S37" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U37" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="V37" s="7">
-        <v>1</v>
-      </c>
-      <c r="W37" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z37" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC37" s="9">
-        <v>4200</v>
-      </c>
-      <c r="AD37" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AE37" s="9">
-        <v>2</v>
-      </c>
-      <c r="AF37" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG37" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
-    </row>
-    <row r="38" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3">
-        <v>37</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" s="5">
-        <v>2.64</v>
-      </c>
-      <c r="J38" s="5">
-        <v>2.38</v>
-      </c>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
-      <c r="L38" s="3">
-        <v>30</v>
-      </c>
-      <c r="M38" s="13">
-        <v>1</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <v>4</v>
-      </c>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="R38" s="7">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="S38" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="U38" s="7">
-        <v>1</v>
-      </c>
-      <c r="V38" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="W38" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA38" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="9">
-        <v>4100</v>
-      </c>
-      <c r="AD38" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE38" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-    </row>
-    <row r="39" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16">
-        <v>38</v>
-      </c>
-      <c r="B39" s="16">
-        <v>38</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" s="17">
-        <v>10</v>
-      </c>
-      <c r="J39" s="16">
-        <v>10</v>
-      </c>
-      <c r="K39" s="16">
-        <v>1</v>
-      </c>
-      <c r="L39" s="16">
-        <v>30</v>
-      </c>
-      <c r="M39" s="17">
-        <v>1</v>
-      </c>
-      <c r="N39" s="16">
-        <v>400</v>
-      </c>
-      <c r="O39" s="16">
-        <v>4</v>
-      </c>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="R39" s="18">
-        <v>1</v>
-      </c>
-      <c r="S39" s="18">
-        <v>0.74</v>
-      </c>
-      <c r="T39" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="U39" s="18">
-        <v>1</v>
-      </c>
-      <c r="V39" s="18">
-        <v>1</v>
-      </c>
-      <c r="W39" s="18">
-        <v>0.35</v>
-      </c>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z39" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC39" s="19">
-        <v>3500</v>
-      </c>
-      <c r="AD39" s="19">
-        <v>2</v>
-      </c>
-      <c r="AE39" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="AJ39" s="23"/>
-    </row>
-    <row r="40" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16">
-        <v>39</v>
-      </c>
-      <c r="B40" s="16">
-        <v>39</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40" s="17">
-        <v>1.68</v>
-      </c>
-      <c r="J40" s="17">
-        <v>2.84</v>
-      </c>
-      <c r="K40" s="16">
-        <v>1</v>
-      </c>
-      <c r="L40" s="16">
-        <v>30</v>
-      </c>
-      <c r="M40" s="17">
-        <v>1</v>
-      </c>
-      <c r="N40" s="16">
-        <v>300</v>
-      </c>
-      <c r="O40" s="16">
-        <v>3</v>
-      </c>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="R40" s="18">
-        <v>1</v>
-      </c>
-      <c r="S40" s="18">
-        <v>0.74</v>
-      </c>
-      <c r="T40" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="U40" s="18">
-        <v>1</v>
-      </c>
-      <c r="V40" s="18">
-        <v>1</v>
-      </c>
-      <c r="W40" s="18">
-        <v>0.35</v>
-      </c>
-      <c r="Y40" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z40" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC40" s="19">
-        <v>9100</v>
-      </c>
-      <c r="AD40" s="19">
-        <v>2</v>
-      </c>
-      <c r="AE40" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG40" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI40" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="AJ40" s="23"/>
-    </row>
-    <row r="41" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
-        <v>40</v>
-      </c>
-      <c r="B41" s="16">
-        <v>40</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I41" s="17">
-        <v>7.28</v>
-      </c>
-      <c r="J41" s="17">
-        <v>7.53</v>
-      </c>
-      <c r="K41" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="L41" s="16">
-        <v>30</v>
-      </c>
-      <c r="M41" s="17">
-        <v>1</v>
-      </c>
-      <c r="N41" s="16">
-        <v>700</v>
-      </c>
-      <c r="O41" s="16">
-        <v>1</v>
-      </c>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="17">
-        <v>1.4</v>
-      </c>
-      <c r="R41" s="18">
-        <v>1</v>
-      </c>
-      <c r="S41" s="18">
-        <v>0.74</v>
-      </c>
-      <c r="T41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="U41" s="18">
-        <v>1</v>
-      </c>
-      <c r="V41" s="18">
-        <v>1</v>
-      </c>
-      <c r="W41" s="18">
-        <v>0.35</v>
-      </c>
-      <c r="Y41" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z41" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC41" s="19">
-        <v>9100</v>
-      </c>
-      <c r="AD41" s="19">
-        <v>2</v>
-      </c>
-      <c r="AE41" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="AJ41" s="23"/>
-    </row>
-    <row r="42" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16">
-        <v>41</v>
-      </c>
-      <c r="B42" s="16">
-        <v>41</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" s="17">
-        <v>1</v>
-      </c>
-      <c r="J42" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="K42" s="16">
-        <v>1</v>
-      </c>
-      <c r="L42" s="16">
-        <v>30</v>
-      </c>
-      <c r="M42" s="17">
-        <v>1</v>
-      </c>
-      <c r="N42" s="16">
-        <v>500</v>
-      </c>
-      <c r="O42" s="16">
-        <v>2</v>
-      </c>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="17">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R42" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="S42" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="T42" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="U42" s="18">
-        <v>1</v>
-      </c>
-      <c r="V42" s="18">
-        <v>1</v>
-      </c>
-      <c r="W42" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z42" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC42" s="19">
-        <v>3200</v>
-      </c>
-      <c r="AD42" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AE42" s="19">
-        <v>2</v>
-      </c>
-      <c r="AG42" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI42" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ42" s="23"/>
-    </row>
-    <row r="43" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3">
-        <v>42</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I43" s="5">
-        <v>1</v>
-      </c>
-      <c r="J43" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1</v>
-      </c>
-      <c r="L43" s="3">
-        <v>30</v>
-      </c>
-      <c r="M43" s="6">
-        <v>1</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O43" s="3">
-        <v>2</v>
-      </c>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R43" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="S43" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U43" s="7">
-        <v>1</v>
-      </c>
-      <c r="V43" s="7">
-        <v>1</v>
-      </c>
-      <c r="W43" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z43" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA43" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="9">
-        <v>3100</v>
-      </c>
-      <c r="AD43" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AE43" s="9">
-        <v>2</v>
-      </c>
-      <c r="AG43" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI43" s="22"/>
-      <c r="AJ43" s="22"/>
-    </row>
-    <row r="44" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16">
-        <v>43</v>
-      </c>
-      <c r="B44" s="16">
-        <v>43</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I44" s="17">
-        <v>0.96</v>
-      </c>
-      <c r="J44" s="17">
-        <v>0.83</v>
-      </c>
-      <c r="K44" s="16">
-        <v>1</v>
-      </c>
-      <c r="L44" s="16">
-        <v>30</v>
-      </c>
-      <c r="M44" s="17">
-        <v>1</v>
-      </c>
-      <c r="N44" s="16">
-        <v>600</v>
-      </c>
-      <c r="O44" s="16">
-        <v>3</v>
-      </c>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="R44" s="18">
-        <v>1</v>
-      </c>
-      <c r="S44" s="18">
-        <v>0.74</v>
-      </c>
-      <c r="T44" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="U44" s="18">
-        <v>1</v>
-      </c>
-      <c r="V44" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="W44" s="18">
-        <v>0.35</v>
-      </c>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z44" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC44" s="19">
-        <v>9100</v>
-      </c>
-      <c r="AD44" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AE44" s="19">
-        <v>2</v>
-      </c>
-      <c r="AG44" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI44" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ44" s="23"/>
-    </row>
-    <row r="45" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3">
-        <v>44</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I45" s="5">
-        <v>1</v>
-      </c>
-      <c r="J45" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1</v>
-      </c>
-      <c r="L45" s="3">
-        <v>30</v>
-      </c>
-      <c r="M45" s="6">
-        <v>1</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>2</v>
-      </c>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R45" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="S45" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="T45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U45" s="7">
-        <v>1</v>
-      </c>
-      <c r="V45" s="7">
-        <v>1</v>
-      </c>
-      <c r="W45" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z45" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA45" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="9">
-        <v>2900</v>
-      </c>
-      <c r="AD45" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AE45" s="9">
-        <v>2</v>
-      </c>
-      <c r="AG45" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI45" s="22"/>
-      <c r="AJ45" s="22"/>
-    </row>
-    <row r="46" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3">
-        <v>45</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I46" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3">
-        <v>30</v>
-      </c>
-      <c r="M46" s="6">
-        <v>1</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="R46" s="7">
-        <v>1</v>
-      </c>
-      <c r="S46" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U46" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="V46" s="7">
-        <v>1</v>
-      </c>
-      <c r="W46" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z46" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC46" s="9">
-        <v>2800</v>
-      </c>
-      <c r="AD46" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AE46" s="9">
-        <v>2</v>
-      </c>
-      <c r="AG46" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI46" s="22"/>
-      <c r="AJ46" s="22"/>
-    </row>
-    <row r="47" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
-        <v>46</v>
-      </c>
-      <c r="B47" s="16">
-        <v>46</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I47" s="17">
-        <v>0.74</v>
-      </c>
-      <c r="J47" s="17">
-        <v>0.86</v>
-      </c>
-      <c r="K47" s="16">
-        <v>1</v>
-      </c>
-      <c r="L47" s="16">
-        <v>30</v>
-      </c>
-      <c r="M47" s="17">
-        <v>1</v>
-      </c>
-      <c r="N47" s="16">
-        <v>600</v>
-      </c>
-      <c r="O47" s="16">
-        <v>2</v>
-      </c>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="R47" s="18">
-        <v>1</v>
-      </c>
-      <c r="S47" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="T47" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="U47" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="V47" s="18">
-        <v>1</v>
-      </c>
-      <c r="W47" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z47" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC47" s="19">
-        <v>9100</v>
-      </c>
-      <c r="AD47" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AE47" s="19">
-        <v>2</v>
-      </c>
-      <c r="AF47" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="AG47" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH47" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI47" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ47" s="23"/>
-    </row>
-    <row r="48" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16">
-        <v>47</v>
-      </c>
-      <c r="B48" s="16">
-        <v>47</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" s="17">
-        <v>1</v>
-      </c>
-      <c r="J48" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="K48" s="16">
-        <v>1</v>
-      </c>
-      <c r="L48" s="16">
-        <v>30</v>
-      </c>
-      <c r="M48" s="17">
-        <v>1</v>
-      </c>
-      <c r="N48" s="16">
-        <v>700</v>
-      </c>
-      <c r="O48" s="16">
-        <v>2</v>
-      </c>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="17">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R48" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="S48" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="T48" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="U48" s="18">
-        <v>1</v>
-      </c>
-      <c r="V48" s="18">
-        <v>1</v>
-      </c>
-      <c r="W48" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z48" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC48" s="19">
-        <v>3300</v>
-      </c>
-      <c r="AD48" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AE48" s="19">
-        <v>2</v>
-      </c>
-      <c r="AG48" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI48" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="AJ48" s="23"/>
-    </row>
-    <row r="49" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16">
-        <v>48</v>
-      </c>
-      <c r="B49" s="16">
-        <v>48</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I49" s="17">
-        <v>2</v>
-      </c>
-      <c r="J49" s="17">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K49" s="16">
-        <v>1</v>
-      </c>
-      <c r="L49" s="16">
-        <v>30</v>
-      </c>
-      <c r="M49" s="17">
-        <v>1</v>
-      </c>
-      <c r="N49" s="16">
-        <v>800</v>
-      </c>
-      <c r="O49" s="16">
-        <v>3</v>
-      </c>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="17">
-        <v>0.66</v>
-      </c>
-      <c r="R49" s="18">
-        <v>1</v>
-      </c>
-      <c r="S49" s="18">
-        <v>0.22</v>
-      </c>
-      <c r="T49" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="U49" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="V49" s="18">
-        <v>1</v>
-      </c>
-      <c r="W49" s="18">
-        <v>0.45</v>
-      </c>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z49" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC49" s="19">
-        <v>9100</v>
-      </c>
-      <c r="AD49" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AE49" s="19">
-        <v>2</v>
-      </c>
-      <c r="AG49" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI49" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="AJ49" s="23"/>
-    </row>
-    <row r="50" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16">
-        <v>49</v>
-      </c>
-      <c r="B50" s="16">
-        <v>49</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I50" s="17">
-        <v>2</v>
-      </c>
-      <c r="J50" s="17">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K50" s="16">
-        <v>1</v>
-      </c>
-      <c r="L50" s="16">
-        <v>30</v>
-      </c>
-      <c r="M50" s="17">
-        <v>1</v>
-      </c>
-      <c r="N50" s="16">
-        <v>1000</v>
-      </c>
-      <c r="O50" s="16">
-        <v>3</v>
-      </c>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="17">
-        <v>0.66</v>
-      </c>
-      <c r="R50" s="18">
-        <v>1</v>
-      </c>
-      <c r="S50" s="18">
-        <v>0.22</v>
-      </c>
-      <c r="T50" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="U50" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="V50" s="18">
-        <v>1</v>
-      </c>
-      <c r="W50" s="18">
-        <v>0.45</v>
-      </c>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z50" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA50" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="19">
-        <v>2400</v>
-      </c>
-      <c r="AD50" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AE50" s="19">
-        <v>2</v>
-      </c>
-      <c r="AG50" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI50" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="AJ50" s="23"/>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A51" s="14">
-        <v>50</v>
-      </c>
-      <c r="B51" s="14">
-        <v>50</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I51" s="5">
-        <v>2</v>
-      </c>
-      <c r="J51" s="5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K51" s="3">
-        <v>1</v>
-      </c>
-      <c r="L51" s="3">
-        <v>30</v>
-      </c>
-      <c r="M51" s="6">
-        <v>1</v>
-      </c>
-      <c r="N51" s="3">
-        <v>50</v>
-      </c>
-      <c r="O51" s="3">
-        <v>3</v>
-      </c>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="R51" s="7">
-        <v>1</v>
-      </c>
-      <c r="S51" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="T51" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U51" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="V51" s="7">
-        <v>1</v>
-      </c>
-      <c r="W51" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z51" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA51" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="9">
-        <v>1000</v>
-      </c>
-      <c r="AD51" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
-      <c r="AG51" s="8"/>
-      <c r="AI51" s="24"/>
-      <c r="AJ51" s="24"/>
-    </row>
-    <row r="52" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" s="9" customFormat="1"/>
+    <row r="54" spans="1:36" s="9" customFormat="1"/>
+    <row r="55" spans="1:36" s="9" customFormat="1">
       <c r="AI55" s="8"/>
     </row>
-    <row r="56" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:36" s="9" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="340">
   <si>
     <t>line|行号</t>
   </si>
@@ -693,16 +693,7 @@
     <t>8dby_imgf_fdcl</t>
   </si>
   <si>
-    <t>9dby_imgf_fdcl</t>
-  </si>
-  <si>
     <t>10dby_imgf_fdcl</t>
-  </si>
-  <si>
-    <t>11dby_imgf_fdcl</t>
-  </si>
-  <si>
-    <t>12dby_imgf_fdcl</t>
   </si>
   <si>
     <t>3dby_imgf_fdcl</t>
@@ -1622,357 +1613,397 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>闪电鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_bzzy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_chlw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_cs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_cyx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_dcx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_jlzp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_mry</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_tsz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_qjx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_zdy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hjzdy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_sdy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海巨鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>js3_td|3级结算数值跳动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-180</t>
+  </si>
+  <si>
+    <t>30,-64</t>
+  </si>
+  <si>
+    <t>100,-100</t>
+  </si>
+  <si>
+    <t>0,-54</t>
+  </si>
+  <si>
+    <t>fish3dnode/fish3d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300,400,500,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,300,400,500,600,700</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,400,500,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,500,600,700</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300,400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,300,400,500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-100</t>
+  </si>
+  <si>
+    <t>100,200,300,400,500,650</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,100,200,300,400,500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,100,200,300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_tbl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yle_imgf_bwx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yle_imgf_hjjl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yle_imgf_shjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yle_imgf_syjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yle_imgf_yglg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_mgy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hkzdy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hjcts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_djs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_jc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_tsz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>宝藏鳄鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>5dby_imgf_tbl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_bzzy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_chlw</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_cs</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_cyx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_dcx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_jlzp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_mry</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_tsz</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_qjx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_zdy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_hjzdy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_sdy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海巨鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>js3_td|3级结算数值跳动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-180</t>
-  </si>
-  <si>
-    <t>30,-64</t>
-  </si>
-  <si>
-    <t>100,-100</t>
-  </si>
-  <si>
-    <t>0,-54</t>
-  </si>
-  <si>
-    <t>fish3dnode/fish3d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,200,300,400,500,600</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,300,400,500,600,700</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,400,500,600</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,500,600,700</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,200,300,400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,300,400,500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-100</t>
-  </si>
-  <si>
-    <t>100,200,300,400,500,650</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,100,200,300,400,500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,100,200,300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_tbl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>yle_imgf_bwx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>yle_imgf_hjjl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>yle_imgf_shjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>yle_imgf_syjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>yle_imgf_yglg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_mgy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_hj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_hkzdy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_hjcts</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_djs</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_jc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_tsz</t>
+    <t>3dby_imgf_hjdly</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hjhg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hjht</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hjszy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_jddly</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_jdxcy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_jdyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_img_zcbc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_img_shks</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_img_bzey</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_img_bzhm</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2521,9 +2552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E34" sqref="E34"/>
+      <selection pane="topRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2574,10 +2605,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2640,25 +2671,25 @@
         <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="AI1" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="9" customFormat="1">
@@ -2669,22 +2700,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I2" s="5">
         <v>0.64</v>
@@ -2743,10 +2774,10 @@
         <v>1.2</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="9" customFormat="1">
@@ -2757,13 +2788,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>65</v>
@@ -2772,7 +2803,7 @@
         <v>64</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I3" s="5">
         <v>0.94</v>
@@ -2831,7 +2862,7 @@
         <v>1.2</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="9" customFormat="1">
@@ -2842,10 +2873,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>28</v>
@@ -2857,7 +2888,7 @@
         <v>64</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5">
         <v>0.78</v>
@@ -2916,10 +2947,10 @@
         <v>1.2</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="9" customFormat="1">
@@ -2930,13 +2961,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>66</v>
@@ -2945,7 +2976,7 @@
         <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I5" s="5">
         <v>1.08</v>
@@ -3004,7 +3035,7 @@
         <v>1.2</v>
       </c>
       <c r="AG5" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="9" customFormat="1">
@@ -3015,13 +3046,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>67</v>
@@ -3030,7 +3061,7 @@
         <v>64</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I6" s="5">
         <v>1.56</v>
@@ -3089,7 +3120,7 @@
         <v>1.2</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="9" customFormat="1">
@@ -3100,22 +3131,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I7" s="5">
         <v>1.76</v>
@@ -3177,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="AG7" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="9" customFormat="1">
@@ -3188,22 +3219,22 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I8" s="5">
         <v>0.78</v>
@@ -3263,7 +3294,7 @@
         <v>1.2</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:35" s="9" customFormat="1">
@@ -3274,22 +3305,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I9" s="5">
         <v>1.76</v>
@@ -3352,7 +3383,7 @@
         <v>2</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="9" customFormat="1">
@@ -3363,22 +3394,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>70</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I10" s="5">
         <v>1.64</v>
@@ -3444,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="9" customFormat="1">
@@ -3455,22 +3486,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>71</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -3533,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="9" customFormat="1">
@@ -3544,22 +3575,22 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I12" s="5">
         <v>2.36</v>
@@ -3622,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="AG12" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="9" customFormat="1">
@@ -3633,22 +3664,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>73</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I13" s="5">
         <v>0.96</v>
@@ -3711,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="AG13" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="9" customFormat="1">
@@ -3722,22 +3753,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I14" s="5">
         <v>0.96</v>
@@ -3800,10 +3831,10 @@
         <v>2</v>
       </c>
       <c r="AF14" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AG14" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="9" customFormat="1">
@@ -3814,22 +3845,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>75</v>
+        <v>334</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I15" s="5">
         <v>0.74</v>
@@ -3891,10 +3922,10 @@
         <v>2</v>
       </c>
       <c r="AF15" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG15" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="9" customFormat="1">
@@ -3905,22 +3936,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I16" s="5">
         <v>1.53</v>
@@ -3982,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:34" s="9" customFormat="1">
@@ -3993,22 +4024,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I17" s="5">
         <v>0.8</v>
@@ -4070,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="AG17" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:34" s="28" customFormat="1">
@@ -4081,10 +4112,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>44</v>
@@ -4093,10 +4124,10 @@
         <v>69</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I18" s="23">
         <v>1.53</v>
@@ -4158,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AG18" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:34" s="28" customFormat="1">
@@ -4169,10 +4200,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>48</v>
@@ -4181,10 +4212,10 @@
         <v>72</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I19" s="23">
         <v>0.66</v>
@@ -4246,7 +4277,7 @@
         <v>2</v>
       </c>
       <c r="AG19" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:34" s="28" customFormat="1">
@@ -4257,22 +4288,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>63</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I20" s="23">
         <v>2.2799999999999998</v>
@@ -4342,22 +4373,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>68</v>
+        <v>329</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I21" s="5">
         <v>2.72</v>
@@ -4418,10 +4449,10 @@
         <v>1</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG21" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:34" s="28" customFormat="1">
@@ -4435,19 +4466,19 @@
         <v>58</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I22" s="23">
         <v>1.29</v>
@@ -4517,22 +4548,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>63</v>
+        <v>332</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I23" s="5">
         <v>1.29</v>
@@ -4594,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:34" s="9" customFormat="1">
@@ -4605,22 +4636,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I24" s="5">
         <v>0.94</v>
@@ -4679,10 +4710,10 @@
         <v>1.2</v>
       </c>
       <c r="AF24" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AG24" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:34" s="9" customFormat="1">
@@ -4693,22 +4724,22 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -4767,7 +4798,7 @@
         <v>1.2</v>
       </c>
       <c r="AG25" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:34" s="28" customFormat="1">
@@ -4781,19 +4812,19 @@
         <v>54</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>73</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I26" s="23">
         <v>1.44</v>
@@ -4863,22 +4894,22 @@
         <v>26</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>71</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I27" s="23">
         <v>3.77</v>
@@ -4940,10 +4971,10 @@
         <v>1</v>
       </c>
       <c r="AF27" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG27" s="27" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:34" s="28" customFormat="1">
@@ -4954,22 +4985,22 @@
         <v>27</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I28" s="23">
         <v>2.64</v>
@@ -5033,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:34" s="28" customFormat="1">
@@ -5044,22 +5075,22 @@
         <v>28</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I29" s="24">
         <v>2.1</v>
@@ -5122,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="AG29" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:34" s="28" customFormat="1">
@@ -5136,19 +5167,19 @@
         <v>55</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I30" s="23">
         <v>1.68</v>
@@ -5209,7 +5240,7 @@
         <v>2</v>
       </c>
       <c r="AH30" s="27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:34" s="28" customFormat="1">
@@ -5220,22 +5251,22 @@
         <v>30</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I31" s="24">
         <v>1.48</v>
@@ -5297,7 +5328,7 @@
         <v>2</v>
       </c>
       <c r="AH31" s="27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:34" s="28" customFormat="1">
@@ -5308,22 +5339,22 @@
         <v>31</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E32" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F32" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="F32" s="29" t="s">
-        <v>298</v>
-      </c>
       <c r="G32" s="29" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I32" s="24">
         <v>1.48</v>
@@ -5389,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="AH32" s="27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:36" s="28" customFormat="1">
@@ -5400,22 +5431,22 @@
         <v>32</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I33" s="23">
         <v>1.56</v>
@@ -5487,22 +5518,22 @@
         <v>33</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I34" s="23">
         <v>4.9000000000000004</v>
@@ -5575,22 +5606,22 @@
         <v>34</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I35" s="23">
         <v>1.1299999999999999</v>
@@ -5649,7 +5680,7 @@
         <v>1.2</v>
       </c>
       <c r="AG35" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AI35" s="33"/>
       <c r="AJ35" s="33"/>
@@ -5662,22 +5693,22 @@
         <v>35</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I36" s="23">
         <v>0.78</v>
@@ -5739,7 +5770,7 @@
         <v>1.2</v>
       </c>
       <c r="AG36" s="27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI36" s="33"/>
       <c r="AJ36" s="33"/>
@@ -5752,22 +5783,22 @@
         <v>36</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I37" s="23">
         <v>1.76</v>
@@ -5829,10 +5860,10 @@
         <v>2</v>
       </c>
       <c r="AF37" s="27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG37" s="27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AI37" s="33"/>
       <c r="AJ37" s="33"/>
@@ -5845,22 +5876,22 @@
         <v>37</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I38" s="23">
         <v>2.64</v>
@@ -5926,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="AG38" s="27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="33"/>
@@ -5939,22 +5970,22 @@
         <v>38</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I39" s="35">
         <v>10</v>
@@ -6001,7 +6032,7 @@
       </c>
       <c r="X39" s="34"/>
       <c r="Y39" s="38" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Z39" s="38" t="s">
         <v>50</v>
@@ -6016,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="AI39" s="39" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AJ39" s="39"/>
     </row>
@@ -6028,22 +6059,22 @@
         <v>39</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I40" s="35">
         <v>1.68</v>
@@ -6089,7 +6120,7 @@
         <v>0.35</v>
       </c>
       <c r="Y40" s="38" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Z40" s="38" t="s">
         <v>43</v>
@@ -6104,13 +6135,13 @@
         <v>1</v>
       </c>
       <c r="AF40" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AG40" s="38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AI40" s="39" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AJ40" s="39"/>
     </row>
@@ -6122,22 +6153,22 @@
         <v>40</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D41" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>297</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="F41" s="35" t="s">
         <v>74</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I41" s="35">
         <v>7.28</v>
@@ -6198,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="AI41" s="39" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AJ41" s="39"/>
     </row>
@@ -6210,22 +6241,22 @@
         <v>41</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>71</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I42" s="35">
         <v>1</v>
@@ -6272,7 +6303,7 @@
       </c>
       <c r="X42" s="34"/>
       <c r="Y42" s="38" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Z42" s="38" t="s">
         <v>36</v>
@@ -6287,10 +6318,10 @@
         <v>2</v>
       </c>
       <c r="AG42" s="38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AI42" s="39" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AJ42" s="39"/>
     </row>
@@ -6302,22 +6333,22 @@
         <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>71</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I43" s="13">
         <v>1</v>
@@ -6364,7 +6395,7 @@
       </c>
       <c r="X43" s="12"/>
       <c r="Y43" s="15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Z43" s="15" t="s">
         <v>36</v>
@@ -6382,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="AG43" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AI43" s="16"/>
       <c r="AJ43" s="16"/>
@@ -6395,22 +6426,22 @@
         <v>43</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F44" s="35" t="s">
         <v>73</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I44" s="35">
         <v>0.96</v>
@@ -6457,7 +6488,7 @@
       </c>
       <c r="X44" s="34"/>
       <c r="Y44" s="38" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Z44" s="38" t="s">
         <v>39</v>
@@ -6472,10 +6503,10 @@
         <v>2</v>
       </c>
       <c r="AG44" s="38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AI44" s="39" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AJ44" s="39"/>
     </row>
@@ -6487,22 +6518,22 @@
         <v>44</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>71</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I45" s="13">
         <v>1</v>
@@ -6549,7 +6580,7 @@
       </c>
       <c r="X45" s="12"/>
       <c r="Y45" s="15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Z45" s="15" t="s">
         <v>36</v>
@@ -6567,7 +6598,7 @@
         <v>2</v>
       </c>
       <c r="AG45" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AI45" s="16"/>
       <c r="AJ45" s="16"/>
@@ -6580,22 +6611,22 @@
         <v>45</v>
       </c>
       <c r="C46" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="F46" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I46" s="13">
         <v>0.96</v>
@@ -6642,7 +6673,7 @@
       </c>
       <c r="X46" s="12"/>
       <c r="Y46" s="15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Z46" s="15" t="s">
         <v>39</v>
@@ -6657,7 +6688,7 @@
         <v>2</v>
       </c>
       <c r="AG46" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AI46" s="16"/>
       <c r="AJ46" s="16"/>
@@ -6670,22 +6701,22 @@
         <v>46</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I47" s="13">
         <v>0.74</v>
@@ -6732,7 +6763,7 @@
       </c>
       <c r="X47" s="12"/>
       <c r="Y47" s="15" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Z47" s="15" t="s">
         <v>30</v>
@@ -6747,16 +6778,16 @@
         <v>2</v>
       </c>
       <c r="AF47" s="15" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AG47" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AH47" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AI47" s="16" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AJ47" s="16"/>
     </row>
@@ -6768,22 +6799,22 @@
         <v>47</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I48" s="13">
         <v>1</v>
@@ -6830,7 +6861,7 @@
       </c>
       <c r="X48" s="12"/>
       <c r="Y48" s="15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Z48" s="15" t="s">
         <v>36</v>
@@ -6845,10 +6876,10 @@
         <v>2</v>
       </c>
       <c r="AG48" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AI48" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AJ48" s="16"/>
     </row>
@@ -6860,22 +6891,22 @@
         <v>48</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="F49" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="H49" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I49" s="13">
         <v>2</v>
@@ -6937,10 +6968,10 @@
         <v>2</v>
       </c>
       <c r="AG49" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AI49" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AJ49" s="16"/>
     </row>
@@ -6952,22 +6983,22 @@
         <v>49</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F50" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G50" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="H50" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I50" s="13">
         <v>2</v>
@@ -7032,10 +7063,10 @@
         <v>2</v>
       </c>
       <c r="AG50" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AI50" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AJ50" s="16"/>
     </row>
@@ -7047,22 +7078,22 @@
         <v>50</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D51" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="I51" s="13">
         <v>2</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="340">
   <si>
     <t>line|行号</t>
   </si>
@@ -1907,10 +1907,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_imgf_tbl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>yle_imgf_bwx</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1923,87 +1919,91 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>yle_imgf_yglg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_mgy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hjcts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_jc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_tsz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hjdly</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hjht</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hjszy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_jddly</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_jdxcy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_jdyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_img_zcbc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_img_shks</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_img_bzey</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_img_bzhm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hjhg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_djs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hjzdy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5dby_imgf_fdcl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>yle_imgf_syjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>yle_imgf_yglg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_mgy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_hj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_hkzdy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_hjcts</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_djs</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_jc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_tsz</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_hjdly</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_hjhg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_hjht</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_hjszy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_jddly</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_jdxcy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_jdyy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_img_zcbc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_img_shks</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_img_bzey</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_img_bzhm</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2552,9 +2552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F48" sqref="F48"/>
+      <selection pane="topRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3854,7 +3854,7 @@
         <v>136</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>76</v>
@@ -3945,7 +3945,7 @@
         <v>137</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>76</v>
@@ -4033,7 +4033,7 @@
         <v>138</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>76</v>
@@ -4124,7 +4124,7 @@
         <v>69</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>97</v>
@@ -4212,7 +4212,7 @@
         <v>72</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>98</v>
@@ -4382,10 +4382,10 @@
         <v>147</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>64</v>
+        <v>325</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>100</v>
@@ -4475,7 +4475,7 @@
         <v>295</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="H22" s="29" t="s">
         <v>101</v>
@@ -4557,10 +4557,10 @@
         <v>140</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>100</v>
@@ -4645,10 +4645,10 @@
         <v>105</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>100</v>
@@ -4733,10 +4733,10 @@
         <v>141</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>64</v>
+        <v>326</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>100</v>
@@ -4821,7 +4821,7 @@
         <v>73</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H26" s="29" t="s">
         <v>100</v>
@@ -4906,7 +4906,7 @@
         <v>71</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>100</v>
@@ -4997,7 +4997,7 @@
         <v>77</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H28" s="29" t="s">
         <v>100</v>
@@ -5618,7 +5618,7 @@
         <v>248</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H35" s="23" t="s">
         <v>86</v>
@@ -5982,7 +5982,7 @@
         <v>78</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H39" s="35" t="s">
         <v>88</v>
@@ -6071,7 +6071,7 @@
         <v>77</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H40" s="35" t="s">
         <v>88</v>
@@ -6165,7 +6165,7 @@
         <v>74</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H41" s="35" t="s">
         <v>88</v>
@@ -6250,10 +6250,10 @@
         <v>208</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>71</v>
+        <v>338</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="H42" s="35" t="s">
         <v>88</v>
@@ -6438,7 +6438,7 @@
         <v>73</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H44" s="35" t="s">
         <v>88</v>
@@ -6710,10 +6710,10 @@
         <v>209</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>88</v>
@@ -6808,10 +6808,10 @@
         <v>205</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>88</v>
@@ -6897,13 +6897,13 @@
         <v>279</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>88</v>
@@ -6992,10 +6992,10 @@
         <v>239</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>88</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="340">
   <si>
     <t>line|行号</t>
   </si>
@@ -1995,15 +1995,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>5dby_imgf_fdcl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yle_imgf_syjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>3dby_imgf_hjzdy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5dby_imgf_fdcl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>yle_imgf_syjj</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2552,9 +2552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G42" sqref="G42"/>
+      <selection pane="topRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4472,10 +4472,10 @@
         <v>59</v>
       </c>
       <c r="F22" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>295</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>337</v>
       </c>
       <c r="H22" s="29" t="s">
         <v>101</v>
@@ -6250,10 +6250,10 @@
         <v>208</v>
       </c>
       <c r="F42" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="G42" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>339</v>
       </c>
       <c r="H42" s="35" t="s">
         <v>88</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -2552,9 +2552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6003,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="34">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O39" s="34">
         <v>4</v>
@@ -6092,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="34">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O40" s="34">
         <v>3</v>
@@ -6186,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="34">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O41" s="34">
         <v>1</v>
@@ -6274,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="34">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O42" s="34">
         <v>2</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O43" s="12">
         <v>2</v>
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="N44" s="34">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O44" s="34">
         <v>3</v>
@@ -6551,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="N45" s="12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O45" s="12">
         <v>2</v>
@@ -6644,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O46" s="12">
         <v>3</v>
@@ -6734,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="12">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O47" s="12">
         <v>2</v>
@@ -6832,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="12">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O48" s="12">
         <v>2</v>
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="N49" s="12">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="O49" s="12">
         <v>3</v>
@@ -7016,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="N50" s="12">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O50" s="12">
         <v>3</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1864,45 +1864,13 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>100,200,300,400,500,600</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,300,400,500,600,700</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,400,500,600</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,500,600,700</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>100,200,300,400</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>200,300,400,500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>0,-100</t>
   </si>
   <si>
-    <t>100,200,300,400,500,650</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,100,200,300,400,500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,100,200,300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu40</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2004,6 +1972,38 @@
   </si>
   <si>
     <t>3dby_imgf_hjzdy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,100,300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,100,200</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,300,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,150,200,350</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,250,300,450</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,500,600</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2552,9 +2552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI35" sqref="AI35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3854,7 +3854,7 @@
         <v>136</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>76</v>
@@ -3945,7 +3945,7 @@
         <v>137</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>76</v>
@@ -4033,7 +4033,7 @@
         <v>138</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>76</v>
@@ -4124,7 +4124,7 @@
         <v>69</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>97</v>
@@ -4212,7 +4212,7 @@
         <v>72</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>98</v>
@@ -4382,10 +4382,10 @@
         <v>147</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>100</v>
@@ -4472,7 +4472,7 @@
         <v>59</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>295</v>
@@ -4557,10 +4557,10 @@
         <v>140</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>100</v>
@@ -4645,10 +4645,10 @@
         <v>105</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>100</v>
@@ -4733,10 +4733,10 @@
         <v>141</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>100</v>
@@ -4821,7 +4821,7 @@
         <v>73</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H26" s="29" t="s">
         <v>100</v>
@@ -4906,7 +4906,7 @@
         <v>71</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>100</v>
@@ -4997,7 +4997,7 @@
         <v>77</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H28" s="29" t="s">
         <v>100</v>
@@ -5618,7 +5618,7 @@
         <v>248</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H35" s="23" t="s">
         <v>86</v>
@@ -5982,7 +5982,7 @@
         <v>78</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H39" s="35" t="s">
         <v>88</v>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="X39" s="34"/>
       <c r="Y39" s="38" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Z39" s="38" t="s">
         <v>50</v>
@@ -6047,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="AI39" s="39" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="AJ39" s="39"/>
     </row>
@@ -6071,7 +6071,7 @@
         <v>77</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H40" s="35" t="s">
         <v>88</v>
@@ -6141,7 +6141,7 @@
         <v>181</v>
       </c>
       <c r="AI40" s="39" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="AJ40" s="39"/>
     </row>
@@ -6165,7 +6165,7 @@
         <v>74</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H41" s="35" t="s">
         <v>88</v>
@@ -6229,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="AI41" s="39" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="AJ41" s="39"/>
     </row>
@@ -6244,16 +6244,16 @@
         <v>233</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H42" s="35" t="s">
         <v>88</v>
@@ -6321,7 +6321,7 @@
         <v>206</v>
       </c>
       <c r="AI42" s="39" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="AJ42" s="39"/>
     </row>
@@ -6438,7 +6438,7 @@
         <v>73</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H44" s="35" t="s">
         <v>88</v>
@@ -6506,7 +6506,7 @@
         <v>113</v>
       </c>
       <c r="AI44" s="39" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="AJ44" s="39"/>
     </row>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="X46" s="12"/>
       <c r="Y46" s="15" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Z46" s="15" t="s">
         <v>39</v>
@@ -6710,10 +6710,10 @@
         <v>209</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>88</v>
@@ -6808,10 +6808,10 @@
         <v>205</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>88</v>
@@ -6879,7 +6879,7 @@
         <v>186</v>
       </c>
       <c r="AI48" s="16" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="AJ48" s="16"/>
     </row>
@@ -6897,13 +6897,13 @@
         <v>279</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>88</v>
@@ -6971,7 +6971,7 @@
         <v>111</v>
       </c>
       <c r="AI49" s="16" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="AJ49" s="16"/>
     </row>
@@ -6992,10 +6992,10 @@
         <v>239</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>88</v>
@@ -7066,7 +7066,7 @@
         <v>222</v>
       </c>
       <c r="AI50" s="16" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="AJ50" s="16"/>
     </row>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="381">
   <si>
     <t>line|行号</t>
   </si>
@@ -2140,6 +2140,34 @@
   </si>
   <si>
     <t>com_award_icon_lxq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytx_cool2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytx_cool1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytx_cool1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4,0.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_zp49</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2721,9 +2749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6295,7 +6323,7 @@
         <v>0.74</v>
       </c>
       <c r="T39" s="35" t="s">
-        <v>25</v>
+        <v>375</v>
       </c>
       <c r="U39" s="37">
         <v>1</v>
@@ -7421,7 +7449,7 @@
         <v>0.22</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>32</v>
+        <v>374</v>
       </c>
       <c r="U51" s="14">
         <v>0.8</v>
@@ -7471,6 +7499,73 @@
       <c r="E52" s="13" t="s">
         <v>372</v>
       </c>
+      <c r="F52" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="I52" s="13">
+        <v>2.64</v>
+      </c>
+      <c r="J52" s="13">
+        <v>2.38</v>
+      </c>
+      <c r="K52" s="12">
+        <v>1</v>
+      </c>
+      <c r="L52" s="12">
+        <v>30</v>
+      </c>
+      <c r="M52" s="13">
+        <v>1</v>
+      </c>
+      <c r="N52" s="12">
+        <v>200</v>
+      </c>
+      <c r="O52" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="R52" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="S52" s="14">
+        <v>0.74</v>
+      </c>
+      <c r="T52" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="U52" s="14">
+        <v>1</v>
+      </c>
+      <c r="V52" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="W52" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Y52" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z52" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA52" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="15">
+        <v>1000</v>
+      </c>
+      <c r="AD52" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="AE52" s="15"/>
     </row>
     <row r="54" spans="1:36" s="9" customFormat="1"/>
     <row r="55" spans="1:36" s="9" customFormat="1">

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="config|鱼配置" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2749,9 +2749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4042,7 +4042,7 @@
         <v>37</v>
       </c>
       <c r="U14" s="7">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="V14" s="7">
         <v>1</v>
@@ -4504,7 +4504,7 @@
         <v>37</v>
       </c>
       <c r="U19" s="26">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V19" s="26">
         <v>1</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="390">
   <si>
     <t>line|行号</t>
   </si>
@@ -2188,6 +2188,22 @@
   </si>
   <si>
     <t>by_imgf_jwy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D070_act</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D073_act</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D074_act</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D045_act</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2767,11 +2783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ56"/>
+  <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G60" sqref="G60"/>
+      <selection pane="topRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7670,11 +7686,385 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:36" s="9" customFormat="1"/>
+    <row r="54" spans="1:36" s="9" customFormat="1">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>53</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="K54" s="3">
+        <v>2</v>
+      </c>
+      <c r="L54" s="3">
+        <v>30</v>
+      </c>
+      <c r="M54" s="6">
+        <v>1</v>
+      </c>
+      <c r="N54" s="3">
+        <v>20</v>
+      </c>
+      <c r="O54" s="3">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="R54" s="7">
+        <v>1</v>
+      </c>
+      <c r="S54" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U54" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="V54" s="7">
+        <v>1</v>
+      </c>
+      <c r="W54" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC54" s="9">
+        <v>7800</v>
+      </c>
+      <c r="AD54" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AE54" s="9">
+        <v>2</v>
+      </c>
+      <c r="AF54" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG54" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ54" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
     <row r="55" spans="1:36" s="9" customFormat="1">
-      <c r="AI55" s="8"/>
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>54</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L55" s="3">
+        <v>30</v>
+      </c>
+      <c r="M55" s="6">
+        <v>1</v>
+      </c>
+      <c r="N55" s="3">
+        <v>30</v>
+      </c>
+      <c r="O55" s="3">
+        <v>4</v>
+      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="R55" s="7">
+        <v>1</v>
+      </c>
+      <c r="S55" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U55" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="V55" s="7">
+        <v>1</v>
+      </c>
+      <c r="W55" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z55" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC55" s="9">
+        <v>7400</v>
+      </c>
+      <c r="AD55" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AE55" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG55" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ55" s="8" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="56" spans="1:36" s="9" customFormat="1"/>
+    <row r="56" spans="1:36" s="28" customFormat="1">
+      <c r="A56" s="22">
+        <v>55</v>
+      </c>
+      <c r="B56" s="22">
+        <v>55</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="23">
+        <v>1.53</v>
+      </c>
+      <c r="J56" s="23">
+        <v>1.48</v>
+      </c>
+      <c r="K56" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="L56" s="22">
+        <v>30</v>
+      </c>
+      <c r="M56" s="25">
+        <v>1</v>
+      </c>
+      <c r="N56" s="22">
+        <v>40</v>
+      </c>
+      <c r="O56" s="22">
+        <v>4</v>
+      </c>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R56" s="26">
+        <v>1</v>
+      </c>
+      <c r="S56" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="T56" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U56" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="V56" s="26">
+        <v>1</v>
+      </c>
+      <c r="W56" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z56" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC56" s="28">
+        <v>7200</v>
+      </c>
+      <c r="AD56" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="AE56" s="28">
+        <v>2</v>
+      </c>
+      <c r="AG56" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ56" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" s="28" customFormat="1">
+      <c r="A57" s="22">
+        <v>56</v>
+      </c>
+      <c r="B57" s="22">
+        <v>56</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I57" s="23">
+        <v>0.66</v>
+      </c>
+      <c r="J57" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="K57" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="L57" s="22">
+        <v>30</v>
+      </c>
+      <c r="M57" s="25">
+        <v>1</v>
+      </c>
+      <c r="N57" s="22">
+        <v>60</v>
+      </c>
+      <c r="O57" s="22">
+        <v>4</v>
+      </c>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="R57" s="26">
+        <v>1</v>
+      </c>
+      <c r="S57" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T57" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U57" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="V57" s="26">
+        <v>1</v>
+      </c>
+      <c r="W57" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z57" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC57" s="28">
+        <v>7100</v>
+      </c>
+      <c r="AD57" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="AE57" s="28">
+        <v>2</v>
+      </c>
+      <c r="AG57" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ57" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36">
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:36">
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:36">
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:36">
+      <c r="E64" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="411">
   <si>
     <t>line|行号</t>
   </si>
@@ -2444,18 +2444,6 @@
       </rPr>
       <t>,</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3040,9 +3028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6690,9 +6678,7 @@
       <c r="W39" s="37">
         <v>0.35</v>
       </c>
-      <c r="X39" s="34" t="s">
-        <v>411</v>
-      </c>
+      <c r="X39" s="34"/>
       <c r="Y39" s="38" t="s">
         <v>305</v>
       </c>
@@ -6783,9 +6769,7 @@
       <c r="W40" s="37">
         <v>0.35</v>
       </c>
-      <c r="X40" s="34" t="s">
-        <v>411</v>
-      </c>
+      <c r="X40" s="34"/>
       <c r="Y40" s="38" t="s">
         <v>299</v>
       </c>
@@ -6882,9 +6866,7 @@
       <c r="W41" s="37">
         <v>0.35</v>
       </c>
-      <c r="X41" s="34" t="s">
-        <v>411</v>
-      </c>
+      <c r="X41" s="34"/>
       <c r="Y41" s="38" t="s">
         <v>51</v>
       </c>
@@ -6975,9 +6957,7 @@
       <c r="W42" s="37">
         <v>0.5</v>
       </c>
-      <c r="X42" s="34" t="s">
-        <v>411</v>
-      </c>
+      <c r="X42" s="34"/>
       <c r="Y42" s="38" t="s">
         <v>300</v>
       </c>
@@ -7164,9 +7144,7 @@
       <c r="W44" s="37">
         <v>0.35</v>
       </c>
-      <c r="X44" s="34" t="s">
-        <v>412</v>
-      </c>
+      <c r="X44" s="34"/>
       <c r="Y44" s="38" t="s">
         <v>301</v>
       </c>
@@ -7443,9 +7421,7 @@
       <c r="W47" s="14">
         <v>0.4</v>
       </c>
-      <c r="X47" s="12" t="s">
-        <v>412</v>
-      </c>
+      <c r="X47" s="12"/>
       <c r="Y47" s="15" t="s">
         <v>302</v>
       </c>
@@ -7545,9 +7521,7 @@
       <c r="W48" s="14">
         <v>0.5</v>
       </c>
-      <c r="X48" s="12" t="s">
-        <v>412</v>
-      </c>
+      <c r="X48" s="12"/>
       <c r="Y48" s="15" t="s">
         <v>300</v>
       </c>
@@ -7641,9 +7615,7 @@
       <c r="W49" s="14">
         <v>0.45</v>
       </c>
-      <c r="X49" s="12" t="s">
-        <v>411</v>
-      </c>
+      <c r="X49" s="12"/>
       <c r="Y49" s="17" t="s">
         <v>34</v>
       </c>
@@ -7737,9 +7709,7 @@
       <c r="W50" s="14">
         <v>0.45</v>
       </c>
-      <c r="X50" s="12" t="s">
-        <v>413</v>
-      </c>
+      <c r="X50" s="12"/>
       <c r="Y50" s="17" t="s">
         <v>34</v>
       </c>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="423">
   <si>
     <t>line|行号</t>
   </si>
@@ -2480,6 +2480,18 @@
   </si>
   <si>
     <t>by_iocn_hfy</t>
+  </si>
+  <si>
+    <t>Fish3D090</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_lhy_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2565,7 +2577,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2587,6 +2599,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2633,7 +2651,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2806,6 +2824,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3089,7 +3125,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8671,8 +8707,88 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
-      <c r="E61" s="13"/>
+    <row r="61" spans="1:36" s="60" customFormat="1">
+      <c r="A61" s="58">
+        <v>60</v>
+      </c>
+      <c r="B61" s="58">
+        <v>60</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="H61" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="I61" s="59">
+        <v>2.64</v>
+      </c>
+      <c r="J61" s="59">
+        <v>2.38</v>
+      </c>
+      <c r="K61" s="58">
+        <v>1</v>
+      </c>
+      <c r="L61" s="58">
+        <v>30</v>
+      </c>
+      <c r="M61" s="59">
+        <v>1</v>
+      </c>
+      <c r="N61" s="58">
+        <v>0</v>
+      </c>
+      <c r="O61" s="58">
+        <v>4</v>
+      </c>
+      <c r="Q61" s="59">
+        <v>0.64</v>
+      </c>
+      <c r="R61" s="61">
+        <v>0.73</v>
+      </c>
+      <c r="S61" s="61">
+        <v>0.74</v>
+      </c>
+      <c r="T61" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="U61" s="61">
+        <v>1</v>
+      </c>
+      <c r="V61" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="W61" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="Y61" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z61" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA61" s="63">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="63">
+        <v>1000</v>
+      </c>
+      <c r="AD61" s="63">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="62" spans="1:36">
       <c r="E62" s="13"/>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="420">
   <si>
     <t>line|行号</t>
   </si>
@@ -2461,6 +2461,25 @@
   <si>
     <t>by_iocn_hjboss</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
   </si>
 </sst>
 </file>
@@ -3068,9 +3087,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8569,6 +8588,89 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="60" spans="1:36" s="54" customFormat="1">
+      <c r="A60" s="12">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12">
+        <v>59</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="D60" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="F60" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="G60" s="53" t="s">
+        <v>419</v>
+      </c>
+      <c r="H60" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I60" s="53">
+        <v>2.64</v>
+      </c>
+      <c r="J60" s="53">
+        <v>2.38</v>
+      </c>
+      <c r="K60" s="52">
+        <v>1</v>
+      </c>
+      <c r="L60" s="52">
+        <v>30</v>
+      </c>
+      <c r="M60" s="53">
+        <v>1</v>
+      </c>
+      <c r="N60" s="52">
+        <v>0</v>
+      </c>
+      <c r="O60" s="52">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="53">
+        <v>0.64</v>
+      </c>
+      <c r="R60" s="55">
+        <v>0.73</v>
+      </c>
+      <c r="S60" s="55">
+        <v>0.74</v>
+      </c>
+      <c r="T60" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="U60" s="55">
+        <v>1</v>
+      </c>
+      <c r="V60" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="W60" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="Y60" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z60" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA60" s="57">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="57">
+        <v>1000</v>
+      </c>
+      <c r="AD60" s="57">
+        <v>1.5</v>
+      </c>
+    </row>
     <row r="61" spans="1:36">
       <c r="E61" s="13"/>
     </row>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="426">
   <si>
     <t>line|行号</t>
   </si>
@@ -2493,6 +2493,17 @@
     <t>礼盒boss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>Fish3D091</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_jzy</t>
+  </si>
 </sst>
 </file>
 
@@ -2501,7 +2512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2575,6 +2586,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2651,7 +2668,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2843,6 +2860,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3125,7 +3151,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8790,8 +8816,88 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
-      <c r="E62" s="13"/>
+    <row r="62" spans="1:36" s="65" customFormat="1" ht="16.5">
+      <c r="A62" s="52">
+        <v>61</v>
+      </c>
+      <c r="B62" s="52">
+        <v>61</v>
+      </c>
+      <c r="C62" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>424</v>
+      </c>
+      <c r="F62" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="G62" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="H62" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I62" s="53">
+        <v>2.64</v>
+      </c>
+      <c r="J62" s="53">
+        <v>2.38</v>
+      </c>
+      <c r="K62" s="52">
+        <v>1</v>
+      </c>
+      <c r="L62" s="52">
+        <v>30</v>
+      </c>
+      <c r="M62" s="53">
+        <v>1</v>
+      </c>
+      <c r="N62" s="52">
+        <v>0</v>
+      </c>
+      <c r="O62" s="52">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="53">
+        <v>0.64</v>
+      </c>
+      <c r="R62" s="55">
+        <v>0.73</v>
+      </c>
+      <c r="S62" s="55">
+        <v>0.74</v>
+      </c>
+      <c r="T62" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="U62" s="55">
+        <v>1</v>
+      </c>
+      <c r="V62" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="W62" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="Y62" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z62" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA62" s="52">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="52">
+        <v>1000</v>
+      </c>
+      <c r="AD62" s="52">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="63" spans="1:36">
       <c r="E63" s="13"/>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2594,7 +2594,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2622,6 +2622,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2668,7 +2674,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2868,6 +2874,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3149,9 +3179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4785,96 +4815,96 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="28" customFormat="1">
-      <c r="A18" s="22">
+    <row r="18" spans="1:36" s="73" customFormat="1">
+      <c r="A18" s="67">
         <v>17</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="67">
         <v>17</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="68">
         <v>1.53</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="68">
         <v>1.48</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="67">
         <v>0.8</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="67">
         <v>30</v>
       </c>
-      <c r="M18" s="25">
-        <v>1</v>
-      </c>
-      <c r="N18" s="22">
+      <c r="M18" s="70">
+        <v>1</v>
+      </c>
+      <c r="N18" s="67">
         <v>40</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="67">
         <v>4</v>
       </c>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23">
+      <c r="P18" s="67"/>
+      <c r="Q18" s="68">
         <v>0.7</v>
       </c>
-      <c r="R18" s="26">
-        <v>1</v>
-      </c>
-      <c r="S18" s="26">
+      <c r="R18" s="71">
+        <v>1</v>
+      </c>
+      <c r="S18" s="71">
         <v>0.6</v>
       </c>
-      <c r="T18" s="23" t="s">
+      <c r="T18" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="V18" s="26">
-        <v>1</v>
-      </c>
-      <c r="W18" s="26">
+      <c r="U18" s="71">
+        <v>1.4</v>
+      </c>
+      <c r="V18" s="71">
+        <v>1</v>
+      </c>
+      <c r="W18" s="71">
         <v>0.35</v>
       </c>
-      <c r="X18" s="51" t="s">
+      <c r="X18" s="74" t="s">
         <v>395</v>
       </c>
-      <c r="Y18" s="27" t="s">
+      <c r="Y18" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="Z18" s="27" t="s">
+      <c r="Z18" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="AC18" s="28">
+      <c r="AC18" s="73">
         <v>7200</v>
       </c>
-      <c r="AD18" s="28">
+      <c r="AD18" s="73">
         <v>1.5</v>
       </c>
-      <c r="AE18" s="28">
+      <c r="AE18" s="73">
         <v>2</v>
       </c>
-      <c r="AG18" s="27" t="s">
+      <c r="AG18" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="AJ18" s="8" t="s">
+      <c r="AJ18" s="72" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8302,94 +8332,94 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="28" customFormat="1">
-      <c r="A56" s="22">
+    <row r="56" spans="1:36" s="73" customFormat="1">
+      <c r="A56" s="67">
         <v>55</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="67">
         <v>55</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="68" t="s">
         <v>387</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="68">
         <v>1.53</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="68">
         <v>1.48</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="67">
         <v>0.8</v>
       </c>
-      <c r="L56" s="22">
+      <c r="L56" s="67">
         <v>30</v>
       </c>
-      <c r="M56" s="25">
-        <v>1</v>
-      </c>
-      <c r="N56" s="22">
+      <c r="M56" s="70">
+        <v>1</v>
+      </c>
+      <c r="N56" s="67">
         <v>40</v>
       </c>
-      <c r="O56" s="22">
+      <c r="O56" s="67">
         <v>4</v>
       </c>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="23">
+      <c r="P56" s="67"/>
+      <c r="Q56" s="68">
         <v>0.7</v>
       </c>
-      <c r="R56" s="26">
-        <v>1</v>
-      </c>
-      <c r="S56" s="26">
+      <c r="R56" s="71">
+        <v>1</v>
+      </c>
+      <c r="S56" s="71">
         <v>0.6</v>
       </c>
-      <c r="T56" s="23" t="s">
+      <c r="T56" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="U56" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="V56" s="26">
-        <v>1</v>
-      </c>
-      <c r="W56" s="26">
+      <c r="U56" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="V56" s="71">
+        <v>1</v>
+      </c>
+      <c r="W56" s="71">
         <v>0.35</v>
       </c>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="27" t="s">
+      <c r="X56" s="67"/>
+      <c r="Y56" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="Z56" s="27" t="s">
+      <c r="Z56" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="AC56" s="28">
+      <c r="AC56" s="73">
         <v>7200</v>
       </c>
-      <c r="AD56" s="28">
+      <c r="AD56" s="73">
         <v>1.5</v>
       </c>
-      <c r="AE56" s="28">
+      <c r="AE56" s="73">
         <v>2</v>
       </c>
-      <c r="AG56" s="27" t="s">
+      <c r="AG56" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="AJ56" s="8" t="s">
+      <c r="AJ56" s="72" t="s">
         <v>343</v>
       </c>
     </row>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="429">
   <si>
     <t>line|行号</t>
   </si>
@@ -2498,11 +2498,24 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>饺子boss</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_jzy</t>
+    <t>金牛boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2627,7 +2640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2674,7 +2687,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2874,6 +2887,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3179,16 +3195,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="9" width="19.25" customWidth="1"/>
+    <col min="3" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="67" customWidth="1"/>
+    <col min="7" max="9" width="19.25" customWidth="1"/>
     <col min="10" max="10" width="21.625" customWidth="1"/>
     <col min="11" max="11" width="17.875" customWidth="1"/>
     <col min="12" max="12" width="17.625" customWidth="1"/>
@@ -4815,96 +4833,96 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="73" customFormat="1">
-      <c r="A18" s="67">
+    <row r="18" spans="1:36" s="74" customFormat="1">
+      <c r="A18" s="68">
         <v>17</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="68">
         <v>17</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="H18" s="68" t="s">
+      <c r="H18" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="69">
         <v>1.53</v>
       </c>
-      <c r="J18" s="68">
+      <c r="J18" s="69">
         <v>1.48</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="68">
         <v>0.8</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="68">
         <v>30</v>
       </c>
-      <c r="M18" s="70">
-        <v>1</v>
-      </c>
-      <c r="N18" s="67">
+      <c r="M18" s="71">
+        <v>1</v>
+      </c>
+      <c r="N18" s="68">
         <v>40</v>
       </c>
-      <c r="O18" s="67">
+      <c r="O18" s="68">
         <v>4</v>
       </c>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="68">
+      <c r="P18" s="68"/>
+      <c r="Q18" s="69">
         <v>0.7</v>
       </c>
-      <c r="R18" s="71">
-        <v>1</v>
-      </c>
-      <c r="S18" s="71">
+      <c r="R18" s="72">
+        <v>1</v>
+      </c>
+      <c r="S18" s="72">
         <v>0.6</v>
       </c>
-      <c r="T18" s="68" t="s">
+      <c r="T18" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="71">
-        <v>1.4</v>
-      </c>
-      <c r="V18" s="71">
-        <v>1</v>
-      </c>
-      <c r="W18" s="71">
+      <c r="U18" s="72">
+        <v>1.2</v>
+      </c>
+      <c r="V18" s="72">
+        <v>1</v>
+      </c>
+      <c r="W18" s="72">
         <v>0.35</v>
       </c>
-      <c r="X18" s="74" t="s">
+      <c r="X18" s="75" t="s">
         <v>395</v>
       </c>
-      <c r="Y18" s="72" t="s">
+      <c r="Y18" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="Z18" s="72" t="s">
+      <c r="Z18" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AC18" s="73">
+      <c r="AC18" s="74">
         <v>7200</v>
       </c>
-      <c r="AD18" s="73">
+      <c r="AD18" s="74">
         <v>1.5</v>
       </c>
-      <c r="AE18" s="73">
+      <c r="AE18" s="74">
         <v>2</v>
       </c>
-      <c r="AG18" s="72" t="s">
+      <c r="AG18" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="AJ18" s="72" t="s">
+      <c r="AJ18" s="73" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8332,94 +8350,94 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="73" customFormat="1">
-      <c r="A56" s="67">
+    <row r="56" spans="1:36" s="74" customFormat="1">
+      <c r="A56" s="68">
         <v>55</v>
       </c>
-      <c r="B56" s="67">
+      <c r="B56" s="68">
         <v>55</v>
       </c>
-      <c r="C56" s="68" t="s">
+      <c r="C56" s="69" t="s">
         <v>387</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="D56" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="69" t="s">
+      <c r="E56" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="69" t="s">
+      <c r="F56" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="68" t="s">
+      <c r="G56" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="H56" s="68" t="s">
+      <c r="H56" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="I56" s="68">
+      <c r="I56" s="69">
         <v>1.53</v>
       </c>
-      <c r="J56" s="68">
+      <c r="J56" s="69">
         <v>1.48</v>
       </c>
-      <c r="K56" s="67">
+      <c r="K56" s="68">
         <v>0.8</v>
       </c>
-      <c r="L56" s="67">
+      <c r="L56" s="68">
         <v>30</v>
       </c>
-      <c r="M56" s="70">
-        <v>1</v>
-      </c>
-      <c r="N56" s="67">
+      <c r="M56" s="71">
+        <v>1</v>
+      </c>
+      <c r="N56" s="68">
         <v>40</v>
       </c>
-      <c r="O56" s="67">
+      <c r="O56" s="68">
         <v>4</v>
       </c>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="68">
+      <c r="P56" s="68"/>
+      <c r="Q56" s="69">
         <v>0.7</v>
       </c>
-      <c r="R56" s="71">
-        <v>1</v>
-      </c>
-      <c r="S56" s="71">
+      <c r="R56" s="72">
+        <v>1</v>
+      </c>
+      <c r="S56" s="72">
         <v>0.6</v>
       </c>
-      <c r="T56" s="68" t="s">
+      <c r="T56" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U56" s="71">
-        <v>1.2</v>
-      </c>
-      <c r="V56" s="71">
-        <v>1</v>
-      </c>
-      <c r="W56" s="71">
+      <c r="U56" s="72">
+        <v>1.4</v>
+      </c>
+      <c r="V56" s="72">
+        <v>1</v>
+      </c>
+      <c r="W56" s="72">
         <v>0.35</v>
       </c>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="72" t="s">
+      <c r="X56" s="68"/>
+      <c r="Y56" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="Z56" s="72" t="s">
+      <c r="Z56" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AC56" s="73">
+      <c r="AC56" s="74">
         <v>7200</v>
       </c>
-      <c r="AD56" s="73">
+      <c r="AD56" s="74">
         <v>1.5</v>
       </c>
-      <c r="AE56" s="73">
+      <c r="AE56" s="74">
         <v>2</v>
       </c>
-      <c r="AG56" s="72" t="s">
+      <c r="AG56" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="AJ56" s="72" t="s">
+      <c r="AJ56" s="73" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8857,16 +8875,16 @@
         <v>423</v>
       </c>
       <c r="D62" s="64" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E62" s="53" t="s">
         <v>424</v>
       </c>
       <c r="F62" s="64" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G62" s="64" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H62" s="53" t="s">
         <v>218</v>
@@ -8912,6 +8930,9 @@
       </c>
       <c r="W62" s="55">
         <v>0.1</v>
+      </c>
+      <c r="X62" s="65" t="s">
+        <v>425</v>
       </c>
       <c r="Y62" s="66" t="s">
         <v>342</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="428">
   <si>
     <t>line|行号</t>
   </si>
@@ -2503,10 +2503,6 @@
   </si>
   <si>
     <t>18,19,20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3195,9 +3191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8881,10 +8877,10 @@
         <v>424</v>
       </c>
       <c r="F62" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="G62" s="64" t="s">
         <v>427</v>
-      </c>
-      <c r="G62" s="64" t="s">
-        <v>428</v>
       </c>
       <c r="H62" s="53" t="s">
         <v>218</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3192,8 +3192,8 @@
   <dimension ref="A1:AJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="429">
   <si>
     <t>line|行号</t>
   </si>
@@ -2507,6 +2507,10 @@
   </si>
   <si>
     <t>act_ty_by_drop_8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_9</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3193,7 +3197,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8877,7 +8881,7 @@
         <v>424</v>
       </c>
       <c r="F62" s="64" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G62" s="64" t="s">
         <v>427</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2498,10 +2498,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>金牛boss</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>18,19,20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2515,6 +2511,10 @@
   </si>
   <si>
     <t>act_ty_by_drop_9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑boss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3197,7 +3197,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8875,16 +8875,16 @@
         <v>423</v>
       </c>
       <c r="D62" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="F62" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="G62" s="64" t="s">
         <v>426</v>
-      </c>
-      <c r="E62" s="53" t="s">
-        <v>424</v>
-      </c>
-      <c r="F62" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="G62" s="64" t="s">
-        <v>427</v>
       </c>
       <c r="H62" s="53" t="s">
         <v>218</v>
@@ -8932,7 +8932,7 @@
         <v>0.1</v>
       </c>
       <c r="X62" s="65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Y62" s="66" t="s">
         <v>342</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2494,10 +2494,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D091</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>18,19,20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2514,7 +2510,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>小丑boss</t>
+    <t>Fish_Act</t>
+  </si>
+  <si>
+    <t>活动boss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2687,7 +2686,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2915,6 +2914,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8871,20 +8873,20 @@
       <c r="B62" s="52">
         <v>61</v>
       </c>
-      <c r="C62" s="53" t="s">
-        <v>423</v>
+      <c r="C62" s="76" t="s">
+        <v>427</v>
       </c>
       <c r="D62" s="64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E62" s="53" t="s">
         <v>428</v>
       </c>
       <c r="F62" s="64" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G62" s="64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H62" s="53" t="s">
         <v>218</v>
@@ -8932,7 +8934,7 @@
         <v>0.1</v>
       </c>
       <c r="X62" s="65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y62" s="66" t="s">
         <v>342</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -3219,7 +3219,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5172,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O21" s="3">
         <v>1</v>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>3</v>
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="O24" s="3">
         <v>1</v>
@@ -5633,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="22">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O26" s="22">
         <v>2</v>
@@ -5724,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="22">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="O27" s="22">
         <v>4</v>
@@ -5821,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="22">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="O28" s="22">
         <v>4</v>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -2706,7 +2706,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2803,20 +2803,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2840,24 +2831,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2932,11 +2905,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3219,7 +3201,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3227,7 +3209,7 @@
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="67" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="58" customWidth="1"/>
     <col min="7" max="9" width="19.25" customWidth="1"/>
     <col min="10" max="10" width="21.625" customWidth="1"/>
     <col min="11" max="11" width="17.875" customWidth="1"/>
@@ -3431,7 +3413,7 @@
       <c r="W2" s="7">
         <v>1</v>
       </c>
-      <c r="X2" s="51" t="s">
+      <c r="X2" s="42" t="s">
         <v>398</v>
       </c>
       <c r="Y2" s="8" t="s">
@@ -3524,7 +3506,7 @@
       <c r="W3" s="7">
         <v>0.8</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="42" t="s">
         <v>398</v>
       </c>
       <c r="Y3" s="8" t="s">
@@ -3614,7 +3596,7 @@
       <c r="W4" s="7">
         <v>0.35</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="42" t="s">
         <v>399</v>
       </c>
       <c r="Y4" s="8" t="s">
@@ -3707,7 +3689,7 @@
       <c r="W5" s="7">
         <v>0.6</v>
       </c>
-      <c r="X5" s="51" t="s">
+      <c r="X5" s="42" t="s">
         <v>400</v>
       </c>
       <c r="Y5" s="8" t="s">
@@ -3797,7 +3779,7 @@
       <c r="W6" s="7">
         <v>0.5</v>
       </c>
-      <c r="X6" s="51" t="s">
+      <c r="X6" s="42" t="s">
         <v>399</v>
       </c>
       <c r="Y6" s="8" t="s">
@@ -3887,7 +3869,7 @@
       <c r="W7" s="7">
         <v>0.4</v>
       </c>
-      <c r="X7" s="51" t="s">
+      <c r="X7" s="42" t="s">
         <v>399</v>
       </c>
       <c r="Y7" s="8" t="s">
@@ -3980,7 +3962,7 @@
       <c r="W8" s="7">
         <v>0.35</v>
       </c>
-      <c r="X8" s="51" t="s">
+      <c r="X8" s="42" t="s">
         <v>399</v>
       </c>
       <c r="Y8" s="8" t="s">
@@ -4071,7 +4053,7 @@
       <c r="W9" s="7">
         <v>0.4</v>
       </c>
-      <c r="X9" s="51" t="s">
+      <c r="X9" s="42" t="s">
         <v>400</v>
       </c>
       <c r="Y9" s="8" t="s">
@@ -4165,7 +4147,7 @@
       <c r="W10" s="7">
         <v>0.45</v>
       </c>
-      <c r="X10" s="51" t="s">
+      <c r="X10" s="42" t="s">
         <v>400</v>
       </c>
       <c r="Y10" s="10" t="s">
@@ -4262,7 +4244,7 @@
       <c r="W11" s="7">
         <v>0.5</v>
       </c>
-      <c r="X11" s="51" t="s">
+      <c r="X11" s="42" t="s">
         <v>400</v>
       </c>
       <c r="Y11" s="8" t="s">
@@ -4356,7 +4338,7 @@
       <c r="W12" s="7">
         <v>0.35</v>
       </c>
-      <c r="X12" s="51" t="s">
+      <c r="X12" s="42" t="s">
         <v>401</v>
       </c>
       <c r="Y12" s="8" t="s">
@@ -4450,7 +4432,7 @@
       <c r="W13" s="7">
         <v>0.35</v>
       </c>
-      <c r="X13" s="51" t="s">
+      <c r="X13" s="42" t="s">
         <v>399</v>
       </c>
       <c r="Y13" s="8" t="s">
@@ -4544,7 +4526,7 @@
       <c r="W14" s="7">
         <v>0.35</v>
       </c>
-      <c r="X14" s="51" t="s">
+      <c r="X14" s="42" t="s">
         <v>402</v>
       </c>
       <c r="Y14" s="8" t="s">
@@ -4641,7 +4623,7 @@
       <c r="W15" s="7">
         <v>0.4</v>
       </c>
-      <c r="X15" s="51" t="s">
+      <c r="X15" s="42" t="s">
         <v>394</v>
       </c>
       <c r="Y15" s="8" t="s">
@@ -4737,7 +4719,7 @@
       <c r="W16" s="7">
         <v>0.35</v>
       </c>
-      <c r="X16" s="51" t="s">
+      <c r="X16" s="42" t="s">
         <v>395</v>
       </c>
       <c r="Y16" s="8" t="s">
@@ -4830,7 +4812,7 @@
       <c r="W17" s="7">
         <v>0.5</v>
       </c>
-      <c r="X17" s="51" t="s">
+      <c r="X17" s="42" t="s">
         <v>396</v>
       </c>
       <c r="Y17" s="8" t="s">
@@ -4855,374 +4837,374 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="74" customFormat="1">
-      <c r="A18" s="68">
+    <row r="18" spans="1:36" s="9" customFormat="1">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="70" t="s">
+      <c r="F18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="69" t="s">
+      <c r="G18" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="5">
         <v>1.53</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="5">
         <v>1.48</v>
       </c>
-      <c r="K18" s="68">
+      <c r="K18" s="3">
         <v>0.8</v>
       </c>
-      <c r="L18" s="68">
+      <c r="L18" s="3">
         <v>30</v>
       </c>
-      <c r="M18" s="71">
-        <v>1</v>
-      </c>
-      <c r="N18" s="68">
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
         <v>40</v>
       </c>
-      <c r="O18" s="68">
+      <c r="O18" s="3">
         <v>4</v>
       </c>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="69">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="5">
         <v>0.7</v>
       </c>
-      <c r="R18" s="72">
-        <v>1</v>
-      </c>
-      <c r="S18" s="72">
+      <c r="R18" s="7">
+        <v>1</v>
+      </c>
+      <c r="S18" s="7">
         <v>0.6</v>
       </c>
-      <c r="T18" s="69" t="s">
+      <c r="T18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="72">
+      <c r="U18" s="7">
         <v>1.2</v>
       </c>
-      <c r="V18" s="72">
-        <v>1</v>
-      </c>
-      <c r="W18" s="72">
+      <c r="V18" s="7">
+        <v>1</v>
+      </c>
+      <c r="W18" s="7">
         <v>0.35</v>
       </c>
-      <c r="X18" s="75" t="s">
+      <c r="X18" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="Y18" s="73" t="s">
+      <c r="Y18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Z18" s="73" t="s">
+      <c r="Z18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AC18" s="74">
+      <c r="AC18" s="9">
         <v>7200</v>
       </c>
-      <c r="AD18" s="74">
+      <c r="AD18" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE18" s="74">
+      <c r="AE18" s="9">
         <v>2</v>
       </c>
-      <c r="AG18" s="73" t="s">
+      <c r="AG18" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="AJ18" s="73" t="s">
+      <c r="AJ18" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:36" s="28" customFormat="1">
-      <c r="A19" s="22">
+    <row r="19" spans="1:36" s="9" customFormat="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="5">
         <v>0.66</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="5">
         <v>0.89</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="3">
         <v>1.5</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="3">
         <v>30</v>
       </c>
-      <c r="M19" s="25">
-        <v>1</v>
-      </c>
-      <c r="N19" s="22">
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
         <v>60</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="3">
         <v>4</v>
       </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="23">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="5">
         <v>0.8</v>
       </c>
-      <c r="R19" s="26">
-        <v>1</v>
-      </c>
-      <c r="S19" s="26">
+      <c r="R19" s="7">
+        <v>1</v>
+      </c>
+      <c r="S19" s="7">
         <v>0.74</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="26">
+      <c r="U19" s="7">
         <v>0.7</v>
       </c>
-      <c r="V19" s="26">
-        <v>1</v>
-      </c>
-      <c r="W19" s="26">
+      <c r="V19" s="7">
+        <v>1</v>
+      </c>
+      <c r="W19" s="7">
         <v>0.35</v>
       </c>
-      <c r="X19" s="51" t="s">
+      <c r="X19" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="Y19" s="27" t="s">
+      <c r="Y19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z19" s="27" t="s">
+      <c r="Z19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AC19" s="28">
+      <c r="AC19" s="9">
         <v>7100</v>
       </c>
-      <c r="AD19" s="28">
+      <c r="AD19" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE19" s="28">
+      <c r="AE19" s="9">
         <v>2</v>
       </c>
-      <c r="AG19" s="27" t="s">
+      <c r="AG19" s="8" t="s">
         <v>168</v>
       </c>
       <c r="AJ19" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="1:36" s="28" customFormat="1">
-      <c r="A20" s="22">
+    <row r="20" spans="1:36" s="9" customFormat="1">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="5">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="5">
         <v>3.46</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="3">
         <v>1.5</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="3">
         <v>30</v>
       </c>
-      <c r="M20" s="25">
-        <v>1</v>
-      </c>
-      <c r="N20" s="22">
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
         <v>60</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="3">
         <v>4</v>
       </c>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="5">
         <v>0.7</v>
       </c>
-      <c r="R20" s="26">
-        <v>1</v>
-      </c>
-      <c r="S20" s="26">
+      <c r="R20" s="7">
+        <v>1</v>
+      </c>
+      <c r="S20" s="7">
         <v>0.74</v>
       </c>
-      <c r="T20" s="23" t="s">
+      <c r="T20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="26">
-        <v>1</v>
-      </c>
-      <c r="V20" s="26">
-        <v>1</v>
-      </c>
-      <c r="W20" s="26">
+      <c r="U20" s="7">
+        <v>1</v>
+      </c>
+      <c r="V20" s="7">
+        <v>1</v>
+      </c>
+      <c r="W20" s="7">
         <v>0.35</v>
       </c>
-      <c r="X20" s="31" t="s">
+      <c r="X20" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="Y20" s="27" t="s">
+      <c r="Y20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z20" s="27" t="s">
+      <c r="Z20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AC20" s="28">
+      <c r="AC20" s="9">
         <v>7000</v>
       </c>
-      <c r="AD20" s="28">
+      <c r="AD20" s="9">
         <v>2</v>
       </c>
-      <c r="AE20" s="28">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="27" t="s">
+      <c r="AE20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:36" s="9" customFormat="1">
-      <c r="A21" s="3">
+    <row r="21" spans="1:36" s="28" customFormat="1">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="22">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="23">
         <v>2.72</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="23">
         <v>2.62</v>
       </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="K21" s="22">
+        <v>1</v>
+      </c>
+      <c r="L21" s="22">
         <v>30</v>
       </c>
-      <c r="M21" s="6">
-        <v>1</v>
-      </c>
-      <c r="N21" s="3">
-        <v>80</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="5">
+      <c r="M21" s="25">
+        <v>1</v>
+      </c>
+      <c r="N21" s="22">
+        <v>120</v>
+      </c>
+      <c r="O21" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="23">
         <v>0.8</v>
       </c>
-      <c r="R21" s="7">
-        <v>1</v>
-      </c>
-      <c r="S21" s="7">
+      <c r="R21" s="26">
+        <v>1</v>
+      </c>
+      <c r="S21" s="26">
         <v>0.74</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="U21" s="7">
-        <v>1</v>
-      </c>
-      <c r="V21" s="7">
-        <v>1</v>
-      </c>
-      <c r="W21" s="7">
+      <c r="U21" s="26">
+        <v>1</v>
+      </c>
+      <c r="V21" s="26">
+        <v>1</v>
+      </c>
+      <c r="W21" s="26">
         <v>0.35</v>
       </c>
-      <c r="X21" s="51" t="s">
+      <c r="X21" s="31" t="s">
         <v>404</v>
       </c>
-      <c r="Y21" s="8" t="s">
+      <c r="Y21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="8" t="s">
+      <c r="Z21" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AC21" s="28">
         <v>6500</v>
       </c>
-      <c r="AD21" s="9">
+      <c r="AD21" s="28">
         <v>2</v>
       </c>
-      <c r="AE21" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="8" t="s">
+      <c r="AE21" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="AG21" s="8" t="s">
+      <c r="AG21" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="AJ21" s="8" t="s">
+      <c r="AJ21" s="27" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5316,279 +5298,279 @@
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="1:36" s="9" customFormat="1">
-      <c r="A23" s="3">
+    <row r="23" spans="1:36" s="28" customFormat="1">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="22">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="23">
         <v>1.29</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="23">
         <v>1.8</v>
       </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="K23" s="22">
+        <v>1</v>
+      </c>
+      <c r="L23" s="22">
         <v>30</v>
       </c>
-      <c r="M23" s="6">
-        <v>1</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="M23" s="25">
+        <v>1</v>
+      </c>
+      <c r="N23" s="22">
+        <v>120</v>
+      </c>
+      <c r="O23" s="22">
+        <v>3</v>
+      </c>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="R23" s="26">
+        <v>1</v>
+      </c>
+      <c r="S23" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="T23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="V23" s="26">
+        <v>1</v>
+      </c>
+      <c r="W23" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X23" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC23" s="28">
+        <v>6300</v>
+      </c>
+      <c r="AD23" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ23" s="27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" s="28" customFormat="1">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22">
+        <v>23</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="H24" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="5">
+      <c r="I24" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="J24" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="K24" s="22">
+        <v>1</v>
+      </c>
+      <c r="L24" s="22">
+        <v>30</v>
+      </c>
+      <c r="M24" s="25">
+        <v>1</v>
+      </c>
+      <c r="N24" s="22">
+        <v>120</v>
+      </c>
+      <c r="O24" s="22">
+        <v>1</v>
+      </c>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="23">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="R24" s="26">
+        <v>1</v>
+      </c>
+      <c r="S24" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="T24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="V24" s="26">
+        <v>1</v>
+      </c>
+      <c r="W24" s="26">
         <v>0.8</v>
       </c>
-      <c r="R23" s="7">
-        <v>1</v>
-      </c>
-      <c r="S23" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U23" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="V23" s="7">
-        <v>1</v>
-      </c>
-      <c r="W23" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="X23" s="51" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC23" s="9">
-        <v>6300</v>
-      </c>
-      <c r="AD23" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE23" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ23" s="8" t="s">
-        <v>348</v>
+      <c r="X24" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z24" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC24" s="28">
+        <v>6200</v>
+      </c>
+      <c r="AD24" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="AF24" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG24" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ24" s="27" t="s">
+        <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:36" s="9" customFormat="1">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H24" s="11" t="s">
+    <row r="25" spans="1:36" s="28" customFormat="1">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22">
+        <v>24</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="I25" s="23">
+        <v>1</v>
+      </c>
+      <c r="J25" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="22">
+        <v>1</v>
+      </c>
+      <c r="L25" s="22">
         <v>30</v>
       </c>
-      <c r="M24" s="6">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
-        <v>120</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="5">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="R24" s="7">
-        <v>1</v>
-      </c>
-      <c r="S24" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="T24" s="4" t="s">
+      <c r="M25" s="25">
+        <v>1</v>
+      </c>
+      <c r="N25" s="22">
+        <v>50</v>
+      </c>
+      <c r="O25" s="22">
+        <v>1</v>
+      </c>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="R25" s="26">
+        <v>1</v>
+      </c>
+      <c r="S25" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="T25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U25" s="26">
         <v>0.6</v>
       </c>
-      <c r="V24" s="7">
-        <v>1</v>
-      </c>
-      <c r="W24" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="X24" s="51" t="s">
+      <c r="V25" s="26">
+        <v>1</v>
+      </c>
+      <c r="W25" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="X25" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="Y24" s="8" t="s">
+      <c r="Y25" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Z24" s="8" t="s">
+      <c r="Z25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" s="9">
-        <v>6200</v>
-      </c>
-      <c r="AD24" s="9">
+      <c r="AC25" s="28">
+        <v>6100</v>
+      </c>
+      <c r="AD25" s="28">
         <v>1.2</v>
       </c>
-      <c r="AF24" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG24" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ24" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" s="9" customFormat="1">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3">
-        <v>30</v>
-      </c>
-      <c r="M25" s="6">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3">
-        <v>50</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R25" s="7">
-        <v>1</v>
-      </c>
-      <c r="S25" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U25" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="V25" s="7">
-        <v>1</v>
-      </c>
-      <c r="W25" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="X25" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC25" s="9">
-        <v>6100</v>
-      </c>
-      <c r="AD25" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="AG25" s="8" t="s">
+      <c r="AG25" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="AJ25" s="8" t="s">
+      <c r="AJ25" s="27" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5633,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="22">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="O26" s="22">
         <v>2</v>
@@ -5660,7 +5642,7 @@
       <c r="W26" s="26">
         <v>0.35</v>
       </c>
-      <c r="X26" s="51" t="s">
+      <c r="X26" s="31" t="s">
         <v>407</v>
       </c>
       <c r="Y26" s="27" t="s">
@@ -5679,7 +5661,7 @@
       <c r="AE26" s="28">
         <v>1</v>
       </c>
-      <c r="AJ26" s="8" t="s">
+      <c r="AJ26" s="27" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5724,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="22">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="O27" s="22">
         <v>4</v>
@@ -5751,7 +5733,7 @@
       <c r="W27" s="26">
         <v>0.35</v>
       </c>
-      <c r="X27" s="51" t="s">
+      <c r="X27" s="31" t="s">
         <v>407</v>
       </c>
       <c r="Y27" s="27" t="s">
@@ -5776,7 +5758,7 @@
       <c r="AG27" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="AJ27" s="8" t="s">
+      <c r="AJ27" s="27" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5821,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="22">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="O28" s="22">
         <v>4</v>
@@ -5871,1678 +5853,1678 @@
       <c r="AG28" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AJ28" s="8" t="s">
+      <c r="AJ28" s="27" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:36" s="28" customFormat="1">
-      <c r="A29" s="22">
+    <row r="29" spans="1:36" s="9" customFormat="1">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="4">
         <v>2.1</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="3">
         <v>0.8</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="3">
         <v>0.8</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="3">
         <v>30</v>
       </c>
-      <c r="M29" s="25">
-        <v>1</v>
-      </c>
-      <c r="N29" s="22">
+      <c r="M29" s="6">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O29" s="3">
         <v>4</v>
       </c>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="23">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="5">
         <v>0.7</v>
       </c>
-      <c r="R29" s="26">
-        <v>1</v>
-      </c>
-      <c r="S29" s="26">
+      <c r="R29" s="7">
+        <v>1</v>
+      </c>
+      <c r="S29" s="7">
         <v>0.74</v>
       </c>
-      <c r="T29" s="23" t="s">
+      <c r="T29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U29" s="26">
-        <v>1</v>
-      </c>
-      <c r="V29" s="26">
-        <v>1</v>
-      </c>
-      <c r="W29" s="26">
+      <c r="U29" s="7">
+        <v>1</v>
+      </c>
+      <c r="V29" s="7">
+        <v>1</v>
+      </c>
+      <c r="W29" s="7">
         <v>0.35</v>
       </c>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="27" t="s">
+      <c r="X29" s="3"/>
+      <c r="Y29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z29" s="27" t="s">
+      <c r="Z29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="28">
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="9">
         <v>5000</v>
       </c>
-      <c r="AD29" s="28">
+      <c r="AD29" s="9">
         <v>2</v>
       </c>
-      <c r="AE29" s="28">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="27" t="s">
+      <c r="AE29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="AJ29" s="27" t="s">
+      <c r="AJ29" s="8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:36" s="28" customFormat="1">
-      <c r="A30" s="22">
+    <row r="30" spans="1:36" s="9" customFormat="1">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="5">
         <v>1.68</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="5">
         <v>2.84</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="3">
         <v>0.8</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="3">
         <v>30</v>
       </c>
-      <c r="M30" s="25">
-        <v>1</v>
-      </c>
-      <c r="N30" s="22">
+      <c r="M30" s="6">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O30" s="3">
         <v>3</v>
       </c>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="23">
+      <c r="P30" s="42"/>
+      <c r="Q30" s="5">
         <v>0.7</v>
       </c>
-      <c r="R30" s="26">
-        <v>1</v>
-      </c>
-      <c r="S30" s="26">
+      <c r="R30" s="7">
+        <v>1</v>
+      </c>
+      <c r="S30" s="7">
         <v>0.74</v>
       </c>
-      <c r="T30" s="23" t="s">
+      <c r="T30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U30" s="26">
-        <v>1</v>
-      </c>
-      <c r="V30" s="26">
-        <v>1</v>
-      </c>
-      <c r="W30" s="26">
+      <c r="U30" s="7">
+        <v>1</v>
+      </c>
+      <c r="V30" s="7">
+        <v>1</v>
+      </c>
+      <c r="W30" s="7">
         <v>0.35</v>
       </c>
-      <c r="X30" s="31" t="s">
+      <c r="X30" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="Y30" s="27" t="s">
+      <c r="Y30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Z30" s="27" t="s">
+      <c r="Z30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AA30" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="28">
+      <c r="AA30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="9">
         <v>9200</v>
       </c>
-      <c r="AD30" s="28">
+      <c r="AD30" s="9">
         <v>2</v>
       </c>
-      <c r="AH30" s="27" t="s">
+      <c r="AH30" s="8" t="s">
         <v>194</v>
       </c>
       <c r="AJ30" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:36" s="28" customFormat="1">
-      <c r="A31" s="22">
+    <row r="31" spans="1:36" s="9" customFormat="1">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="4">
         <v>1.48</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="3">
         <v>2.77</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="3">
         <v>0.8</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="3">
         <v>30</v>
       </c>
-      <c r="M31" s="25">
-        <v>1</v>
-      </c>
-      <c r="N31" s="22">
+      <c r="M31" s="6">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="22">
+      <c r="O31" s="3">
         <v>4</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="5">
         <v>0.7</v>
       </c>
-      <c r="R31" s="26">
-        <v>1</v>
-      </c>
-      <c r="S31" s="26">
+      <c r="R31" s="7">
+        <v>1</v>
+      </c>
+      <c r="S31" s="7">
         <v>0.74</v>
       </c>
-      <c r="T31" s="23" t="s">
+      <c r="T31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U31" s="26">
-        <v>1</v>
-      </c>
-      <c r="V31" s="26">
-        <v>1</v>
-      </c>
-      <c r="W31" s="26">
+      <c r="U31" s="7">
+        <v>1</v>
+      </c>
+      <c r="V31" s="7">
+        <v>1</v>
+      </c>
+      <c r="W31" s="7">
         <v>0.35</v>
       </c>
-      <c r="X31" s="31" t="s">
+      <c r="X31" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="Y31" s="27" t="s">
+      <c r="Y31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z31" s="27" t="s">
+      <c r="Z31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AA31" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="28">
+      <c r="AA31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="9">
         <v>9200</v>
       </c>
-      <c r="AD31" s="28">
+      <c r="AD31" s="9">
         <v>2</v>
       </c>
-      <c r="AH31" s="27" t="s">
+      <c r="AH31" s="8" t="s">
         <v>193</v>
       </c>
       <c r="AJ31" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:36" s="28" customFormat="1">
-      <c r="A32" s="22">
+    <row r="32" spans="1:36" s="9" customFormat="1">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="4">
         <v>1.48</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="3">
         <v>1.96</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="3">
         <v>0.8</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="3">
         <v>30</v>
       </c>
-      <c r="M32" s="25">
-        <v>1</v>
-      </c>
-      <c r="N32" s="22">
+      <c r="M32" s="6">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O32" s="3">
         <v>4</v>
       </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="23">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="5">
         <v>0.7</v>
       </c>
-      <c r="R32" s="26">
-        <v>1</v>
-      </c>
-      <c r="S32" s="26">
+      <c r="R32" s="7">
+        <v>1</v>
+      </c>
+      <c r="S32" s="7">
         <v>0.74</v>
       </c>
-      <c r="T32" s="23" t="s">
+      <c r="T32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U32" s="26">
-        <v>1</v>
-      </c>
-      <c r="V32" s="26">
-        <v>1</v>
-      </c>
-      <c r="W32" s="26">
+      <c r="U32" s="7">
+        <v>1</v>
+      </c>
+      <c r="V32" s="7">
+        <v>1</v>
+      </c>
+      <c r="W32" s="7">
         <v>0.35</v>
       </c>
-      <c r="X32" s="31" t="s">
+      <c r="X32" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="Y32" s="27" t="s">
+      <c r="Y32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z32" s="27" t="s">
+      <c r="Z32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AA32" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="28">
+      <c r="AA32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="9">
         <v>9200</v>
       </c>
-      <c r="AD32" s="28">
+      <c r="AD32" s="9">
         <v>2</v>
       </c>
-      <c r="AE32" s="28">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="27" t="s">
+      <c r="AE32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="8" t="s">
         <v>194</v>
       </c>
       <c r="AJ32" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:36" s="28" customFormat="1">
-      <c r="A33" s="22">
+    <row r="33" spans="1:36" s="9" customFormat="1">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="5">
         <v>1.56</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="5">
         <v>2.27</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="3">
         <v>0.8</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="3">
         <v>30</v>
       </c>
-      <c r="M33" s="25">
-        <v>1</v>
-      </c>
-      <c r="N33" s="22">
+      <c r="M33" s="6">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="22">
+      <c r="O33" s="3">
         <v>4</v>
       </c>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="23">
+      <c r="P33" s="42"/>
+      <c r="Q33" s="5">
         <v>0.89999999999999991</v>
       </c>
-      <c r="R33" s="26">
-        <v>1</v>
-      </c>
-      <c r="S33" s="26">
+      <c r="R33" s="7">
+        <v>1</v>
+      </c>
+      <c r="S33" s="7">
         <v>0.74</v>
       </c>
-      <c r="T33" s="23" t="s">
+      <c r="T33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U33" s="26">
-        <v>1</v>
-      </c>
-      <c r="V33" s="26">
-        <v>1</v>
-      </c>
-      <c r="W33" s="26">
+      <c r="U33" s="7">
+        <v>1</v>
+      </c>
+      <c r="V33" s="7">
+        <v>1</v>
+      </c>
+      <c r="W33" s="7">
         <v>0.35</v>
       </c>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="27" t="s">
+      <c r="X33" s="3"/>
+      <c r="Y33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z33" s="27" t="s">
+      <c r="Z33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="28">
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="9">
         <v>4600</v>
       </c>
-      <c r="AD33" s="28">
+      <c r="AD33" s="9">
         <v>2</v>
       </c>
-      <c r="AE33" s="28">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="32"/>
+      <c r="AE33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="68"/>
       <c r="AJ33" s="8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:36" s="28" customFormat="1">
-      <c r="A34" s="22">
+    <row r="34" spans="1:36" s="9" customFormat="1">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="3">
         <v>33</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="5">
         <v>3</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="3">
         <v>0.8</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="3">
         <v>30</v>
       </c>
-      <c r="M34" s="25">
-        <v>1</v>
-      </c>
-      <c r="N34" s="22">
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="22">
-        <v>1</v>
-      </c>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="23">
+      <c r="O34" s="3">
+        <v>1</v>
+      </c>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="5">
         <v>0.7</v>
       </c>
-      <c r="R34" s="26">
-        <v>1</v>
-      </c>
-      <c r="S34" s="26">
+      <c r="R34" s="7">
+        <v>1</v>
+      </c>
+      <c r="S34" s="7">
         <v>0.74</v>
       </c>
-      <c r="T34" s="23" t="s">
+      <c r="T34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U34" s="26">
-        <v>1</v>
-      </c>
-      <c r="V34" s="26">
-        <v>1</v>
-      </c>
-      <c r="W34" s="26">
+      <c r="U34" s="7">
+        <v>1</v>
+      </c>
+      <c r="V34" s="7">
+        <v>1</v>
+      </c>
+      <c r="W34" s="7">
         <v>0.35</v>
       </c>
-      <c r="X34" s="31" t="s">
+      <c r="X34" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="Y34" s="27" t="s">
+      <c r="Y34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z34" s="27" t="s">
+      <c r="Z34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="28">
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="9">
         <v>4500</v>
       </c>
-      <c r="AD34" s="28">
+      <c r="AD34" s="9">
         <v>2</v>
       </c>
-      <c r="AE34" s="28">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="33"/>
+      <c r="AE34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="69"/>
       <c r="AJ34" s="8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:36" s="28" customFormat="1">
-      <c r="A35" s="22">
+    <row r="35" spans="1:36" s="9" customFormat="1">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="5">
         <v>0.84</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="3">
         <v>0.8</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="3">
         <v>30</v>
       </c>
-      <c r="M35" s="25">
-        <v>1</v>
-      </c>
-      <c r="N35" s="22">
+      <c r="M35" s="6">
+        <v>1</v>
+      </c>
+      <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="22">
-        <v>1</v>
-      </c>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="23">
+      <c r="O35" s="3">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="5">
         <v>0.60000000000000009</v>
       </c>
-      <c r="R35" s="26">
-        <v>1</v>
-      </c>
-      <c r="S35" s="26">
+      <c r="R35" s="7">
+        <v>1</v>
+      </c>
+      <c r="S35" s="7">
         <v>0.25</v>
       </c>
-      <c r="T35" s="24" t="s">
+      <c r="T35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U35" s="26">
+      <c r="U35" s="7">
         <v>0.6</v>
       </c>
-      <c r="V35" s="26">
-        <v>1</v>
-      </c>
-      <c r="W35" s="26">
+      <c r="V35" s="7">
+        <v>1</v>
+      </c>
+      <c r="W35" s="7">
         <v>0.45</v>
       </c>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="27" t="s">
+      <c r="X35" s="3"/>
+      <c r="Y35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Z35" s="27" t="s">
+      <c r="Z35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC35" s="28">
+      <c r="AC35" s="9">
         <v>4400</v>
       </c>
-      <c r="AD35" s="28">
+      <c r="AD35" s="9">
         <v>1.2</v>
       </c>
-      <c r="AG35" s="27" t="s">
+      <c r="AG35" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AI35" s="33"/>
+      <c r="AI35" s="69"/>
       <c r="AJ35" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:36" s="28" customFormat="1">
-      <c r="A36" s="22">
+    <row r="36" spans="1:36" s="9" customFormat="1">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="3">
         <v>35</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="5">
         <v>0.78</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="5">
         <v>0.72</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="3">
         <v>0.8</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="3">
         <v>30</v>
       </c>
-      <c r="M36" s="25">
-        <v>1</v>
-      </c>
-      <c r="N36" s="22">
+      <c r="M36" s="6">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
         <v>0</v>
       </c>
-      <c r="O36" s="22">
-        <v>1</v>
-      </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="23">
+      <c r="O36" s="3">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="5">
         <v>0.7</v>
       </c>
-      <c r="R36" s="26">
-        <v>1</v>
-      </c>
-      <c r="S36" s="26">
+      <c r="R36" s="7">
+        <v>1</v>
+      </c>
+      <c r="S36" s="7">
         <v>0.32</v>
       </c>
-      <c r="T36" s="24" t="s">
+      <c r="T36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="26">
+      <c r="U36" s="7">
         <v>0.6</v>
       </c>
-      <c r="V36" s="26">
-        <v>1</v>
-      </c>
-      <c r="W36" s="26">
+      <c r="V36" s="7">
+        <v>1</v>
+      </c>
+      <c r="W36" s="7">
         <v>0.35</v>
       </c>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="27" t="s">
+      <c r="X36" s="3"/>
+      <c r="Y36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Z36" s="27" t="s">
+      <c r="Z36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA36" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="28">
+      <c r="AA36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="9">
         <v>4300</v>
       </c>
-      <c r="AD36" s="28">
+      <c r="AD36" s="9">
         <v>1.2</v>
       </c>
-      <c r="AG36" s="27" t="s">
+      <c r="AG36" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AI36" s="33"/>
+      <c r="AI36" s="69"/>
       <c r="AJ36" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:36" s="28" customFormat="1">
-      <c r="A37" s="22">
+    <row r="37" spans="1:36" s="9" customFormat="1">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="3">
         <v>36</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="5">
         <v>1.76</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="5">
         <v>2.74</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="3">
         <v>1.5</v>
       </c>
-      <c r="L37" s="22">
+      <c r="L37" s="3">
         <v>30</v>
       </c>
-      <c r="M37" s="25">
-        <v>1</v>
-      </c>
-      <c r="N37" s="22">
+      <c r="M37" s="6">
+        <v>1</v>
+      </c>
+      <c r="N37" s="3">
         <v>0</v>
       </c>
-      <c r="O37" s="22">
-        <v>1</v>
-      </c>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="23">
+      <c r="O37" s="3">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="5">
         <v>0.60000000000000009</v>
       </c>
-      <c r="R37" s="26">
-        <v>1</v>
-      </c>
-      <c r="S37" s="26">
+      <c r="R37" s="7">
+        <v>1</v>
+      </c>
+      <c r="S37" s="7">
         <v>0.26</v>
       </c>
-      <c r="T37" s="24" t="s">
+      <c r="T37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U37" s="26">
+      <c r="U37" s="7">
         <v>0.8</v>
       </c>
-      <c r="V37" s="26">
-        <v>1</v>
-      </c>
-      <c r="W37" s="26">
+      <c r="V37" s="7">
+        <v>1</v>
+      </c>
+      <c r="W37" s="7">
         <v>0.4</v>
       </c>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="27" t="s">
+      <c r="X37" s="3"/>
+      <c r="Y37" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Z37" s="27" t="s">
+      <c r="Z37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AC37" s="28">
+      <c r="AC37" s="9">
         <v>4200</v>
       </c>
-      <c r="AD37" s="28">
+      <c r="AD37" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE37" s="28">
+      <c r="AE37" s="9">
         <v>2</v>
       </c>
-      <c r="AF37" s="27" t="s">
+      <c r="AF37" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="AG37" s="27" t="s">
+      <c r="AG37" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="AI37" s="33"/>
+      <c r="AI37" s="69"/>
       <c r="AJ37" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:36" s="49" customFormat="1">
-      <c r="A38" s="45">
+    <row r="38" spans="1:36" s="40" customFormat="1">
+      <c r="A38" s="37">
         <v>37</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="37">
         <v>37</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="I38" s="46">
+      <c r="I38" s="38">
         <v>2.64</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="38">
         <v>2.38</v>
       </c>
-      <c r="K38" s="45">
-        <v>1</v>
-      </c>
-      <c r="L38" s="45">
+      <c r="K38" s="37">
+        <v>1</v>
+      </c>
+      <c r="L38" s="37">
         <v>30</v>
       </c>
-      <c r="M38" s="46">
-        <v>1</v>
-      </c>
-      <c r="N38" s="45">
+      <c r="M38" s="38">
+        <v>1</v>
+      </c>
+      <c r="N38" s="37">
         <v>0</v>
       </c>
-      <c r="O38" s="45">
+      <c r="O38" s="37">
         <v>4</v>
       </c>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="46">
+      <c r="P38" s="37"/>
+      <c r="Q38" s="38">
         <v>1.2</v>
       </c>
-      <c r="R38" s="48">
+      <c r="R38" s="39">
         <v>0.73333333333333328</v>
       </c>
-      <c r="S38" s="48">
+      <c r="S38" s="39">
         <v>0.74</v>
       </c>
-      <c r="T38" s="46" t="s">
+      <c r="T38" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="U38" s="48">
-        <v>1</v>
-      </c>
-      <c r="V38" s="48">
+      <c r="U38" s="39">
+        <v>1</v>
+      </c>
+      <c r="V38" s="39">
         <v>0.8</v>
       </c>
-      <c r="W38" s="48">
+      <c r="W38" s="39">
         <v>0.1</v>
       </c>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="49" t="s">
+      <c r="X38" s="37"/>
+      <c r="Y38" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="Z38" s="49" t="s">
+      <c r="Z38" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="AA38" s="49">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="49">
+      <c r="AA38" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="40">
         <v>4100</v>
       </c>
-      <c r="AD38" s="49">
+      <c r="AD38" s="40">
         <v>2</v>
       </c>
-      <c r="AE38" s="49">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="49" t="s">
+      <c r="AE38" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="AI38" s="50"/>
-      <c r="AJ38" s="50"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="41"/>
     </row>
-    <row r="39" spans="1:36" s="38" customFormat="1">
-      <c r="A39" s="34">
+    <row r="39" spans="1:36" s="15" customFormat="1">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39" s="12">
         <v>38</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="13">
         <v>10</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="12">
         <v>10</v>
       </c>
-      <c r="K39" s="34">
-        <v>1</v>
-      </c>
-      <c r="L39" s="34">
+      <c r="K39" s="12">
+        <v>1</v>
+      </c>
+      <c r="L39" s="12">
         <v>30</v>
       </c>
-      <c r="M39" s="35">
-        <v>1</v>
-      </c>
-      <c r="N39" s="34">
+      <c r="M39" s="13">
+        <v>1</v>
+      </c>
+      <c r="N39" s="12">
         <v>300</v>
       </c>
-      <c r="O39" s="34">
+      <c r="O39" s="12">
         <v>4</v>
       </c>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="35">
+      <c r="P39" s="12"/>
+      <c r="Q39" s="13">
         <v>1.2</v>
       </c>
-      <c r="R39" s="37">
-        <v>1</v>
-      </c>
-      <c r="S39" s="37">
+      <c r="R39" s="14">
+        <v>1</v>
+      </c>
+      <c r="S39" s="14">
         <v>0.74</v>
       </c>
-      <c r="T39" s="35" t="s">
+      <c r="T39" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="U39" s="37">
-        <v>1</v>
-      </c>
-      <c r="V39" s="37">
-        <v>1</v>
-      </c>
-      <c r="W39" s="37">
+      <c r="U39" s="14">
+        <v>1</v>
+      </c>
+      <c r="V39" s="14">
+        <v>1</v>
+      </c>
+      <c r="W39" s="14">
         <v>0.35</v>
       </c>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="38" t="s">
+      <c r="X39" s="12"/>
+      <c r="Y39" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="Z39" s="38" t="s">
+      <c r="Z39" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AC39" s="38">
+      <c r="AC39" s="15">
         <v>3500</v>
       </c>
-      <c r="AD39" s="38">
+      <c r="AD39" s="15">
         <v>2</v>
       </c>
-      <c r="AE39" s="38">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="39" t="s">
+      <c r="AE39" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="16" t="s">
         <v>332</v>
       </c>
       <c r="AJ39" s="8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:36" s="38" customFormat="1">
-      <c r="A40" s="34">
+    <row r="40" spans="1:36" s="15" customFormat="1">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="12">
         <v>39</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="H40" s="35" t="s">
+      <c r="H40" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="13">
         <v>1.68</v>
       </c>
-      <c r="J40" s="35">
+      <c r="J40" s="13">
         <v>2.84</v>
       </c>
-      <c r="K40" s="34">
-        <v>1</v>
-      </c>
-      <c r="L40" s="34">
+      <c r="K40" s="12">
+        <v>1</v>
+      </c>
+      <c r="L40" s="12">
         <v>30</v>
       </c>
-      <c r="M40" s="35">
-        <v>1</v>
-      </c>
-      <c r="N40" s="34">
+      <c r="M40" s="13">
+        <v>1</v>
+      </c>
+      <c r="N40" s="12">
         <v>200</v>
       </c>
-      <c r="O40" s="34">
+      <c r="O40" s="12">
         <v>3</v>
       </c>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="35">
+      <c r="P40" s="12"/>
+      <c r="Q40" s="13">
         <v>0.7</v>
       </c>
-      <c r="R40" s="37">
-        <v>1</v>
-      </c>
-      <c r="S40" s="37">
+      <c r="R40" s="14">
+        <v>1</v>
+      </c>
+      <c r="S40" s="14">
         <v>0.74</v>
       </c>
-      <c r="T40" s="35" t="s">
+      <c r="T40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="37">
-        <v>1</v>
-      </c>
-      <c r="V40" s="37">
-        <v>1</v>
-      </c>
-      <c r="W40" s="37">
+      <c r="U40" s="14">
+        <v>1</v>
+      </c>
+      <c r="V40" s="14">
+        <v>1</v>
+      </c>
+      <c r="W40" s="14">
         <v>0.35</v>
       </c>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="38" t="s">
+      <c r="X40" s="12"/>
+      <c r="Y40" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="Z40" s="38" t="s">
+      <c r="Z40" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AC40" s="38">
+      <c r="AC40" s="15">
         <v>9100</v>
       </c>
-      <c r="AD40" s="38">
+      <c r="AD40" s="15">
         <v>2</v>
       </c>
-      <c r="AE40" s="38">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="38" t="s">
+      <c r="AE40" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="AG40" s="38" t="s">
+      <c r="AG40" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="AI40" s="39" t="s">
+      <c r="AI40" s="16" t="s">
         <v>333</v>
       </c>
       <c r="AJ40" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="41" spans="1:36" s="38" customFormat="1">
-      <c r="A41" s="34">
+    <row r="41" spans="1:36" s="15" customFormat="1">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41" s="12">
         <v>40</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I41" s="35">
+      <c r="I41" s="13">
         <v>7.28</v>
       </c>
-      <c r="J41" s="35">
+      <c r="J41" s="13">
         <v>7.53</v>
       </c>
-      <c r="K41" s="34">
+      <c r="K41" s="12">
         <v>0.8</v>
       </c>
-      <c r="L41" s="34">
+      <c r="L41" s="12">
         <v>30</v>
       </c>
-      <c r="M41" s="35">
-        <v>1</v>
-      </c>
-      <c r="N41" s="34">
+      <c r="M41" s="13">
+        <v>1</v>
+      </c>
+      <c r="N41" s="12">
         <v>600</v>
       </c>
-      <c r="O41" s="34">
-        <v>1</v>
-      </c>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="35">
+      <c r="O41" s="12">
+        <v>1</v>
+      </c>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="13">
         <v>1.4</v>
       </c>
-      <c r="R41" s="37">
-        <v>1</v>
-      </c>
-      <c r="S41" s="37">
+      <c r="R41" s="14">
+        <v>1</v>
+      </c>
+      <c r="S41" s="14">
         <v>0.74</v>
       </c>
-      <c r="T41" s="35" t="s">
+      <c r="T41" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="U41" s="37">
-        <v>1</v>
-      </c>
-      <c r="V41" s="37">
-        <v>1</v>
-      </c>
-      <c r="W41" s="37">
+      <c r="U41" s="14">
+        <v>1</v>
+      </c>
+      <c r="V41" s="14">
+        <v>1</v>
+      </c>
+      <c r="W41" s="14">
         <v>0.35</v>
       </c>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="38" t="s">
+      <c r="X41" s="12"/>
+      <c r="Y41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Z41" s="38" t="s">
+      <c r="Z41" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AC41" s="38">
+      <c r="AC41" s="15">
         <v>9100</v>
       </c>
-      <c r="AD41" s="38">
+      <c r="AD41" s="15">
         <v>2</v>
       </c>
-      <c r="AE41" s="38">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="39" t="s">
+      <c r="AE41" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="16" t="s">
         <v>334</v>
       </c>
       <c r="AJ41" s="8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="1:36" s="38" customFormat="1">
-      <c r="A42" s="34">
+    <row r="42" spans="1:36" s="15" customFormat="1">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="12">
         <v>41</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="35">
-        <v>1</v>
-      </c>
-      <c r="J42" s="35">
+      <c r="I42" s="13">
+        <v>1</v>
+      </c>
+      <c r="J42" s="13">
         <v>1.5</v>
       </c>
-      <c r="K42" s="34">
-        <v>1</v>
-      </c>
-      <c r="L42" s="34">
+      <c r="K42" s="12">
+        <v>1</v>
+      </c>
+      <c r="L42" s="12">
         <v>30</v>
       </c>
-      <c r="M42" s="35">
-        <v>1</v>
-      </c>
-      <c r="N42" s="34">
+      <c r="M42" s="13">
+        <v>1</v>
+      </c>
+      <c r="N42" s="12">
         <v>300</v>
       </c>
-      <c r="O42" s="34">
+      <c r="O42" s="12">
         <v>2</v>
       </c>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="35">
+      <c r="P42" s="12"/>
+      <c r="Q42" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R42" s="37">
+      <c r="R42" s="14">
         <v>1.2</v>
       </c>
-      <c r="S42" s="37">
+      <c r="S42" s="14">
         <v>0.4</v>
       </c>
-      <c r="T42" s="35" t="s">
+      <c r="T42" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="37">
-        <v>1</v>
-      </c>
-      <c r="V42" s="37">
-        <v>1</v>
-      </c>
-      <c r="W42" s="37">
+      <c r="U42" s="14">
+        <v>1</v>
+      </c>
+      <c r="V42" s="14">
+        <v>1</v>
+      </c>
+      <c r="W42" s="14">
         <v>0.5</v>
       </c>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="38" t="s">
+      <c r="X42" s="12"/>
+      <c r="Y42" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="Z42" s="38" t="s">
+      <c r="Z42" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AC42" s="38">
+      <c r="AC42" s="15">
         <v>3200</v>
       </c>
-      <c r="AD42" s="38">
+      <c r="AD42" s="15">
         <v>1.5</v>
       </c>
-      <c r="AE42" s="38">
+      <c r="AE42" s="15">
         <v>2</v>
       </c>
-      <c r="AG42" s="38" t="s">
+      <c r="AG42" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="AI42" s="39" t="s">
+      <c r="AI42" s="16" t="s">
         <v>335</v>
       </c>
       <c r="AJ42" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="43" spans="1:36" s="43" customFormat="1">
-      <c r="A43" s="40">
+    <row r="43" spans="1:36" s="40" customFormat="1">
+      <c r="A43" s="37">
         <v>42</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43" s="37">
         <v>42</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="41">
-        <v>1</v>
-      </c>
-      <c r="J43" s="41">
+      <c r="I43" s="38">
+        <v>1</v>
+      </c>
+      <c r="J43" s="38">
         <v>1.5</v>
       </c>
-      <c r="K43" s="40">
-        <v>1</v>
-      </c>
-      <c r="L43" s="40">
+      <c r="K43" s="37">
+        <v>1</v>
+      </c>
+      <c r="L43" s="37">
         <v>30</v>
       </c>
-      <c r="M43" s="41">
-        <v>1</v>
-      </c>
-      <c r="N43" s="40">
+      <c r="M43" s="38">
+        <v>1</v>
+      </c>
+      <c r="N43" s="37">
         <v>0</v>
       </c>
-      <c r="O43" s="40">
+      <c r="O43" s="37">
         <v>2</v>
       </c>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="41">
+      <c r="P43" s="37"/>
+      <c r="Q43" s="38">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R43" s="42">
+      <c r="R43" s="39">
         <v>1.2</v>
       </c>
-      <c r="S43" s="42">
+      <c r="S43" s="39">
         <v>0.4</v>
       </c>
-      <c r="T43" s="41" t="s">
+      <c r="T43" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U43" s="42">
-        <v>1</v>
-      </c>
-      <c r="V43" s="42">
-        <v>1</v>
-      </c>
-      <c r="W43" s="42">
+      <c r="U43" s="39">
+        <v>1</v>
+      </c>
+      <c r="V43" s="39">
+        <v>1</v>
+      </c>
+      <c r="W43" s="39">
         <v>0.5</v>
       </c>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="43" t="s">
+      <c r="X43" s="37"/>
+      <c r="Y43" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="Z43" s="43" t="s">
+      <c r="Z43" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AA43" s="43">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="43">
+      <c r="AA43" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="40">
         <v>3100</v>
       </c>
-      <c r="AD43" s="43">
+      <c r="AD43" s="40">
         <v>1.5</v>
       </c>
-      <c r="AE43" s="43">
+      <c r="AE43" s="40">
         <v>2</v>
       </c>
-      <c r="AG43" s="43" t="s">
+      <c r="AG43" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="44"/>
+      <c r="AI43" s="41"/>
+      <c r="AJ43" s="41"/>
     </row>
-    <row r="44" spans="1:36" s="38" customFormat="1">
-      <c r="A44" s="34">
+    <row r="44" spans="1:36" s="35" customFormat="1">
+      <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="32">
         <v>43</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="33">
         <v>0.96</v>
       </c>
-      <c r="J44" s="35">
+      <c r="J44" s="33">
         <v>0.83</v>
       </c>
-      <c r="K44" s="34">
-        <v>1</v>
-      </c>
-      <c r="L44" s="34">
+      <c r="K44" s="32">
+        <v>1</v>
+      </c>
+      <c r="L44" s="32">
         <v>30</v>
       </c>
-      <c r="M44" s="35">
-        <v>1</v>
-      </c>
-      <c r="N44" s="34">
+      <c r="M44" s="33">
+        <v>1</v>
+      </c>
+      <c r="N44" s="32">
         <v>500</v>
       </c>
-      <c r="O44" s="34">
+      <c r="O44" s="32">
         <v>3</v>
       </c>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="35">
+      <c r="P44" s="32"/>
+      <c r="Q44" s="33">
         <v>0.7</v>
       </c>
-      <c r="R44" s="37">
-        <v>1</v>
-      </c>
-      <c r="S44" s="37">
+      <c r="R44" s="34">
+        <v>1</v>
+      </c>
+      <c r="S44" s="34">
         <v>0.74</v>
       </c>
-      <c r="T44" s="35" t="s">
+      <c r="T44" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="U44" s="37">
-        <v>1</v>
-      </c>
-      <c r="V44" s="37">
+      <c r="U44" s="34">
+        <v>1</v>
+      </c>
+      <c r="V44" s="34">
         <v>0.7</v>
       </c>
-      <c r="W44" s="37">
+      <c r="W44" s="34">
         <v>0.35</v>
       </c>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="38" t="s">
+      <c r="X44" s="32"/>
+      <c r="Y44" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="Z44" s="38" t="s">
+      <c r="Z44" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AC44" s="38">
+      <c r="AC44" s="35">
         <v>9100</v>
       </c>
-      <c r="AD44" s="38">
+      <c r="AD44" s="35">
         <v>1.5</v>
       </c>
-      <c r="AE44" s="38">
+      <c r="AE44" s="35">
         <v>2</v>
       </c>
-      <c r="AG44" s="38" t="s">
+      <c r="AG44" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="AI44" s="39" t="s">
+      <c r="AI44" s="36" t="s">
         <v>336</v>
       </c>
       <c r="AJ44" s="8" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:36" s="43" customFormat="1">
-      <c r="A45" s="40">
+    <row r="45" spans="1:36" s="40" customFormat="1">
+      <c r="A45" s="37">
         <v>44</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="37">
         <v>44</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="41">
-        <v>1</v>
-      </c>
-      <c r="J45" s="41">
+      <c r="I45" s="38">
+        <v>1</v>
+      </c>
+      <c r="J45" s="38">
         <v>1.5</v>
       </c>
-      <c r="K45" s="40">
-        <v>1</v>
-      </c>
-      <c r="L45" s="40">
+      <c r="K45" s="37">
+        <v>1</v>
+      </c>
+      <c r="L45" s="37">
         <v>30</v>
       </c>
-      <c r="M45" s="41">
-        <v>1</v>
-      </c>
-      <c r="N45" s="40">
+      <c r="M45" s="38">
+        <v>1</v>
+      </c>
+      <c r="N45" s="37">
         <v>0</v>
       </c>
-      <c r="O45" s="40">
+      <c r="O45" s="37">
         <v>2</v>
       </c>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="41">
+      <c r="P45" s="37"/>
+      <c r="Q45" s="38">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R45" s="42">
+      <c r="R45" s="39">
         <v>1.2</v>
       </c>
-      <c r="S45" s="42">
+      <c r="S45" s="39">
         <v>0.4</v>
       </c>
-      <c r="T45" s="41" t="s">
+      <c r="T45" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U45" s="42">
-        <v>1</v>
-      </c>
-      <c r="V45" s="42">
-        <v>1</v>
-      </c>
-      <c r="W45" s="42">
+      <c r="U45" s="39">
+        <v>1</v>
+      </c>
+      <c r="V45" s="39">
+        <v>1</v>
+      </c>
+      <c r="W45" s="39">
         <v>0.5</v>
       </c>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="43" t="s">
+      <c r="X45" s="37"/>
+      <c r="Y45" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="Z45" s="43" t="s">
+      <c r="Z45" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AA45" s="43">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="43">
+      <c r="AA45" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="40">
         <v>2900</v>
       </c>
-      <c r="AD45" s="43">
+      <c r="AD45" s="40">
         <v>1.5</v>
       </c>
-      <c r="AE45" s="43">
+      <c r="AE45" s="40">
         <v>2</v>
       </c>
-      <c r="AG45" s="43" t="s">
+      <c r="AG45" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="AI45" s="44"/>
-      <c r="AJ45" s="44"/>
+      <c r="AI45" s="41"/>
+      <c r="AJ45" s="41"/>
     </row>
-    <row r="46" spans="1:36" s="43" customFormat="1">
-      <c r="A46" s="40">
+    <row r="46" spans="1:36" s="40" customFormat="1">
+      <c r="A46" s="37">
         <v>45</v>
       </c>
-      <c r="B46" s="40">
+      <c r="B46" s="37">
         <v>45</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F46" s="41" t="s">
+      <c r="F46" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="G46" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="H46" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="I46" s="41">
+      <c r="I46" s="38">
         <v>0.96</v>
       </c>
-      <c r="J46" s="41">
+      <c r="J46" s="38">
         <v>0.68</v>
       </c>
-      <c r="K46" s="40">
-        <v>1</v>
-      </c>
-      <c r="L46" s="40">
+      <c r="K46" s="37">
+        <v>1</v>
+      </c>
+      <c r="L46" s="37">
         <v>30</v>
       </c>
-      <c r="M46" s="41">
-        <v>1</v>
-      </c>
-      <c r="N46" s="40">
+      <c r="M46" s="38">
+        <v>1</v>
+      </c>
+      <c r="N46" s="37">
         <v>0</v>
       </c>
-      <c r="O46" s="40">
+      <c r="O46" s="37">
         <v>3</v>
       </c>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="41">
+      <c r="P46" s="37"/>
+      <c r="Q46" s="38">
         <v>0.7</v>
       </c>
-      <c r="R46" s="42">
-        <v>1</v>
-      </c>
-      <c r="S46" s="42">
+      <c r="R46" s="39">
+        <v>1</v>
+      </c>
+      <c r="S46" s="39">
         <v>0.8</v>
       </c>
-      <c r="T46" s="41" t="s">
+      <c r="T46" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="U46" s="42">
+      <c r="U46" s="39">
         <v>1.5</v>
       </c>
-      <c r="V46" s="42">
-        <v>1</v>
-      </c>
-      <c r="W46" s="42">
+      <c r="V46" s="39">
+        <v>1</v>
+      </c>
+      <c r="W46" s="39">
         <v>0.35</v>
       </c>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="43" t="s">
+      <c r="X46" s="37"/>
+      <c r="Y46" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="Z46" s="43" t="s">
+      <c r="Z46" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AC46" s="43">
+      <c r="AC46" s="40">
         <v>2800</v>
       </c>
-      <c r="AD46" s="43">
+      <c r="AD46" s="40">
         <v>1.5</v>
       </c>
-      <c r="AE46" s="43">
+      <c r="AE46" s="40">
         <v>2</v>
       </c>
-      <c r="AG46" s="43" t="s">
+      <c r="AG46" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AI46" s="44"/>
-      <c r="AJ46" s="44"/>
+      <c r="AI46" s="41"/>
+      <c r="AJ46" s="41"/>
     </row>
     <row r="47" spans="1:36" s="15" customFormat="1">
       <c r="A47" s="12">
@@ -8372,94 +8354,94 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="74" customFormat="1">
-      <c r="A56" s="68">
+    <row r="56" spans="1:36" s="65" customFormat="1">
+      <c r="A56" s="59">
         <v>55</v>
       </c>
-      <c r="B56" s="68">
+      <c r="B56" s="59">
         <v>55</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C56" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="D56" s="69" t="s">
+      <c r="D56" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="70" t="s">
+      <c r="E56" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="70" t="s">
+      <c r="F56" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="69" t="s">
+      <c r="G56" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="H56" s="69" t="s">
+      <c r="H56" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="I56" s="69">
+      <c r="I56" s="60">
         <v>1.53</v>
       </c>
-      <c r="J56" s="69">
+      <c r="J56" s="60">
         <v>1.48</v>
       </c>
-      <c r="K56" s="68">
+      <c r="K56" s="59">
         <v>0.8</v>
       </c>
-      <c r="L56" s="68">
+      <c r="L56" s="59">
         <v>30</v>
       </c>
-      <c r="M56" s="71">
-        <v>1</v>
-      </c>
-      <c r="N56" s="68">
+      <c r="M56" s="62">
+        <v>1</v>
+      </c>
+      <c r="N56" s="59">
         <v>40</v>
       </c>
-      <c r="O56" s="68">
+      <c r="O56" s="59">
         <v>4</v>
       </c>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="69">
+      <c r="P56" s="59"/>
+      <c r="Q56" s="60">
         <v>0.7</v>
       </c>
-      <c r="R56" s="72">
-        <v>1</v>
-      </c>
-      <c r="S56" s="72">
+      <c r="R56" s="63">
+        <v>1</v>
+      </c>
+      <c r="S56" s="63">
         <v>0.6</v>
       </c>
-      <c r="T56" s="69" t="s">
+      <c r="T56" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="U56" s="72">
+      <c r="U56" s="63">
         <v>1.4</v>
       </c>
-      <c r="V56" s="72">
-        <v>1</v>
-      </c>
-      <c r="W56" s="72">
+      <c r="V56" s="63">
+        <v>1</v>
+      </c>
+      <c r="W56" s="63">
         <v>0.35</v>
       </c>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="73" t="s">
+      <c r="X56" s="59"/>
+      <c r="Y56" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="Z56" s="73" t="s">
+      <c r="Z56" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="AC56" s="74">
+      <c r="AC56" s="65">
         <v>7200</v>
       </c>
-      <c r="AD56" s="74">
+      <c r="AD56" s="65">
         <v>1.5</v>
       </c>
-      <c r="AE56" s="74">
+      <c r="AE56" s="65">
         <v>2</v>
       </c>
-      <c r="AG56" s="73" t="s">
+      <c r="AG56" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="AJ56" s="73" t="s">
+      <c r="AJ56" s="64" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8637,421 +8619,421 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="1:36" s="54" customFormat="1">
-      <c r="A59" s="52">
+    <row r="59" spans="1:36" s="45" customFormat="1">
+      <c r="A59" s="43">
         <v>58</v>
       </c>
-      <c r="B59" s="52">
+      <c r="B59" s="43">
         <v>58</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D59" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="F59" s="53" t="s">
+      <c r="F59" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="G59" s="53" t="s">
+      <c r="G59" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="H59" s="53" t="s">
+      <c r="H59" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="I59" s="53">
+      <c r="I59" s="44">
         <v>2.64</v>
       </c>
-      <c r="J59" s="53">
+      <c r="J59" s="44">
         <v>2.38</v>
       </c>
-      <c r="K59" s="52">
-        <v>1</v>
-      </c>
-      <c r="L59" s="52">
+      <c r="K59" s="43">
+        <v>1</v>
+      </c>
+      <c r="L59" s="43">
         <v>30</v>
       </c>
-      <c r="M59" s="53">
-        <v>1</v>
-      </c>
-      <c r="N59" s="52">
+      <c r="M59" s="44">
+        <v>1</v>
+      </c>
+      <c r="N59" s="43">
         <v>0</v>
       </c>
-      <c r="O59" s="52">
+      <c r="O59" s="43">
         <v>4</v>
       </c>
-      <c r="Q59" s="53">
+      <c r="Q59" s="44">
         <v>0.64</v>
       </c>
-      <c r="R59" s="55">
+      <c r="R59" s="46">
         <v>0.73</v>
       </c>
-      <c r="S59" s="55">
+      <c r="S59" s="46">
         <v>0.74</v>
       </c>
-      <c r="T59" s="53" t="s">
+      <c r="T59" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="U59" s="55">
-        <v>1</v>
-      </c>
-      <c r="V59" s="55">
+      <c r="U59" s="46">
+        <v>1</v>
+      </c>
+      <c r="V59" s="46">
         <v>0.8</v>
       </c>
-      <c r="W59" s="55">
+      <c r="W59" s="46">
         <v>0.1</v>
       </c>
-      <c r="Y59" s="56" t="s">
+      <c r="Y59" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="Z59" s="57" t="s">
+      <c r="Z59" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="AA59" s="57">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="57">
+      <c r="AA59" s="48">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="48">
         <v>1000</v>
       </c>
-      <c r="AD59" s="57">
+      <c r="AD59" s="48">
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:36" s="54" customFormat="1">
+    <row r="60" spans="1:36" s="45" customFormat="1">
       <c r="A60" s="12">
         <v>59</v>
       </c>
       <c r="B60" s="12">
         <v>59</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="44" t="s">
         <v>415</v>
       </c>
-      <c r="D60" s="53" t="s">
+      <c r="D60" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="E60" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="G60" s="53" t="s">
+      <c r="G60" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="H60" s="53" t="s">
+      <c r="H60" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="I60" s="53">
+      <c r="I60" s="44">
         <v>2.64</v>
       </c>
-      <c r="J60" s="53">
+      <c r="J60" s="44">
         <v>2.38</v>
       </c>
-      <c r="K60" s="52">
-        <v>1</v>
-      </c>
-      <c r="L60" s="52">
+      <c r="K60" s="43">
+        <v>1</v>
+      </c>
+      <c r="L60" s="43">
         <v>30</v>
       </c>
-      <c r="M60" s="53">
-        <v>1</v>
-      </c>
-      <c r="N60" s="52">
+      <c r="M60" s="44">
+        <v>1</v>
+      </c>
+      <c r="N60" s="43">
         <v>0</v>
       </c>
-      <c r="O60" s="52">
+      <c r="O60" s="43">
         <v>4</v>
       </c>
-      <c r="Q60" s="53">
+      <c r="Q60" s="44">
         <v>0.64</v>
       </c>
-      <c r="R60" s="55">
+      <c r="R60" s="46">
         <v>0.73</v>
       </c>
-      <c r="S60" s="55">
+      <c r="S60" s="46">
         <v>0.74</v>
       </c>
-      <c r="T60" s="53" t="s">
+      <c r="T60" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="U60" s="55">
-        <v>1</v>
-      </c>
-      <c r="V60" s="55">
+      <c r="U60" s="46">
+        <v>1</v>
+      </c>
+      <c r="V60" s="46">
         <v>0.8</v>
       </c>
-      <c r="W60" s="55">
+      <c r="W60" s="46">
         <v>0.1</v>
       </c>
-      <c r="Y60" s="56" t="s">
+      <c r="Y60" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="Z60" s="57" t="s">
+      <c r="Z60" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="AA60" s="57">
-        <v>1</v>
-      </c>
-      <c r="AC60" s="57">
+      <c r="AA60" s="48">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="48">
         <v>1000</v>
       </c>
-      <c r="AD60" s="57">
+      <c r="AD60" s="48">
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36" s="60" customFormat="1">
-      <c r="A61" s="58">
+    <row r="61" spans="1:36" s="51" customFormat="1">
+      <c r="A61" s="49">
         <v>60</v>
       </c>
-      <c r="B61" s="58">
+      <c r="B61" s="49">
         <v>60</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="E61" s="59" t="s">
+      <c r="E61" s="50" t="s">
         <v>422</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="50" t="s">
         <v>418</v>
       </c>
-      <c r="G61" s="59" t="s">
+      <c r="G61" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="H61" s="59" t="s">
+      <c r="H61" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="I61" s="59">
+      <c r="I61" s="50">
         <v>2.64</v>
       </c>
-      <c r="J61" s="59">
+      <c r="J61" s="50">
         <v>2.38</v>
       </c>
-      <c r="K61" s="58">
-        <v>1</v>
-      </c>
-      <c r="L61" s="58">
+      <c r="K61" s="49">
+        <v>1</v>
+      </c>
+      <c r="L61" s="49">
         <v>30</v>
       </c>
-      <c r="M61" s="59">
-        <v>1</v>
-      </c>
-      <c r="N61" s="58">
+      <c r="M61" s="50">
+        <v>1</v>
+      </c>
+      <c r="N61" s="49">
         <v>0</v>
       </c>
-      <c r="O61" s="58">
+      <c r="O61" s="49">
         <v>4</v>
       </c>
-      <c r="Q61" s="59">
+      <c r="Q61" s="50">
         <v>0.64</v>
       </c>
-      <c r="R61" s="61">
+      <c r="R61" s="52">
         <v>0.73</v>
       </c>
-      <c r="S61" s="61">
+      <c r="S61" s="52">
         <v>0.74</v>
       </c>
-      <c r="T61" s="59" t="s">
+      <c r="T61" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="U61" s="61">
-        <v>1</v>
-      </c>
-      <c r="V61" s="61">
+      <c r="U61" s="52">
+        <v>1</v>
+      </c>
+      <c r="V61" s="52">
         <v>0.8</v>
       </c>
-      <c r="W61" s="61">
+      <c r="W61" s="52">
         <v>0.1</v>
       </c>
-      <c r="Y61" s="62" t="s">
+      <c r="Y61" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="Z61" s="63" t="s">
+      <c r="Z61" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="AA61" s="63">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="63">
+      <c r="AA61" s="54">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="54">
         <v>1000</v>
       </c>
-      <c r="AD61" s="63">
+      <c r="AD61" s="54">
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="1:36" s="65" customFormat="1" ht="16.5">
-      <c r="A62" s="52">
+    <row r="62" spans="1:36" s="56" customFormat="1" ht="16.5">
+      <c r="A62" s="43">
         <v>61</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="43">
         <v>61</v>
       </c>
-      <c r="C62" s="76" t="s">
+      <c r="C62" s="66" t="s">
         <v>427</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="D62" s="55" t="s">
         <v>424</v>
       </c>
-      <c r="E62" s="53" t="s">
+      <c r="E62" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="F62" s="64" t="s">
+      <c r="F62" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="G62" s="64" t="s">
+      <c r="G62" s="55" t="s">
         <v>425</v>
       </c>
-      <c r="H62" s="53" t="s">
+      <c r="H62" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="I62" s="53">
+      <c r="I62" s="44">
         <v>2.64</v>
       </c>
-      <c r="J62" s="53">
+      <c r="J62" s="44">
         <v>2.38</v>
       </c>
-      <c r="K62" s="52">
-        <v>1</v>
-      </c>
-      <c r="L62" s="52">
+      <c r="K62" s="43">
+        <v>1</v>
+      </c>
+      <c r="L62" s="43">
         <v>30</v>
       </c>
-      <c r="M62" s="53">
-        <v>1</v>
-      </c>
-      <c r="N62" s="52">
+      <c r="M62" s="44">
+        <v>1</v>
+      </c>
+      <c r="N62" s="43">
         <v>0</v>
       </c>
-      <c r="O62" s="52">
+      <c r="O62" s="43">
         <v>4</v>
       </c>
-      <c r="Q62" s="53">
+      <c r="Q62" s="44">
         <v>0.64</v>
       </c>
-      <c r="R62" s="55">
+      <c r="R62" s="46">
         <v>0.73</v>
       </c>
-      <c r="S62" s="55">
+      <c r="S62" s="46">
         <v>0.74</v>
       </c>
-      <c r="T62" s="53" t="s">
+      <c r="T62" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="U62" s="55">
-        <v>1</v>
-      </c>
-      <c r="V62" s="55">
+      <c r="U62" s="46">
+        <v>1</v>
+      </c>
+      <c r="V62" s="46">
         <v>0.8</v>
       </c>
-      <c r="W62" s="55">
+      <c r="W62" s="46">
         <v>0.1</v>
       </c>
-      <c r="X62" s="65" t="s">
+      <c r="X62" s="56" t="s">
         <v>423</v>
       </c>
-      <c r="Y62" s="66" t="s">
+      <c r="Y62" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="Z62" s="52" t="s">
+      <c r="Z62" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="AA62" s="52">
-        <v>1</v>
-      </c>
-      <c r="AC62" s="52">
+      <c r="AA62" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="43">
         <v>1000</v>
       </c>
-      <c r="AD62" s="52">
+      <c r="AD62" s="43">
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="1:36" s="54" customFormat="1">
+    <row r="63" spans="1:36" s="45" customFormat="1">
       <c r="A63" s="12">
         <v>62</v>
       </c>
       <c r="B63" s="12">
         <v>62</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="E63" s="53" t="s">
+      <c r="E63" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="F63" s="53" t="s">
+      <c r="F63" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="G63" s="53" t="s">
+      <c r="G63" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="H63" s="53" t="s">
+      <c r="H63" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="I63" s="53">
+      <c r="I63" s="44">
         <v>2.64</v>
       </c>
-      <c r="J63" s="53">
+      <c r="J63" s="44">
         <v>2.38</v>
       </c>
-      <c r="K63" s="52">
-        <v>1</v>
-      </c>
-      <c r="L63" s="52">
+      <c r="K63" s="43">
+        <v>1</v>
+      </c>
+      <c r="L63" s="43">
         <v>30</v>
       </c>
-      <c r="M63" s="53">
-        <v>1</v>
-      </c>
-      <c r="N63" s="52">
+      <c r="M63" s="44">
+        <v>1</v>
+      </c>
+      <c r="N63" s="43">
         <v>0</v>
       </c>
-      <c r="O63" s="52">
+      <c r="O63" s="43">
         <v>4</v>
       </c>
-      <c r="Q63" s="53">
+      <c r="Q63" s="44">
         <v>0.64</v>
       </c>
-      <c r="R63" s="55">
+      <c r="R63" s="46">
         <v>0.73</v>
       </c>
-      <c r="S63" s="55">
+      <c r="S63" s="46">
         <v>0.74</v>
       </c>
-      <c r="T63" s="53" t="s">
+      <c r="T63" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="U63" s="55">
-        <v>1</v>
-      </c>
-      <c r="V63" s="55">
+      <c r="U63" s="46">
+        <v>1</v>
+      </c>
+      <c r="V63" s="46">
         <v>0.8</v>
       </c>
-      <c r="W63" s="55">
+      <c r="W63" s="46">
         <v>0.1</v>
       </c>
-      <c r="Y63" s="56" t="s">
+      <c r="Y63" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="Z63" s="57" t="s">
+      <c r="Z63" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="AA63" s="57">
-        <v>1</v>
-      </c>
-      <c r="AC63" s="57">
+      <c r="AA63" s="48">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="48">
         <v>1000</v>
       </c>
-      <c r="AD63" s="57">
+      <c r="AD63" s="48">
         <v>1.5</v>
       </c>
     </row>

--- a/config_debug/fish3d_config.xlsx
+++ b/config_debug/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="434">
   <si>
     <t>line|行号</t>
   </si>
@@ -3197,11 +3197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ64"/>
+  <dimension ref="A1:AJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9037,8 +9037,569 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
-      <c r="E64" s="13"/>
+    <row r="64" spans="1:36" s="28" customFormat="1">
+      <c r="A64" s="22">
+        <v>63</v>
+      </c>
+      <c r="B64" s="22">
+        <v>63</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" s="23">
+        <v>2.72</v>
+      </c>
+      <c r="J64" s="23">
+        <v>2.62</v>
+      </c>
+      <c r="K64" s="22">
+        <v>1</v>
+      </c>
+      <c r="L64" s="22">
+        <v>30</v>
+      </c>
+      <c r="M64" s="25">
+        <v>1</v>
+      </c>
+      <c r="N64" s="22">
+        <v>120</v>
+      </c>
+      <c r="O64" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="R64" s="26">
+        <v>1</v>
+      </c>
+      <c r="S64" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T64" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="U64" s="26">
+        <v>1</v>
+      </c>
+      <c r="V64" s="26">
+        <v>1</v>
+      </c>
+      <c r="W64" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X64" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y64" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z64" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC64" s="28">
+        <v>6500</v>
+      </c>
+      <c r="AD64" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE64" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF64" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG64" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ64" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" s="28" customFormat="1">
+      <c r="A65" s="22">
+        <v>64</v>
+      </c>
+      <c r="B65" s="22">
+        <v>64</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I65" s="23">
+        <v>1.29</v>
+      </c>
+      <c r="J65" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="K65" s="22">
+        <v>1</v>
+      </c>
+      <c r="L65" s="22">
+        <v>30</v>
+      </c>
+      <c r="M65" s="25">
+        <v>1</v>
+      </c>
+      <c r="N65" s="22">
+        <v>120</v>
+      </c>
+      <c r="O65" s="22">
+        <v>3</v>
+      </c>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="R65" s="26">
+        <v>1</v>
+      </c>
+      <c r="S65" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="T65" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U65" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="V65" s="26">
+        <v>1</v>
+      </c>
+      <c r="W65" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X65" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y65" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z65" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC65" s="28">
+        <v>6300</v>
+      </c>
+      <c r="AD65" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE65" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG65" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ65" s="27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" s="28" customFormat="1">
+      <c r="A66" s="22">
+        <v>65</v>
+      </c>
+      <c r="B66" s="22">
+        <v>65</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I66" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="J66" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="K66" s="22">
+        <v>1</v>
+      </c>
+      <c r="L66" s="22">
+        <v>30</v>
+      </c>
+      <c r="M66" s="25">
+        <v>1</v>
+      </c>
+      <c r="N66" s="22">
+        <v>120</v>
+      </c>
+      <c r="O66" s="22">
+        <v>1</v>
+      </c>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="23">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="R66" s="26">
+        <v>1</v>
+      </c>
+      <c r="S66" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="T66" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U66" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="V66" s="26">
+        <v>1</v>
+      </c>
+      <c r="W66" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="X66" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y66" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z66" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC66" s="28">
+        <v>6200</v>
+      </c>
+      <c r="AD66" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="AF66" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG66" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ66" s="27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" s="28" customFormat="1">
+      <c r="A67" s="22">
+        <v>66</v>
+      </c>
+      <c r="B67" s="22">
+        <v>66</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I67" s="23">
+        <v>1.44</v>
+      </c>
+      <c r="J67" s="23">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K67" s="22">
+        <v>1</v>
+      </c>
+      <c r="L67" s="22">
+        <v>30</v>
+      </c>
+      <c r="M67" s="25">
+        <v>1</v>
+      </c>
+      <c r="N67" s="22">
+        <v>160</v>
+      </c>
+      <c r="O67" s="22">
+        <v>2</v>
+      </c>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R67" s="26">
+        <v>1</v>
+      </c>
+      <c r="S67" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T67" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U67" s="26">
+        <v>1</v>
+      </c>
+      <c r="V67" s="26">
+        <v>1</v>
+      </c>
+      <c r="W67" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X67" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y67" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z67" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="28">
+        <v>6000</v>
+      </c>
+      <c r="AD67" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE67" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ67" s="27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" s="28" customFormat="1">
+      <c r="A68" s="22">
+        <v>67</v>
+      </c>
+      <c r="B68" s="22">
+        <v>67</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I68" s="23">
+        <v>3.77</v>
+      </c>
+      <c r="J68" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="K68" s="22">
+        <v>1</v>
+      </c>
+      <c r="L68" s="22">
+        <v>30</v>
+      </c>
+      <c r="M68" s="25">
+        <v>1</v>
+      </c>
+      <c r="N68" s="22">
+        <v>200</v>
+      </c>
+      <c r="O68" s="22">
+        <v>4</v>
+      </c>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R68" s="26">
+        <v>1</v>
+      </c>
+      <c r="S68" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T68" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U68" s="26">
+        <v>1</v>
+      </c>
+      <c r="V68" s="26">
+        <v>1</v>
+      </c>
+      <c r="W68" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X68" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y68" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z68" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="28">
+        <v>5900</v>
+      </c>
+      <c r="AD68" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE68" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF68" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG68" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ68" s="27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" s="28" customFormat="1">
+      <c r="A69" s="22">
+        <v>68</v>
+      </c>
+      <c r="B69" s="22">
+        <v>68</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I69" s="23">
+        <v>2.64</v>
+      </c>
+      <c r="J69" s="23">
+        <v>2.38</v>
+      </c>
+      <c r="K69" s="22">
+        <v>1</v>
+      </c>
+      <c r="L69" s="22">
+        <v>30</v>
+      </c>
+      <c r="M69" s="30">
+        <v>1</v>
+      </c>
+      <c r="N69" s="22">
+        <v>200</v>
+      </c>
+      <c r="O69" s="22">
+        <v>4</v>
+      </c>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="R69" s="26">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="S69" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T69" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="U69" s="26">
+        <v>1</v>
+      </c>
+      <c r="V69" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="W69" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="X69" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y69" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z69" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="28">
+        <v>5800</v>
+      </c>
+      <c r="AD69" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE69" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG69" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ69" s="27" t="s">
+        <v>353</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
